--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -878,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="10" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>151391303</v>
+        <v>151423149</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -2221,7 +2221,7 @@
         <v>4831</v>
       </c>
       <c r="E10" s="5">
-        <v>45225</v>
+        <v>45308</v>
       </c>
       <c r="F10" s="4">
         <v>615698</v>
@@ -2236,10 +2236,10 @@
         <v>12</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10" s="5">
-        <v>45250</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2401,19 +2401,19 @@
     </row>
     <row r="18" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>151429605</v>
+        <v>151423149</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>5614</v>
       </c>
       <c r="E18" s="2">
-        <v>45322</v>
+        <v>45308</v>
       </c>
       <c r="F18" s="1">
         <v>616026</v>
@@ -2428,10 +2428,10 @@
         <v>12</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K18" s="2">
-        <v>45337</v>
+        <v>45321</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -2793,38 +2793,38 @@
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27">
-        <v>151442906</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="4">
-        <v>30</v>
-      </c>
-      <c r="D34" s="35">
+      <c r="A34" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="23">
+        <v>40</v>
+      </c>
+      <c r="D34" s="40">
         <v>3555</v>
       </c>
-      <c r="E34" s="34">
-        <v>45350</v>
-      </c>
-      <c r="F34" s="27">
+      <c r="E34" s="41">
+        <v>45362</v>
+      </c>
+      <c r="F34" s="22">
         <v>646872</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="4">
-        <v>5</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="4">
-        <v>5</v>
-      </c>
-      <c r="K34" s="34">
-        <v>45394</v>
+      <c r="H34" s="23">
+        <v>10</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="23">
+        <v>10</v>
+      </c>
+      <c r="K34" s="41">
+        <v>45392</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -2938,19 +2938,19 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
-        <v>151338133</v>
+        <v>151448381</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="23">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D40" s="24">
         <v>3510</v>
       </c>
       <c r="E40" s="25">
-        <v>45077</v>
+        <v>45362</v>
       </c>
       <c r="F40" s="23">
         <v>663091</v>
@@ -2959,16 +2959,16 @@
         <v>51</v>
       </c>
       <c r="H40" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>12</v>
       </c>
       <c r="J40" s="26">
-        <v>0</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>84</v>
+        <v>5</v>
+      </c>
+      <c r="K40" s="26">
+        <v>45392</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -2985,38 +2985,38 @@
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27">
-        <v>151429605</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="4">
-        <v>60</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="A42" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="23">
+        <v>20</v>
+      </c>
+      <c r="D42" s="24">
         <v>5130</v>
       </c>
-      <c r="E42" s="5">
-        <v>45322</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="E42" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F42" s="23">
         <v>663092</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="7">
-        <v>5</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>45337</v>
+      <c r="H42" s="26">
+        <v>10</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="26">
+        <v>10</v>
+      </c>
+      <c r="K42" s="25">
+        <v>45392</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -3033,38 +3033,38 @@
       <c r="K43" s="21"/>
     </row>
     <row r="44" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27">
-        <v>151372120</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="4">
-        <v>10</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="A44" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="23">
+        <v>30</v>
+      </c>
+      <c r="D44" s="24">
         <v>6615</v>
       </c>
-      <c r="E44" s="5">
-        <v>45175</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="E44" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F44" s="23">
         <v>663093</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="7">
-        <v>10</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <v>45264</v>
+      <c r="H44" s="26">
+        <v>10</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="26">
+        <v>10</v>
+      </c>
+      <c r="K44" s="25">
+        <v>45390</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3220,7 +3220,7 @@
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="43"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="21"/>
       <c r="I51" s="16"/>
       <c r="J51" s="21"/>
@@ -3316,7 +3316,7 @@
       <c r="D55" s="6"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="43"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7"/>
       <c r="I55" s="4"/>
       <c r="J55" s="7"/>
@@ -3495,7 +3495,7 @@
       <c r="D62" s="19"/>
       <c r="E62" s="20"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="43"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="21"/>
       <c r="I62" s="16"/>
       <c r="J62" s="21"/>
@@ -3632,291 +3632,326 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="47">
+    <row r="68" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="23">
+        <v>10</v>
+      </c>
+      <c r="D68" s="24">
+        <v>1896</v>
+      </c>
+      <c r="E68" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F68" s="23">
+        <v>716663</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="26">
+        <v>2</v>
+      </c>
+      <c r="I68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="26">
+        <v>2</v>
+      </c>
+      <c r="K68" s="25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="47">
         <v>151350196</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B70" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="47">
-        <v>10</v>
-      </c>
-      <c r="D69" s="47">
+      <c r="C70" s="47">
+        <v>10</v>
+      </c>
+      <c r="D70" s="47">
         <v>45000</v>
       </c>
-      <c r="E69" s="47" t="s">
+      <c r="E70" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F70" s="47">
         <v>719031</v>
       </c>
-      <c r="G69" s="47" t="s">
+      <c r="G70" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="48">
+      <c r="H70" s="48">
         <v>2</v>
       </c>
-      <c r="I69" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="48">
+      <c r="I70" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="48">
         <v>0</v>
       </c>
-      <c r="K69" s="48" t="s">
+      <c r="K70" s="48" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-    </row>
-    <row r="71" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+    </row>
+    <row r="72" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22">
         <v>151395324</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B72" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C72" s="23">
         <v>20</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D72" s="40">
         <v>11990</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E72" s="41">
         <v>45236</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="22">
         <v>719381</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G72" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H72" s="23">
         <v>2</v>
       </c>
-      <c r="I71" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="23">
+      <c r="I72" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="23">
         <v>0</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K72" s="41">
         <v>45296</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="8"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="8"/>
-    </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="A73" s="8"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="22">
         <v>151341902</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B74" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="42">
-        <v>10</v>
-      </c>
-      <c r="D73" s="42">
+      <c r="C74" s="42">
+        <v>10</v>
+      </c>
+      <c r="D74" s="42">
         <v>6800</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E74" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F74" s="42">
         <v>720138</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G74" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H74" s="42">
         <v>3</v>
       </c>
-      <c r="I73" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="42">
+      <c r="I74" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="42">
         <v>0</v>
       </c>
-      <c r="K73" s="42" t="s">
+      <c r="K74" s="42" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-    </row>
-    <row r="75" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+    </row>
+    <row r="76" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="22">
         <v>151343138</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B76" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="23">
-        <v>10</v>
-      </c>
-      <c r="D75" s="23">
+      <c r="C76" s="23">
+        <v>10</v>
+      </c>
+      <c r="D76" s="23">
         <v>2490</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E76" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F76" s="22">
         <v>724214</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G76" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H76" s="23">
         <v>5</v>
       </c>
-      <c r="I75" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="23">
+      <c r="I76" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="23">
         <v>0</v>
       </c>
-      <c r="K75" s="23" t="s">
+      <c r="K76" s="23" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-    </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="8">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
         <v>151442906</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="16">
-        <v>10</v>
-      </c>
-      <c r="D77" s="16">
+      <c r="B78" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="16">
+        <v>10</v>
+      </c>
+      <c r="D78" s="16">
         <v>2900</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E78" s="20">
         <v>45350</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>725828</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G78" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="16">
-        <v>10</v>
-      </c>
-      <c r="I77" s="16" t="s">
+      <c r="H78" s="16">
+        <v>10</v>
+      </c>
+      <c r="I78" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J78" s="16">
         <v>0</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K78" s="20">
         <v>45348</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="27">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="27">
         <v>151315311</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="4">
-        <v>10</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="B80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="4">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4">
         <v>100</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="4">
         <v>728488</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="G80" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="4">
-        <v>10</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="H80" s="4">
+        <v>10</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="4">
         <v>0</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>81</v>
       </c>
     </row>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="97">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -315,13 +315,16 @@
   </si>
   <si>
     <t>27-025-2024</t>
+  </si>
+  <si>
+    <t>25-04-204</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,17 +362,19 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="2" tint="-0.749992370372631"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="2" tint="-0.749992370372631"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Arial  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial  "/>
     </font>
   </fonts>
   <fills count="5">
@@ -398,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -421,11 +426,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -553,9 +584,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -565,13 +593,58 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -878,13 +951,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="18" customWidth="1"/>
@@ -1972,7 +2045,7 @@
     <col min="16135" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +2078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="15">
         <v>151007890</v>
       </c>
@@ -2036,7 +2109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="15">
         <v>151040504</v>
       </c>
@@ -2067,7 +2140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="16">
         <v>151058491</v>
       </c>
@@ -2098,7 +2171,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2111,7 +2184,7 @@
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="22">
         <v>151265479</v>
       </c>
@@ -2146,7 +2219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -2159,7 +2232,7 @@
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="29" customFormat="1">
       <c r="A8" s="27">
         <v>151357107</v>
       </c>
@@ -2194,7 +2267,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -2207,7 +2280,7 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="29" customFormat="1">
       <c r="A10" s="8">
         <v>151423149</v>
       </c>
@@ -2242,7 +2315,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
@@ -2255,7 +2328,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="8">
         <v>151296157</v>
       </c>
@@ -2290,7 +2363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -2305,7 +2378,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="8">
         <v>151296157</v>
       </c>
@@ -2340,7 +2413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="31"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -2353,7 +2426,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="27">
         <v>151335926</v>
       </c>
@@ -2386,7 +2459,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2399,7 +2472,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="29" customFormat="1">
       <c r="A18" s="8">
         <v>151423149</v>
       </c>
@@ -2434,7 +2507,7 @@
         <v>45321</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="29" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2447,7 +2520,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="29" customFormat="1">
       <c r="A20" s="8">
         <v>151442906</v>
       </c>
@@ -2482,7 +2555,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
@@ -2496,7 +2569,7 @@
       <c r="K21" s="21"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" s="29" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="29" customFormat="1" ht="13.8" customHeight="1">
       <c r="A22" s="8">
         <v>151429605</v>
       </c>
@@ -2530,9 +2603,9 @@
       <c r="K22" s="5">
         <v>45337</v>
       </c>
-      <c r="L22" s="49"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
@@ -2546,7 +2619,7 @@
       <c r="K23" s="16"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="29" customFormat="1">
       <c r="A24" s="8">
         <v>151442906</v>
       </c>
@@ -2581,7 +2654,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="12" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -2595,7 +2668,7 @@
       <c r="K25" s="8"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="11.4" customHeight="1">
       <c r="A26" s="8">
         <v>151110116</v>
       </c>
@@ -2631,7 +2704,7 @@
       </c>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="13.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
@@ -2645,7 +2718,7 @@
       <c r="K27" s="21"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="23">
         <v>151008992</v>
       </c>
@@ -2681,7 +2754,7 @@
       </c>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2695,7 +2768,7 @@
       <c r="K29" s="16"/>
       <c r="M29" s="29"/>
     </row>
-    <row r="30" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="29" customFormat="1">
       <c r="A30" s="8">
         <v>151442906</v>
       </c>
@@ -2730,7 +2803,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="29" customFormat="1">
       <c r="A31" s="8"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -2743,7 +2816,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="29" customFormat="1">
       <c r="A32" s="22">
         <v>151397344</v>
       </c>
@@ -2778,7 +2851,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -2792,7 +2865,7 @@
       <c r="K33" s="16"/>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" s="29" customFormat="1">
       <c r="A34" s="22">
         <v>151448381</v>
       </c>
@@ -2827,7 +2900,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="32"/>
@@ -2840,7 +2913,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="8">
         <v>151110116</v>
       </c>
@@ -2875,7 +2948,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -2888,7 +2961,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="8">
         <v>151429605</v>
       </c>
@@ -2923,7 +2996,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -2936,7 +3009,7 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="22">
         <v>151448381</v>
       </c>
@@ -2971,7 +3044,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -2984,7 +3057,7 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" s="29" customFormat="1">
       <c r="A42" s="22">
         <v>151448381</v>
       </c>
@@ -3019,7 +3092,7 @@
         <v>45392</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -3032,7 +3105,7 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1">
       <c r="A44" s="22">
         <v>151448381</v>
       </c>
@@ -3067,7 +3140,7 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="13.5" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -3080,7 +3153,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="13.5" customHeight="1">
       <c r="A46" s="8">
         <v>151442906</v>
       </c>
@@ -3115,7 +3188,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -3128,7 +3201,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="29" customFormat="1">
       <c r="A48" s="22">
         <v>151338133</v>
       </c>
@@ -3163,7 +3236,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="29" customFormat="1">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
@@ -3176,7 +3249,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
       <c r="A50" s="22">
         <v>151353543</v>
       </c>
@@ -3211,7 +3284,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
         <v>54</v>
       </c>
@@ -3226,7 +3299,7 @@
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="11" customFormat="1">
       <c r="A52" s="8">
         <v>151429605</v>
       </c>
@@ -3261,68 +3334,68 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
-        <v>151330034</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="23">
-        <v>20</v>
-      </c>
-      <c r="D54" s="24">
+    <row r="53" spans="1:11" s="29" customFormat="1">
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+    </row>
+    <row r="54" spans="1:11" s="29" customFormat="1">
+      <c r="A54" s="52">
+        <v>151448502</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="49">
+        <v>10</v>
+      </c>
+      <c r="D54" s="50">
         <v>8463</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="22">
+      <c r="E54" s="51">
+        <v>45362</v>
+      </c>
+      <c r="F54" s="52">
         <v>687349</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="H54" s="26">
-        <v>25</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="26">
-        <v>0</v>
-      </c>
-      <c r="K54" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H54" s="53">
+        <v>50</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="53">
+        <v>10</v>
+      </c>
+      <c r="K54" s="53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="29" customFormat="1">
+      <c r="A55" s="58"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
+    </row>
+    <row r="56" spans="1:11" s="29" customFormat="1">
       <c r="A56" s="22">
         <v>151242082</v>
       </c>
@@ -3357,7 +3430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -3370,7 +3443,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="29" customFormat="1">
       <c r="A58" s="8">
         <v>151429605</v>
       </c>
@@ -3405,7 +3478,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -3418,7 +3491,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="9">
         <v>151264212</v>
       </c>
@@ -3428,10 +3501,10 @@
       <c r="C60" s="9">
         <v>10</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="43">
         <v>10710</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="44" t="s">
         <v>75</v>
       </c>
       <c r="F60" s="9">
@@ -3440,20 +3513,20 @@
       <c r="G60" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H60" s="46">
+      <c r="H60" s="45">
         <v>1</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="46">
+      <c r="J60" s="45">
         <v>0</v>
       </c>
-      <c r="K60" s="46" t="s">
+      <c r="K60" s="45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="8">
         <v>151429605</v>
       </c>
@@ -3463,10 +3536,10 @@
       <c r="C61" s="9">
         <v>30</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="43">
         <v>15500</v>
       </c>
-      <c r="E61" s="45">
+      <c r="E61" s="44">
         <v>45322</v>
       </c>
       <c r="F61" s="9">
@@ -3475,20 +3548,20 @@
       <c r="G61" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H61" s="46">
+      <c r="H61" s="45">
         <v>1</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="46">
+      <c r="J61" s="45">
         <v>1</v>
       </c>
-      <c r="K61" s="45">
+      <c r="K61" s="44">
         <v>45337</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -3501,7 +3574,7 @@
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="8">
         <v>151415265</v>
       </c>
@@ -3536,7 +3609,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -3549,7 +3622,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="16" t="s">
         <v>36</v>
       </c>
@@ -3584,7 +3657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -3597,361 +3670,326 @@
       <c r="J66" s="21"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
-        <v>151415265</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="4">
-        <v>30</v>
-      </c>
-      <c r="D67" s="6">
+    <row r="67" spans="1:11" s="29" customFormat="1">
+      <c r="A67" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="23">
+        <v>10</v>
+      </c>
+      <c r="D67" s="24">
         <v>1896</v>
       </c>
-      <c r="E67" s="5">
-        <v>45286</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="E67" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F67" s="23">
         <v>716663</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="7">
-        <v>10</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="7">
+      <c r="H67" s="26">
+        <v>2</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="26">
+        <v>2</v>
+      </c>
+      <c r="K67" s="25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" s="29" customFormat="1">
+      <c r="A69" s="46">
+        <v>151350196</v>
+      </c>
+      <c r="B69" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="46">
+        <v>10</v>
+      </c>
+      <c r="D69" s="46">
+        <v>45000</v>
+      </c>
+      <c r="E69" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="46">
+        <v>719031</v>
+      </c>
+      <c r="G69" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="47">
+        <v>2</v>
+      </c>
+      <c r="I69" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="47">
         <v>0</v>
       </c>
-      <c r="K67" s="5">
-        <v>45307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22">
-        <v>151448381</v>
-      </c>
-      <c r="B68" s="23" t="s">
+      <c r="K69" s="47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A71" s="22">
+        <v>151395324</v>
+      </c>
+      <c r="B71" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="23">
-        <v>10</v>
-      </c>
-      <c r="D68" s="24">
-        <v>1896</v>
-      </c>
-      <c r="E68" s="25">
-        <v>45362</v>
-      </c>
-      <c r="F68" s="23">
-        <v>716663</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H68" s="26">
+      <c r="C71" s="23">
+        <v>20</v>
+      </c>
+      <c r="D71" s="40">
+        <v>11990</v>
+      </c>
+      <c r="E71" s="41">
+        <v>45236</v>
+      </c>
+      <c r="F71" s="22">
+        <v>719381</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H71" s="23">
         <v>2</v>
       </c>
-      <c r="I68" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="26">
-        <v>2</v>
-      </c>
-      <c r="K68" s="25">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="47">
-        <v>151350196</v>
-      </c>
-      <c r="B70" s="47" t="s">
+      <c r="I71" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="23">
+        <v>0</v>
+      </c>
+      <c r="K71" s="41">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="8"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="22">
+        <v>151341902</v>
+      </c>
+      <c r="B73" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="47">
-        <v>10</v>
-      </c>
-      <c r="D70" s="47">
-        <v>45000</v>
-      </c>
-      <c r="E70" s="47" t="s">
+      <c r="C73" s="42">
+        <v>10</v>
+      </c>
+      <c r="D73" s="42">
+        <v>6800</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="F73" s="42">
+        <v>720138</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H73" s="42">
+        <v>3</v>
+      </c>
+      <c r="I73" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="42">
+        <v>0</v>
+      </c>
+      <c r="K73" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+    </row>
+    <row r="75" spans="1:11" s="29" customFormat="1">
+      <c r="A75" s="22">
+        <v>151343138</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="23">
+        <v>10</v>
+      </c>
+      <c r="D75" s="23">
+        <v>2490</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="22">
+        <v>724214</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="23">
+        <v>5</v>
+      </c>
+      <c r="I75" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="23">
+        <v>0</v>
+      </c>
+      <c r="K75" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F70" s="47">
-        <v>719031</v>
-      </c>
-      <c r="G70" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="H70" s="48">
-        <v>2</v>
-      </c>
-      <c r="I70" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="48">
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B77" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="16">
+        <v>10</v>
+      </c>
+      <c r="D77" s="16">
+        <v>2900</v>
+      </c>
+      <c r="E77" s="20">
+        <v>45350</v>
+      </c>
+      <c r="F77" s="16">
+        <v>725828</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" s="16">
+        <v>10</v>
+      </c>
+      <c r="I77" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J77" s="16">
         <v>0</v>
       </c>
-      <c r="K70" s="48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="46"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="46"/>
-    </row>
-    <row r="72" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="22">
-        <v>151395324</v>
-      </c>
-      <c r="B72" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="23">
-        <v>20</v>
-      </c>
-      <c r="D72" s="40">
-        <v>11990</v>
-      </c>
-      <c r="E72" s="41">
-        <v>45236</v>
-      </c>
-      <c r="F72" s="22">
-        <v>719381</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="H72" s="23">
-        <v>2</v>
-      </c>
-      <c r="I72" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="23">
+      <c r="K77" s="20">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:11" s="29" customFormat="1">
+      <c r="A79" s="27">
+        <v>151315311</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="4">
+        <v>10</v>
+      </c>
+      <c r="D79" s="4">
+        <v>100</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="4">
+        <v>728488</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="4">
+        <v>10</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="4">
         <v>0</v>
       </c>
-      <c r="K72" s="41">
-        <v>45296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="8"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
-        <v>151341902</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="42">
-        <v>10</v>
-      </c>
-      <c r="D74" s="42">
-        <v>6800</v>
-      </c>
-      <c r="E74" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="F74" s="42">
-        <v>720138</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="42">
-        <v>3</v>
-      </c>
-      <c r="I74" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="42">
-        <v>0</v>
-      </c>
-      <c r="K74" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-    </row>
-    <row r="76" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22">
-        <v>151343138</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="23">
-        <v>10</v>
-      </c>
-      <c r="D76" s="23">
-        <v>2490</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="F76" s="22">
-        <v>724214</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H76" s="23">
-        <v>5</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="23">
-        <v>0</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="8">
-        <v>151442906</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="16">
-        <v>10</v>
-      </c>
-      <c r="D78" s="16">
-        <v>2900</v>
-      </c>
-      <c r="E78" s="20">
-        <v>45350</v>
-      </c>
-      <c r="F78" s="16">
-        <v>725828</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H78" s="16">
-        <v>10</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J78" s="16">
-        <v>0</v>
-      </c>
-      <c r="K78" s="20">
-        <v>45348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="27">
-        <v>151315311</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="4">
-        <v>10</v>
-      </c>
-      <c r="D80" s="4">
-        <v>100</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F80" s="4">
-        <v>728488</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80" s="4">
-        <v>10</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="4">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4" t="s">
+      <c r="K79" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3966,10 +4004,10 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="18" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" style="18" customWidth="1"/>
@@ -5057,7 +5095,7 @@
     <col min="16135" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.4">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5090,7 +5128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11">
       <c r="A2" s="15">
         <v>151007890</v>
       </c>
@@ -5121,7 +5159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11">
       <c r="A3" s="15">
         <v>151040504</v>
       </c>
@@ -5152,7 +5190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="16">
         <v>151058491</v>
       </c>
@@ -5183,7 +5221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -5196,7 +5234,7 @@
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="22">
         <v>151265479</v>
       </c>
@@ -5231,7 +5269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -5244,7 +5282,7 @@
       <c r="J7" s="21"/>
       <c r="K7" s="21"/>
     </row>
-    <row r="8" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="29" customFormat="1">
       <c r="A8" s="27">
         <v>151357107</v>
       </c>
@@ -5279,7 +5317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -5292,9 +5330,9 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="29" customFormat="1">
       <c r="A10" s="8">
-        <v>151391303</v>
+        <v>151423149</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -5306,7 +5344,7 @@
         <v>4831</v>
       </c>
       <c r="E10" s="5">
-        <v>45225</v>
+        <v>45308</v>
       </c>
       <c r="F10" s="4">
         <v>615698</v>
@@ -5321,13 +5359,13 @@
         <v>12</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10" s="5">
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
@@ -5340,7 +5378,7 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="8">
         <v>151296157</v>
       </c>
@@ -5375,7 +5413,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -5390,7 +5428,7 @@
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="8">
         <v>151296157</v>
       </c>
@@ -5425,7 +5463,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="31"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -5438,7 +5476,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="27">
         <v>151335926</v>
       </c>
@@ -5471,7 +5509,7 @@
       </c>
       <c r="K16" s="7"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -5484,21 +5522,21 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="29" customFormat="1">
       <c r="A18" s="8">
-        <v>151429605</v>
+        <v>151423149</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>5614</v>
       </c>
       <c r="E18" s="2">
-        <v>45322</v>
+        <v>45308</v>
       </c>
       <c r="F18" s="1">
         <v>616026</v>
@@ -5513,13 +5551,13 @@
         <v>12</v>
       </c>
       <c r="J18" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K18" s="2">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="29" customFormat="1">
       <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -5532,7 +5570,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" s="29" customFormat="1">
       <c r="A20" s="8">
         <v>151442906</v>
       </c>
@@ -5567,7 +5605,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
@@ -5581,7 +5619,7 @@
       <c r="K21" s="21"/>
       <c r="M21" s="29"/>
     </row>
-    <row r="22" spans="1:13" s="29" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" s="29" customFormat="1" ht="13.8" customHeight="1">
       <c r="A22" s="8">
         <v>151429605</v>
       </c>
@@ -5615,9 +5653,9 @@
       <c r="K22" s="5">
         <v>45337</v>
       </c>
-      <c r="L22" s="49"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
@@ -5631,7 +5669,7 @@
       <c r="K23" s="16"/>
       <c r="M23" s="29"/>
     </row>
-    <row r="24" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="29" customFormat="1">
       <c r="A24" s="8">
         <v>151442906</v>
       </c>
@@ -5666,7 +5704,7 @@
         <v>45399</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="12" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -5680,7 +5718,7 @@
       <c r="K25" s="8"/>
       <c r="M25" s="29"/>
     </row>
-    <row r="26" spans="1:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="11.4" customHeight="1">
       <c r="A26" s="8">
         <v>151110116</v>
       </c>
@@ -5716,7 +5754,7 @@
       </c>
       <c r="M26" s="29"/>
     </row>
-    <row r="27" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="13.5" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
@@ -5730,7 +5768,7 @@
       <c r="K27" s="21"/>
       <c r="M27" s="29"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28" s="23">
         <v>151008992</v>
       </c>
@@ -5766,7 +5804,7 @@
       </c>
       <c r="M28" s="29"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -5780,7 +5818,7 @@
       <c r="K29" s="16"/>
       <c r="M29" s="29"/>
     </row>
-    <row r="30" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" s="29" customFormat="1">
       <c r="A30" s="8">
         <v>151442906</v>
       </c>
@@ -5815,7 +5853,7 @@
         <v>45395</v>
       </c>
     </row>
-    <row r="31" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" s="29" customFormat="1">
       <c r="A31" s="8"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5828,7 +5866,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" s="29" customFormat="1">
       <c r="A32" s="22">
         <v>151397344</v>
       </c>
@@ -5863,7 +5901,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -5877,42 +5915,42 @@
       <c r="K33" s="16"/>
       <c r="M33" s="29"/>
     </row>
-    <row r="34" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="27">
-        <v>151442906</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="4">
-        <v>30</v>
-      </c>
-      <c r="D34" s="35">
+    <row r="34" spans="1:13" s="29" customFormat="1">
+      <c r="A34" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="23">
+        <v>40</v>
+      </c>
+      <c r="D34" s="40">
         <v>3555</v>
       </c>
-      <c r="E34" s="34">
-        <v>45350</v>
-      </c>
-      <c r="F34" s="27">
+      <c r="E34" s="41">
+        <v>45362</v>
+      </c>
+      <c r="F34" s="22">
         <v>646872</v>
       </c>
-      <c r="G34" s="27" t="s">
+      <c r="G34" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="H34" s="4">
-        <v>5</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="4">
-        <v>5</v>
-      </c>
-      <c r="K34" s="34">
-        <v>45394</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H34" s="23">
+        <v>10</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="23">
+        <v>10</v>
+      </c>
+      <c r="K34" s="41">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="32"/>
@@ -5925,7 +5963,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="8"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36" s="8">
         <v>151110116</v>
       </c>
@@ -5960,7 +5998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37" s="16"/>
       <c r="B37" s="16"/>
       <c r="C37" s="16"/>
@@ -5973,7 +6011,7 @@
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="8">
         <v>151429605</v>
       </c>
@@ -6008,7 +6046,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -6021,21 +6059,21 @@
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40" s="22">
-        <v>151338133</v>
+        <v>151448381</v>
       </c>
       <c r="B40" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C40" s="23">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D40" s="24">
         <v>3510</v>
       </c>
       <c r="E40" s="25">
-        <v>45077</v>
+        <v>45362</v>
       </c>
       <c r="F40" s="23">
         <v>663091</v>
@@ -6044,19 +6082,19 @@
         <v>51</v>
       </c>
       <c r="H40" s="26">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I40" s="23" t="s">
         <v>12</v>
       </c>
       <c r="J40" s="26">
-        <v>0</v>
-      </c>
-      <c r="K40" s="26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="K40" s="26">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="16"/>
       <c r="B41" s="16"/>
       <c r="C41" s="16"/>
@@ -6069,42 +6107,42 @@
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="27">
-        <v>151429605</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="4">
-        <v>60</v>
-      </c>
-      <c r="D42" s="6">
+    <row r="42" spans="1:13" s="29" customFormat="1">
+      <c r="A42" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="23">
+        <v>20</v>
+      </c>
+      <c r="D42" s="24">
         <v>5130</v>
       </c>
-      <c r="E42" s="5">
-        <v>45322</v>
-      </c>
-      <c r="F42" s="4">
+      <c r="E42" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F42" s="23">
         <v>663092</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="7">
-        <v>5</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H42" s="26">
+        <v>10</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="26">
+        <v>10</v>
+      </c>
+      <c r="K42" s="25">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -6117,42 +6155,42 @@
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="27">
-        <v>151372120</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="4">
-        <v>10</v>
-      </c>
-      <c r="D44" s="6">
+    <row r="44" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A44" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="23">
+        <v>30</v>
+      </c>
+      <c r="D44" s="24">
         <v>6615</v>
       </c>
-      <c r="E44" s="5">
-        <v>45175</v>
-      </c>
-      <c r="F44" s="4">
+      <c r="E44" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F44" s="23">
         <v>663093</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="H44" s="7">
-        <v>10</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-      <c r="K44" s="5">
-        <v>45264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="26">
+        <v>10</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="26">
+        <v>10</v>
+      </c>
+      <c r="K44" s="25">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -6165,7 +6203,7 @@
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="13.5" customHeight="1">
       <c r="A46" s="8">
         <v>151442906</v>
       </c>
@@ -6200,7 +6238,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -6213,7 +6251,7 @@
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
     </row>
-    <row r="48" spans="1:13" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" s="29" customFormat="1">
       <c r="A48" s="22">
         <v>151338133</v>
       </c>
@@ -6248,7 +6286,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="29" customFormat="1">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="32"/>
@@ -6261,7 +6299,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
       <c r="A50" s="22">
         <v>151353543</v>
       </c>
@@ -6296,7 +6334,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
         <v>54</v>
       </c>
@@ -6305,13 +6343,13 @@
       <c r="D51" s="19"/>
       <c r="E51" s="20"/>
       <c r="F51" s="16"/>
-      <c r="G51" s="43"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="21"/>
       <c r="I51" s="16"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" s="11" customFormat="1">
       <c r="A52" s="8">
         <v>151429605</v>
       </c>
@@ -6346,7 +6384,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="29" customFormat="1">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
       <c r="C53" s="32"/>
@@ -6359,7 +6397,7 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="29" customFormat="1">
       <c r="A54" s="22">
         <v>151330034</v>
       </c>
@@ -6394,20 +6432,20 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="29" customFormat="1">
       <c r="A55" s="27"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="6"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="43"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7"/>
       <c r="I55" s="4"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="29" customFormat="1">
       <c r="A56" s="22">
         <v>151242082</v>
       </c>
@@ -6442,7 +6480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11">
       <c r="A57" s="16"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -6455,7 +6493,7 @@
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="29" customFormat="1">
       <c r="A58" s="8">
         <v>151429605</v>
       </c>
@@ -6490,7 +6528,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -6503,7 +6541,7 @@
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="A60" s="9">
         <v>151264212</v>
       </c>
@@ -6513,10 +6551,10 @@
       <c r="C60" s="9">
         <v>10</v>
       </c>
-      <c r="D60" s="44">
+      <c r="D60" s="43">
         <v>10710</v>
       </c>
-      <c r="E60" s="45" t="s">
+      <c r="E60" s="44" t="s">
         <v>75</v>
       </c>
       <c r="F60" s="9">
@@ -6525,20 +6563,20 @@
       <c r="G60" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H60" s="46">
+      <c r="H60" s="45">
         <v>1</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="46">
+      <c r="J60" s="45">
         <v>0</v>
       </c>
-      <c r="K60" s="46" t="s">
+      <c r="K60" s="45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11">
       <c r="A61" s="8">
         <v>151429605</v>
       </c>
@@ -6548,10 +6586,10 @@
       <c r="C61" s="9">
         <v>30</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="43">
         <v>15500</v>
       </c>
-      <c r="E61" s="45">
+      <c r="E61" s="44">
         <v>45322</v>
       </c>
       <c r="F61" s="9">
@@ -6560,33 +6598,33 @@
       <c r="G61" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H61" s="46">
+      <c r="H61" s="45">
         <v>1</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="46">
+      <c r="J61" s="45">
         <v>1</v>
       </c>
-      <c r="K61" s="45">
+      <c r="K61" s="44">
         <v>45337</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="19"/>
       <c r="E62" s="20"/>
       <c r="F62" s="16"/>
-      <c r="G62" s="43"/>
+      <c r="G62" s="8"/>
       <c r="H62" s="21"/>
       <c r="I62" s="16"/>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11">
       <c r="A63" s="8">
         <v>151415265</v>
       </c>
@@ -6621,7 +6659,7 @@
         <v>45307</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -6634,7 +6672,7 @@
       <c r="J64" s="21"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11">
       <c r="A65" s="16" t="s">
         <v>36</v>
       </c>
@@ -6669,7 +6707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -6682,42 +6720,42 @@
       <c r="J66" s="21"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="8">
-        <v>151415265</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="4">
-        <v>30</v>
-      </c>
-      <c r="D67" s="6">
+    <row r="67" spans="1:11" s="29" customFormat="1">
+      <c r="A67" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="23">
+        <v>10</v>
+      </c>
+      <c r="D67" s="24">
         <v>1896</v>
       </c>
-      <c r="E67" s="5">
-        <v>45286</v>
-      </c>
-      <c r="F67" s="4">
+      <c r="E67" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F67" s="23">
         <v>716663</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G67" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="7">
-        <v>10</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="7">
-        <v>0</v>
-      </c>
-      <c r="K67" s="5">
-        <v>45307</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H67" s="26">
+        <v>2</v>
+      </c>
+      <c r="I67" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="26">
+        <v>2</v>
+      </c>
+      <c r="K67" s="25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -6730,42 +6768,42 @@
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="47">
+    <row r="69" spans="1:11" s="29" customFormat="1">
+      <c r="A69" s="46">
         <v>151350196</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="47">
-        <v>10</v>
-      </c>
-      <c r="D69" s="47">
+      <c r="C69" s="46">
+        <v>10</v>
+      </c>
+      <c r="D69" s="46">
         <v>45000</v>
       </c>
-      <c r="E69" s="47" t="s">
+      <c r="E69" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F69" s="47">
+      <c r="F69" s="46">
         <v>719031</v>
       </c>
-      <c r="G69" s="47" t="s">
+      <c r="G69" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="48">
+      <c r="H69" s="47">
         <v>2</v>
       </c>
-      <c r="I69" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="48">
+      <c r="I69" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="47">
         <v>0</v>
       </c>
-      <c r="K69" s="48" t="s">
+      <c r="K69" s="47" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -6773,12 +6811,12 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
-      <c r="H70" s="46"/>
+      <c r="H70" s="45"/>
       <c r="I70" s="9"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-    </row>
-    <row r="71" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="45"/>
+      <c r="K70" s="45"/>
+    </row>
+    <row r="71" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
       <c r="A71" s="22">
         <v>151395324</v>
       </c>
@@ -6813,7 +6851,7 @@
         <v>45296</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11">
       <c r="A72" s="8"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -6826,7 +6864,7 @@
       <c r="J72" s="16"/>
       <c r="K72" s="8"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11">
       <c r="A73" s="22">
         <v>151341902</v>
       </c>
@@ -6861,7 +6899,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -6874,7 +6912,7 @@
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" s="29" customFormat="1">
       <c r="A75" s="22">
         <v>151343138</v>
       </c>
@@ -6909,7 +6947,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -6922,7 +6960,7 @@
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11">
       <c r="A77" s="8">
         <v>151442906</v>
       </c>
@@ -6957,7 +6995,7 @@
         <v>45348</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -6970,7 +7008,7 @@
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" s="29" customFormat="1">
       <c r="A79" s="27">
         <v>151315311</v>
       </c>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="96">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -273,9 +273,6 @@
   </si>
   <si>
     <t>20.04.2023</t>
-  </si>
-  <si>
-    <t>05.05.2023</t>
   </si>
   <si>
     <t>10.06.2023</t>
@@ -953,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2246,7 +2243,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4">
         <v>615181</v>
@@ -2264,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2830,13 +2827,13 @@
         <v>4716</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="22">
         <v>635657</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="23">
         <v>4</v>
@@ -2981,7 +2978,7 @@
         <v>662351</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="21">
         <v>2</v>
@@ -3173,7 +3170,7 @@
         <v>663094</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H46" s="21">
         <v>5</v>
@@ -3185,7 +3182,7 @@
         <v>5</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1">
@@ -3263,7 +3260,7 @@
         <v>9703</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" s="22">
         <v>681149</v>
@@ -3281,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -3379,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="K54" s="53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="29" customFormat="1">
@@ -3732,7 +3729,7 @@
         <v>45000</v>
       </c>
       <c r="E69" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="46">
         <v>719031</v>
@@ -3750,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -3828,7 +3825,7 @@
         <v>6800</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F73" s="42">
         <v>720138</v>
@@ -3846,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -3894,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4004,7 +4001,7 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5296,7 +5293,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F8" s="4">
         <v>615181</v>
@@ -5314,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5880,13 +5877,13 @@
         <v>4716</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F32" s="22">
         <v>635657</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H32" s="23">
         <v>4</v>
@@ -6031,7 +6028,7 @@
         <v>662351</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38" s="21">
         <v>2</v>
@@ -6223,7 +6220,7 @@
         <v>663094</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H46" s="21">
         <v>5</v>
@@ -6235,7 +6232,7 @@
         <v>5</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1">
@@ -6313,7 +6310,7 @@
         <v>9703</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F50" s="22">
         <v>681149</v>
@@ -6331,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -6385,65 +6382,65 @@
       </c>
     </row>
     <row r="53" spans="1:11" s="29" customFormat="1">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="55"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
     </row>
     <row r="54" spans="1:11" s="29" customFormat="1">
-      <c r="A54" s="22">
-        <v>151330034</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="23">
-        <v>20</v>
-      </c>
-      <c r="D54" s="24">
+      <c r="A54" s="52">
+        <v>151448502</v>
+      </c>
+      <c r="B54" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="49">
+        <v>10</v>
+      </c>
+      <c r="D54" s="50">
         <v>8463</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="22">
+      <c r="E54" s="51">
+        <v>45362</v>
+      </c>
+      <c r="F54" s="52">
         <v>687349</v>
       </c>
-      <c r="G54" s="22" t="s">
+      <c r="G54" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="H54" s="26">
-        <v>25</v>
-      </c>
-      <c r="I54" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="26">
-        <v>0</v>
-      </c>
-      <c r="K54" s="26" t="s">
-        <v>79</v>
+      <c r="H54" s="53">
+        <v>50</v>
+      </c>
+      <c r="I54" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="53">
+        <v>10</v>
+      </c>
+      <c r="K54" s="53" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="29" customFormat="1">
-      <c r="A55" s="27"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="63"/>
     </row>
     <row r="56" spans="1:11" s="29" customFormat="1">
       <c r="A56" s="22">
@@ -6782,7 +6779,7 @@
         <v>45000</v>
       </c>
       <c r="E69" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F69" s="46">
         <v>719031</v>
@@ -6800,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="K69" s="47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6878,7 +6875,7 @@
         <v>6800</v>
       </c>
       <c r="E73" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F73" s="42">
         <v>720138</v>
@@ -6896,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6944,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:11">

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -453,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -642,6 +642,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -948,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3186,358 +3189,358 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:13" s="29" customFormat="1">
-      <c r="A48" s="22">
+      <c r="A47" s="64">
+        <v>151450069</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="23">
+        <v>10</v>
+      </c>
+      <c r="D47" s="24">
+        <v>10602</v>
+      </c>
+      <c r="E47" s="25">
+        <v>45365</v>
+      </c>
+      <c r="F47" s="22">
+        <v>663094</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="26">
+        <v>5</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="26">
+        <v>5</v>
+      </c>
+      <c r="K47" s="26">
+        <v>111108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" s="29" customFormat="1">
+      <c r="A49" s="22">
         <v>151338133</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C49" s="23">
         <v>30</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D49" s="24">
         <v>6000</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E49" s="41">
         <v>45077</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F49" s="23">
         <v>668330</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G49" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H49" s="26">
         <v>15</v>
       </c>
-      <c r="I48" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="26">
+      <c r="I49" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="26">
         <v>0</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K49" s="25">
         <v>45077</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="29" customFormat="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A50" s="22">
+    <row r="50" spans="1:11" s="29" customFormat="1">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A51" s="22">
         <v>151353543</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B51" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="23">
-        <v>10</v>
-      </c>
-      <c r="D50" s="24">
+      <c r="C51" s="23">
+        <v>10</v>
+      </c>
+      <c r="D51" s="24">
         <v>9703</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E51" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F51" s="22">
         <v>681149</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H51" s="26">
         <v>2</v>
       </c>
-      <c r="I50" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="26">
+      <c r="I51" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="26">
         <v>0</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K51" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="52" spans="1:11" s="11" customFormat="1">
-      <c r="A52" s="8">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" s="11" customFormat="1">
+      <c r="A53" s="8">
         <v>151429605</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
         <v>50</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <v>1908</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="2">
         <v>45322</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="3">
         <v>30</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K53" s="2">
         <v>45337</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="29" customFormat="1">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-    </row>
     <row r="54" spans="1:11" s="29" customFormat="1">
-      <c r="A54" s="52">
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+    </row>
+    <row r="55" spans="1:11" s="29" customFormat="1">
+      <c r="A55" s="52">
         <v>151448502</v>
       </c>
-      <c r="B54" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="49">
-        <v>10</v>
-      </c>
-      <c r="D54" s="50">
+      <c r="B55" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="49">
+        <v>10</v>
+      </c>
+      <c r="D55" s="50">
         <v>8463</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E55" s="51">
         <v>45362</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F55" s="52">
         <v>687349</v>
       </c>
-      <c r="G54" s="52" t="s">
+      <c r="G55" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="H54" s="53">
+      <c r="H55" s="53">
         <v>50</v>
       </c>
-      <c r="I54" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="53">
-        <v>10</v>
-      </c>
-      <c r="K54" s="53" t="s">
+      <c r="I55" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="53">
+        <v>10</v>
+      </c>
+      <c r="K55" s="53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="29" customFormat="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-    </row>
     <row r="56" spans="1:11" s="29" customFormat="1">
-      <c r="A56" s="22">
+      <c r="A56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+    </row>
+    <row r="57" spans="1:11" s="29" customFormat="1">
+      <c r="A57" s="22">
         <v>151242082</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="23">
-        <v>10</v>
-      </c>
-      <c r="D56" s="24">
+      <c r="C57" s="23">
+        <v>10</v>
+      </c>
+      <c r="D57" s="24">
         <v>1600</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E57" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F57" s="22">
         <v>691660</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G57" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H57" s="26">
         <v>1</v>
       </c>
-      <c r="I56" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="26">
+      <c r="I57" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="26">
         <v>0</v>
       </c>
-      <c r="K56" s="26" t="s">
+      <c r="K57" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" s="29" customFormat="1">
-      <c r="A58" s="8">
+    <row r="58" spans="1:11">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" s="29" customFormat="1">
+      <c r="A59" s="8">
         <v>151429605</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="4">
         <v>40</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>565</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="5">
         <v>45322</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="7">
         <v>30</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="7">
+      <c r="I59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="7">
         <v>0</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K59" s="5">
         <v>45337</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-    </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="9">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="9">
         <v>151264212</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="9">
-        <v>10</v>
-      </c>
-      <c r="D60" s="43">
+      <c r="C61" s="9">
+        <v>10</v>
+      </c>
+      <c r="D61" s="43">
         <v>10710</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E61" s="44" t="s">
         <v>75</v>
-      </c>
-      <c r="F60" s="9">
-        <v>704681</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="45">
-        <v>1</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="45">
-        <v>0</v>
-      </c>
-      <c r="K60" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="8">
-        <v>151429605</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="9">
-        <v>30</v>
-      </c>
-      <c r="D61" s="43">
-        <v>15500</v>
-      </c>
-      <c r="E61" s="44">
-        <v>45322</v>
       </c>
       <c r="F61" s="9">
         <v>704681</v>
@@ -3552,441 +3555,476 @@
         <v>12</v>
       </c>
       <c r="J61" s="45">
+        <v>0</v>
+      </c>
+      <c r="K61" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="9">
+        <v>30</v>
+      </c>
+      <c r="D62" s="43">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="44">
+        <v>45322</v>
+      </c>
+      <c r="F62" s="9">
+        <v>704681</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="45">
         <v>1</v>
       </c>
-      <c r="K61" s="44">
+      <c r="I62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="45">
+        <v>1</v>
+      </c>
+      <c r="K62" s="44">
         <v>45337</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-    </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="8">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="8">
         <v>151415265</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="16">
+      <c r="B64" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="16">
         <v>40</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D64" s="19">
         <v>4995</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E64" s="20">
         <v>45286</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="21">
-        <v>10</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="21">
+      <c r="H64" s="21">
+        <v>10</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="21">
         <v>0</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K64" s="20">
         <v>45307</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="20"/>
-    </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="16" t="s">
+      <c r="B66" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="19">
         <v>4245</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E66" s="20">
         <v>44223</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G66" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H66" s="21">
         <v>2</v>
       </c>
-      <c r="I65" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="21">
+      <c r="I66" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="21">
         <v>0</v>
       </c>
-      <c r="K65" s="20" t="s">
+      <c r="K66" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" s="29" customFormat="1">
-      <c r="A67" s="22">
+    <row r="67" spans="1:11">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" s="29" customFormat="1">
+      <c r="A68" s="22">
         <v>151448381</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B68" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="23">
-        <v>10</v>
-      </c>
-      <c r="D67" s="24">
+      <c r="C68" s="23">
+        <v>10</v>
+      </c>
+      <c r="D68" s="24">
         <v>1896</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E68" s="25">
         <v>45362</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F68" s="23">
         <v>716663</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G68" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="26">
+      <c r="H68" s="26">
         <v>2</v>
       </c>
-      <c r="I67" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="26">
+      <c r="I68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="26">
         <v>2</v>
       </c>
-      <c r="K67" s="25">
+      <c r="K68" s="25">
         <v>45383</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" s="29" customFormat="1">
-      <c r="A69" s="46">
+    <row r="69" spans="1:11">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" s="29" customFormat="1">
+      <c r="A70" s="46">
         <v>151350196</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B70" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="46">
-        <v>10</v>
-      </c>
-      <c r="D69" s="46">
+      <c r="C70" s="46">
+        <v>10</v>
+      </c>
+      <c r="D70" s="46">
         <v>45000</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E70" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F69" s="46">
+      <c r="F70" s="46">
         <v>719031</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G70" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H70" s="47">
         <v>2</v>
       </c>
-      <c r="I69" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="47">
+      <c r="I70" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="47">
         <v>0</v>
       </c>
-      <c r="K69" s="47" t="s">
+      <c r="K70" s="47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-    </row>
-    <row r="71" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A71" s="22">
+    <row r="71" spans="1:11">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A72" s="22">
         <v>151395324</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B72" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C72" s="23">
         <v>20</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D72" s="40">
         <v>11990</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E72" s="41">
         <v>45236</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="22">
         <v>719381</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G72" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H72" s="23">
         <v>2</v>
       </c>
-      <c r="I71" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="23">
+      <c r="I72" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="23">
         <v>0</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K72" s="41">
         <v>45296</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="8"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="8"/>
-    </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="22">
+      <c r="A73" s="8"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="22">
         <v>151341902</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B74" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="42">
-        <v>10</v>
-      </c>
-      <c r="D73" s="42">
+      <c r="C74" s="42">
+        <v>10</v>
+      </c>
+      <c r="D74" s="42">
         <v>6800</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E74" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F74" s="42">
         <v>720138</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G74" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H74" s="42">
         <v>3</v>
       </c>
-      <c r="I73" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="42">
+      <c r="I74" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="42">
         <v>0</v>
       </c>
-      <c r="K73" s="42" t="s">
+      <c r="K74" s="42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-    </row>
-    <row r="75" spans="1:11" s="29" customFormat="1">
-      <c r="A75" s="22">
+    <row r="75" spans="1:11">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+    </row>
+    <row r="76" spans="1:11" s="29" customFormat="1">
+      <c r="A76" s="22">
         <v>151343138</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B76" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="23">
-        <v>10</v>
-      </c>
-      <c r="D75" s="23">
+      <c r="C76" s="23">
+        <v>10</v>
+      </c>
+      <c r="D76" s="23">
         <v>2490</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E76" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F76" s="22">
         <v>724214</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G76" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H76" s="23">
         <v>5</v>
       </c>
-      <c r="I75" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="23">
+      <c r="I76" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="23">
         <v>0</v>
       </c>
-      <c r="K75" s="23" t="s">
+      <c r="K76" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-    </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="8">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="8">
         <v>151442906</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="16">
-        <v>10</v>
-      </c>
-      <c r="D77" s="16">
+      <c r="B78" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="16">
+        <v>10</v>
+      </c>
+      <c r="D78" s="16">
         <v>2900</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E78" s="20">
         <v>45350</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>725828</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G78" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="16">
-        <v>10</v>
-      </c>
-      <c r="I77" s="16" t="s">
+      <c r="H78" s="16">
+        <v>10</v>
+      </c>
+      <c r="I78" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J78" s="16">
         <v>0</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K78" s="20">
         <v>45348</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="1:11" s="29" customFormat="1">
-      <c r="A79" s="27">
+    <row r="79" spans="1:11">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="1:11" s="29" customFormat="1">
+      <c r="A80" s="27">
         <v>151315311</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="4">
-        <v>10</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="B80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="4">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4">
         <v>100</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="4">
         <v>728488</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="G80" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="4">
-        <v>10</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="H80" s="4">
+        <v>10</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="4">
         <v>0</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3998,10 +4036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6236,358 +6274,358 @@
       </c>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:13" s="29" customFormat="1">
-      <c r="A48" s="22">
+      <c r="A47" s="64">
+        <v>151450069</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="23">
+        <v>10</v>
+      </c>
+      <c r="D47" s="24">
+        <v>10602</v>
+      </c>
+      <c r="E47" s="25">
+        <v>45365</v>
+      </c>
+      <c r="F47" s="22">
+        <v>663094</v>
+      </c>
+      <c r="G47" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47" s="26">
+        <v>5</v>
+      </c>
+      <c r="I47" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="26">
+        <v>5</v>
+      </c>
+      <c r="K47" s="26">
+        <v>111108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" s="29" customFormat="1">
+      <c r="A49" s="22">
         <v>151338133</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C49" s="23">
         <v>30</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D49" s="24">
         <v>6000</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E49" s="41">
         <v>45077</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F49" s="23">
         <v>668330</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G49" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H48" s="26">
+      <c r="H49" s="26">
         <v>15</v>
       </c>
-      <c r="I48" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J48" s="26">
+      <c r="I49" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="26">
         <v>0</v>
       </c>
-      <c r="K48" s="25">
+      <c r="K49" s="25">
         <v>45077</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="29" customFormat="1">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A50" s="22">
+    <row r="50" spans="1:11" s="29" customFormat="1">
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A51" s="22">
         <v>151353543</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B51" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="23">
-        <v>10</v>
-      </c>
-      <c r="D50" s="24">
+      <c r="C51" s="23">
+        <v>10</v>
+      </c>
+      <c r="D51" s="24">
         <v>9703</v>
       </c>
-      <c r="E50" s="25" t="s">
+      <c r="E51" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F51" s="22">
         <v>681149</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G51" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="26">
+      <c r="H51" s="26">
         <v>2</v>
       </c>
-      <c r="I50" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J50" s="26">
+      <c r="I51" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="26">
         <v>0</v>
       </c>
-      <c r="K50" s="25" t="s">
+      <c r="K51" s="25" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="52" spans="1:11" s="11" customFormat="1">
-      <c r="A52" s="8">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" s="11" customFormat="1">
+      <c r="A53" s="8">
         <v>151429605</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
         <v>50</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D53" s="10">
         <v>1908</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E53" s="2">
         <v>45322</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H53" s="3">
         <v>30</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="I53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K53" s="2">
         <v>45337</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="29" customFormat="1">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="55"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="57"/>
-      <c r="K53" s="57"/>
-    </row>
     <row r="54" spans="1:11" s="29" customFormat="1">
-      <c r="A54" s="52">
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="56"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+    </row>
+    <row r="55" spans="1:11" s="29" customFormat="1">
+      <c r="A55" s="52">
         <v>151448502</v>
       </c>
-      <c r="B54" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="49">
-        <v>10</v>
-      </c>
-      <c r="D54" s="50">
+      <c r="B55" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="49">
+        <v>10</v>
+      </c>
+      <c r="D55" s="50">
         <v>8463</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E55" s="51">
         <v>45362</v>
       </c>
-      <c r="F54" s="52">
+      <c r="F55" s="52">
         <v>687349</v>
       </c>
-      <c r="G54" s="52" t="s">
+      <c r="G55" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="H54" s="53">
+      <c r="H55" s="53">
         <v>50</v>
       </c>
-      <c r="I54" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="53">
-        <v>10</v>
-      </c>
-      <c r="K54" s="53" t="s">
+      <c r="I55" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="53">
+        <v>10</v>
+      </c>
+      <c r="K55" s="53" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="29" customFormat="1">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="62"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-    </row>
     <row r="56" spans="1:11" s="29" customFormat="1">
-      <c r="A56" s="22">
+      <c r="A56" s="58"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="62"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="63"/>
+    </row>
+    <row r="57" spans="1:11" s="29" customFormat="1">
+      <c r="A57" s="22">
         <v>151242082</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="23">
-        <v>10</v>
-      </c>
-      <c r="D56" s="24">
+      <c r="C57" s="23">
+        <v>10</v>
+      </c>
+      <c r="D57" s="24">
         <v>1600</v>
       </c>
-      <c r="E56" s="25" t="s">
+      <c r="E57" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F57" s="22">
         <v>691660</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G57" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="H56" s="26">
+      <c r="H57" s="26">
         <v>1</v>
       </c>
-      <c r="I56" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="26">
+      <c r="I57" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="26">
         <v>0</v>
       </c>
-      <c r="K56" s="26" t="s">
+      <c r="K57" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" s="29" customFormat="1">
-      <c r="A58" s="8">
+    <row r="58" spans="1:11">
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+    </row>
+    <row r="59" spans="1:11" s="29" customFormat="1">
+      <c r="A59" s="8">
         <v>151429605</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="4">
         <v>40</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D59" s="6">
         <v>565</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E59" s="5">
         <v>45322</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H59" s="7">
         <v>30</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="7">
+      <c r="I59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="7">
         <v>0</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K59" s="5">
         <v>45337</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="21"/>
-    </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="9">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="9">
         <v>151264212</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="9">
-        <v>10</v>
-      </c>
-      <c r="D60" s="43">
+      <c r="C61" s="9">
+        <v>10</v>
+      </c>
+      <c r="D61" s="43">
         <v>10710</v>
       </c>
-      <c r="E60" s="44" t="s">
+      <c r="E61" s="44" t="s">
         <v>75</v>
-      </c>
-      <c r="F60" s="9">
-        <v>704681</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H60" s="45">
-        <v>1</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="45">
-        <v>0</v>
-      </c>
-      <c r="K60" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="8">
-        <v>151429605</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="9">
-        <v>30</v>
-      </c>
-      <c r="D61" s="43">
-        <v>15500</v>
-      </c>
-      <c r="E61" s="44">
-        <v>45322</v>
       </c>
       <c r="F61" s="9">
         <v>704681</v>
@@ -6602,441 +6640,476 @@
         <v>12</v>
       </c>
       <c r="J61" s="45">
+        <v>0</v>
+      </c>
+      <c r="K61" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="9">
+        <v>30</v>
+      </c>
+      <c r="D62" s="43">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="44">
+        <v>45322</v>
+      </c>
+      <c r="F62" s="9">
+        <v>704681</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H62" s="45">
         <v>1</v>
       </c>
-      <c r="K61" s="44">
+      <c r="I62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="45">
+        <v>1</v>
+      </c>
+      <c r="K62" s="44">
         <v>45337</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-    </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="8">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="8">
         <v>151415265</v>
       </c>
-      <c r="B63" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="16">
+      <c r="B64" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="16">
         <v>40</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D64" s="19">
         <v>4995</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E64" s="20">
         <v>45286</v>
       </c>
-      <c r="F63" s="16" t="s">
+      <c r="F64" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G64" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H63" s="21">
-        <v>10</v>
-      </c>
-      <c r="I63" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="21">
+      <c r="H64" s="21">
+        <v>10</v>
+      </c>
+      <c r="I64" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="21">
         <v>0</v>
       </c>
-      <c r="K63" s="20">
+      <c r="K64" s="20">
         <v>45307</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="20"/>
-    </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="20"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="16" t="s">
+      <c r="B66" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="19">
         <v>4245</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E66" s="20">
         <v>44223</v>
       </c>
-      <c r="F65" s="16" t="s">
+      <c r="F66" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G66" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H65" s="21">
+      <c r="H66" s="21">
         <v>2</v>
       </c>
-      <c r="I65" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="21">
+      <c r="I66" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="21">
         <v>0</v>
       </c>
-      <c r="K65" s="20" t="s">
+      <c r="K66" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="20"/>
-    </row>
-    <row r="67" spans="1:11" s="29" customFormat="1">
-      <c r="A67" s="22">
+    <row r="67" spans="1:11">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="20"/>
+    </row>
+    <row r="68" spans="1:11" s="29" customFormat="1">
+      <c r="A68" s="22">
         <v>151448381</v>
       </c>
-      <c r="B67" s="23" t="s">
+      <c r="B68" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="23">
-        <v>10</v>
-      </c>
-      <c r="D67" s="24">
+      <c r="C68" s="23">
+        <v>10</v>
+      </c>
+      <c r="D68" s="24">
         <v>1896</v>
       </c>
-      <c r="E67" s="25">
+      <c r="E68" s="25">
         <v>45362</v>
       </c>
-      <c r="F67" s="23">
+      <c r="F68" s="23">
         <v>716663</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G68" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="26">
+      <c r="H68" s="26">
         <v>2</v>
       </c>
-      <c r="I67" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J67" s="26">
+      <c r="I68" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="26">
         <v>2</v>
       </c>
-      <c r="K67" s="25">
+      <c r="K68" s="25">
         <v>45383</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" s="29" customFormat="1">
-      <c r="A69" s="46">
+    <row r="69" spans="1:11">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" s="29" customFormat="1">
+      <c r="A70" s="46">
         <v>151350196</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B70" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="46">
-        <v>10</v>
-      </c>
-      <c r="D69" s="46">
+      <c r="C70" s="46">
+        <v>10</v>
+      </c>
+      <c r="D70" s="46">
         <v>45000</v>
       </c>
-      <c r="E69" s="46" t="s">
+      <c r="E70" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="F69" s="46">
+      <c r="F70" s="46">
         <v>719031</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G70" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H70" s="47">
         <v>2</v>
       </c>
-      <c r="I69" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="47">
+      <c r="I70" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="47">
         <v>0</v>
       </c>
-      <c r="K69" s="47" t="s">
+      <c r="K70" s="47" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-    </row>
-    <row r="71" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A71" s="22">
+    <row r="71" spans="1:11">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="45"/>
+      <c r="K71" s="45"/>
+    </row>
+    <row r="72" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A72" s="22">
         <v>151395324</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B72" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C72" s="23">
         <v>20</v>
       </c>
-      <c r="D71" s="40">
+      <c r="D72" s="40">
         <v>11990</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E72" s="41">
         <v>45236</v>
       </c>
-      <c r="F71" s="22">
+      <c r="F72" s="22">
         <v>719381</v>
       </c>
-      <c r="G71" s="22" t="s">
+      <c r="G72" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H71" s="23">
+      <c r="H72" s="23">
         <v>2</v>
       </c>
-      <c r="I71" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J71" s="23">
+      <c r="I72" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="23">
         <v>0</v>
       </c>
-      <c r="K71" s="41">
+      <c r="K72" s="41">
         <v>45296</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="8"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="8"/>
-    </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="22">
+      <c r="A73" s="8"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="8"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="22">
         <v>151341902</v>
       </c>
-      <c r="B73" s="42" t="s">
+      <c r="B74" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="42">
-        <v>10</v>
-      </c>
-      <c r="D73" s="42">
+      <c r="C74" s="42">
+        <v>10</v>
+      </c>
+      <c r="D74" s="42">
         <v>6800</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E74" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F73" s="42">
+      <c r="F74" s="42">
         <v>720138</v>
       </c>
-      <c r="G73" s="42" t="s">
+      <c r="G74" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="H73" s="42">
+      <c r="H74" s="42">
         <v>3</v>
       </c>
-      <c r="I73" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="42">
+      <c r="I74" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="42">
         <v>0</v>
       </c>
-      <c r="K73" s="42" t="s">
+      <c r="K74" s="42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-    </row>
-    <row r="75" spans="1:11" s="29" customFormat="1">
-      <c r="A75" s="22">
+    <row r="75" spans="1:11">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+    </row>
+    <row r="76" spans="1:11" s="29" customFormat="1">
+      <c r="A76" s="22">
         <v>151343138</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B76" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C75" s="23">
-        <v>10</v>
-      </c>
-      <c r="D75" s="23">
+      <c r="C76" s="23">
+        <v>10</v>
+      </c>
+      <c r="D76" s="23">
         <v>2490</v>
       </c>
-      <c r="E75" s="23" t="s">
+      <c r="E76" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="F75" s="22">
+      <c r="F76" s="22">
         <v>724214</v>
       </c>
-      <c r="G75" s="22" t="s">
+      <c r="G76" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H75" s="23">
+      <c r="H76" s="23">
         <v>5</v>
       </c>
-      <c r="I75" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="23">
+      <c r="I76" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="23">
         <v>0</v>
       </c>
-      <c r="K75" s="23" t="s">
+      <c r="K76" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-    </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="8">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="8">
         <v>151442906</v>
       </c>
-      <c r="B77" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="16">
-        <v>10</v>
-      </c>
-      <c r="D77" s="16">
+      <c r="B78" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="16">
+        <v>10</v>
+      </c>
+      <c r="D78" s="16">
         <v>2900</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E78" s="20">
         <v>45350</v>
       </c>
-      <c r="F77" s="16">
+      <c r="F78" s="16">
         <v>725828</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="G78" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H77" s="16">
-        <v>10</v>
-      </c>
-      <c r="I77" s="16" t="s">
+      <c r="H78" s="16">
+        <v>10</v>
+      </c>
+      <c r="I78" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J77" s="16">
+      <c r="J78" s="16">
         <v>0</v>
       </c>
-      <c r="K77" s="20">
+      <c r="K78" s="20">
         <v>45348</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-    </row>
-    <row r="79" spans="1:11" s="29" customFormat="1">
-      <c r="A79" s="27">
+    <row r="79" spans="1:11">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="1:11" s="29" customFormat="1">
+      <c r="A80" s="27">
         <v>151315311</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C79" s="4">
-        <v>10</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="B80" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="4">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4">
         <v>100</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E80" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F79" s="4">
+      <c r="F80" s="4">
         <v>728488</v>
       </c>
-      <c r="G79" s="27" t="s">
+      <c r="G80" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="H79" s="4">
-        <v>10</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="H80" s="4">
+        <v>10</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J80" s="4">
         <v>0</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K80" s="4" t="s">
         <v>81</v>
       </c>
     </row>

--- a/Updated PO.xlsx
+++ b/Updated PO.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1</definedName>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="94">
   <si>
     <t>Purchasing Document</t>
   </si>
@@ -248,12 +250,6 @@
     <t>06.03.2023</t>
   </si>
   <si>
-    <t>08.12.2022</t>
-  </si>
-  <si>
-    <t>07.01.2023</t>
-  </si>
-  <si>
     <t>06.12.2022</t>
   </si>
   <si>
@@ -453,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -645,6 +641,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2185,8 +2184,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="22">
-        <v>151265479</v>
+      <c r="A6" s="64">
+        <v>151451608</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>16</v>
@@ -2197,8 +2196,8 @@
       <c r="D6" s="24">
         <v>16500</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>73</v>
+      <c r="E6" s="25">
+        <v>45369</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>14</v>
@@ -2207,16 +2206,16 @@
         <v>15</v>
       </c>
       <c r="H6" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="26">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="25">
+        <v>45399</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2246,7 +2245,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="4">
         <v>615181</v>
@@ -2264,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2309,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" s="5">
         <v>45321</v>
@@ -2342,7 +2341,7 @@
         <v>4700</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
@@ -2360,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2392,7 +2391,7 @@
         <v>3700</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="15">
         <v>615840</v>
@@ -2410,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2501,7 +2500,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
         <v>45321</v>
@@ -2549,7 +2548,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
         <v>45395</v>
@@ -2648,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K24" s="34">
         <v>45399</v>
@@ -2830,13 +2829,13 @@
         <v>4716</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="22">
         <v>635657</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H32" s="23">
         <v>4</v>
@@ -2894,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="J34" s="23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K34" s="41">
         <v>45392</v>
@@ -2981,7 +2980,7 @@
         <v>662351</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H38" s="21">
         <v>2</v>
@@ -3140,448 +3139,448 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
+    <row r="45" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A45" s="65">
+        <v>151451737</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="D45" s="6">
+        <v>6615</v>
+      </c>
+      <c r="E45" s="5">
+        <v>45369</v>
+      </c>
+      <c r="F45" s="4">
+        <v>663093</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="7">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="7">
+        <v>4</v>
+      </c>
+      <c r="K45" s="5">
+        <v>45460</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A46" s="8">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A47" s="8">
         <v>151442906</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="16">
+      <c r="B47" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="16">
         <v>20</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D47" s="19">
         <v>10602</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E47" s="20">
         <v>45350</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F47" s="8">
         <v>663094</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="21">
+        <v>5</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="21">
+        <v>0</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A48" s="64">
+        <v>151450069</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="23">
+        <v>10</v>
+      </c>
+      <c r="D48" s="24">
+        <v>10602</v>
+      </c>
+      <c r="E48" s="25">
+        <v>45365</v>
+      </c>
+      <c r="F48" s="22">
+        <v>663094</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="26">
+        <v>5</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="26">
+        <v>5</v>
+      </c>
+      <c r="K48" s="26">
+        <v>111108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" s="29" customFormat="1">
+      <c r="A50" s="22">
+        <v>151338133</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="23">
+        <v>30</v>
+      </c>
+      <c r="D50" s="24">
+        <v>6000</v>
+      </c>
+      <c r="E50" s="41">
+        <v>45077</v>
+      </c>
+      <c r="F50" s="23">
+        <v>668330</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="26">
+        <v>15</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="26">
+        <v>0</v>
+      </c>
+      <c r="K50" s="25">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="29" customFormat="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A52" s="22">
+        <v>151353543</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="23">
+        <v>10</v>
+      </c>
+      <c r="D52" s="24">
+        <v>9703</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="22">
+        <v>681149</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="26">
+        <v>2</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" s="11" customFormat="1">
+      <c r="A54" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>50</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1908</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45322</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3">
+        <v>30</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="29" customFormat="1">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+    </row>
+    <row r="56" spans="1:11" s="29" customFormat="1">
+      <c r="A56" s="52">
+        <v>151448502</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="49">
+        <v>10</v>
+      </c>
+      <c r="D56" s="50">
+        <v>8463</v>
+      </c>
+      <c r="E56" s="51">
+        <v>45362</v>
+      </c>
+      <c r="F56" s="52">
+        <v>687349</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="53">
+        <v>50</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="53">
+        <v>0</v>
+      </c>
+      <c r="K56" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="21">
-        <v>5</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="21">
-        <v>5</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A47" s="64">
-        <v>151450069</v>
-      </c>
-      <c r="B47" s="23" t="s">
+    </row>
+    <row r="57" spans="1:11" s="29" customFormat="1">
+      <c r="A57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+    </row>
+    <row r="58" spans="1:11" s="29" customFormat="1">
+      <c r="A58" s="22">
+        <v>151242082</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="23">
-        <v>10</v>
-      </c>
-      <c r="D47" s="24">
-        <v>10602</v>
-      </c>
-      <c r="E47" s="25">
-        <v>45365</v>
-      </c>
-      <c r="F47" s="22">
-        <v>663094</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="26">
-        <v>5</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="26">
-        <v>5</v>
-      </c>
-      <c r="K47" s="26">
-        <v>111108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" s="29" customFormat="1">
-      <c r="A49" s="22">
-        <v>151338133</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="C58" s="23">
+        <v>10</v>
+      </c>
+      <c r="D58" s="24">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="22">
+        <v>691660</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="26">
+        <v>1</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="26">
+        <v>0</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" s="29" customFormat="1">
+      <c r="A60" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4">
+        <v>40</v>
+      </c>
+      <c r="D60" s="6">
+        <v>565</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45322</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="7">
+        <v>30</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="9">
+        <v>151264212</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="23">
-        <v>30</v>
-      </c>
-      <c r="D49" s="24">
-        <v>6000</v>
-      </c>
-      <c r="E49" s="41">
-        <v>45077</v>
-      </c>
-      <c r="F49" s="23">
-        <v>668330</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="26">
-        <v>15</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="26">
-        <v>0</v>
-      </c>
-      <c r="K49" s="25">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="29" customFormat="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A51" s="22">
-        <v>151353543</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="23">
-        <v>10</v>
-      </c>
-      <c r="D51" s="24">
-        <v>9703</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="22">
-        <v>681149</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="26">
-        <v>2</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="26">
-        <v>0</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-    </row>
-    <row r="53" spans="1:11" s="11" customFormat="1">
-      <c r="A53" s="8">
-        <v>151429605</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="1">
-        <v>50</v>
-      </c>
-      <c r="D53" s="10">
-        <v>1908</v>
-      </c>
-      <c r="E53" s="2">
-        <v>45322</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="3">
-        <v>30</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="29" customFormat="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-    </row>
-    <row r="55" spans="1:11" s="29" customFormat="1">
-      <c r="A55" s="52">
-        <v>151448502</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="49">
-        <v>10</v>
-      </c>
-      <c r="D55" s="50">
-        <v>8463</v>
-      </c>
-      <c r="E55" s="51">
-        <v>45362</v>
-      </c>
-      <c r="F55" s="52">
-        <v>687349</v>
-      </c>
-      <c r="G55" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="53">
-        <v>50</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="53">
-        <v>10</v>
-      </c>
-      <c r="K55" s="53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="29" customFormat="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-    </row>
-    <row r="57" spans="1:11" s="29" customFormat="1">
-      <c r="A57" s="22">
-        <v>151242082</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="23">
-        <v>10</v>
-      </c>
-      <c r="D57" s="24">
-        <v>1600</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="22">
-        <v>691660</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="26">
-        <v>1</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="26">
-        <v>0</v>
-      </c>
-      <c r="K57" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-    </row>
-    <row r="59" spans="1:11" s="29" customFormat="1">
-      <c r="A59" s="8">
-        <v>151429605</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="4">
-        <v>40</v>
-      </c>
-      <c r="D59" s="6">
-        <v>565</v>
-      </c>
-      <c r="E59" s="5">
-        <v>45322</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="7">
-        <v>30</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="7">
-        <v>0</v>
-      </c>
-      <c r="K59" s="5">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="9">
-        <v>151264212</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="9">
-        <v>10</v>
-      </c>
-      <c r="D61" s="43">
+      <c r="C62" s="9">
+        <v>10</v>
+      </c>
+      <c r="D62" s="43">
         <v>10710</v>
       </c>
-      <c r="E61" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="9">
-        <v>704681</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="45">
-        <v>1</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="45">
-        <v>0</v>
-      </c>
-      <c r="K61" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="8">
-        <v>151429605</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="9">
-        <v>30</v>
-      </c>
-      <c r="D62" s="43">
-        <v>15500</v>
-      </c>
-      <c r="E62" s="44">
-        <v>45322</v>
+      <c r="E62" s="44" t="s">
+        <v>73</v>
       </c>
       <c r="F62" s="9">
         <v>704681</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H62" s="45">
         <v>1</v>
@@ -3590,442 +3589,477 @@
         <v>12</v>
       </c>
       <c r="J62" s="45">
+        <v>0</v>
+      </c>
+      <c r="K62" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="9">
+        <v>30</v>
+      </c>
+      <c r="D63" s="43">
+        <v>15500</v>
+      </c>
+      <c r="E63" s="44">
+        <v>45322</v>
+      </c>
+      <c r="F63" s="9">
+        <v>704681</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="45">
         <v>1</v>
       </c>
-      <c r="K62" s="44">
+      <c r="I63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="45">
+        <v>1</v>
+      </c>
+      <c r="K63" s="44">
         <v>45337</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-    </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="8">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="8">
         <v>151415265</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="16">
+      <c r="B65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="16">
         <v>40</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D65" s="19">
         <v>4995</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E65" s="20">
         <v>45286</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F65" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G65" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="21">
-        <v>10</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="21">
+      <c r="H65" s="21">
+        <v>10</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="21">
         <v>0</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K65" s="20">
         <v>45307</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="20"/>
-    </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="16" t="s">
+      <c r="B67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="19">
         <v>4245</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E67" s="20">
         <v>44223</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F67" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G67" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H67" s="21">
         <v>2</v>
       </c>
-      <c r="I66" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="21">
+      <c r="I67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="21">
         <v>0</v>
       </c>
-      <c r="K66" s="20" t="s">
+      <c r="K67" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" s="29" customFormat="1">
-      <c r="A68" s="22">
+    <row r="68" spans="1:11">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" s="29" customFormat="1">
+      <c r="A69" s="22">
         <v>151448381</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B69" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="23">
-        <v>10</v>
-      </c>
-      <c r="D68" s="24">
+      <c r="C69" s="23">
+        <v>10</v>
+      </c>
+      <c r="D69" s="24">
         <v>1896</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E69" s="25">
         <v>45362</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F69" s="23">
         <v>716663</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="G69" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="26">
+      <c r="H69" s="26">
         <v>2</v>
       </c>
-      <c r="I68" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="26">
+      <c r="I69" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="26">
         <v>2</v>
       </c>
-      <c r="K68" s="25">
+      <c r="K69" s="25">
         <v>45383</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" s="29" customFormat="1">
-      <c r="A70" s="46">
+    <row r="70" spans="1:11">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" s="29" customFormat="1">
+      <c r="A71" s="46">
         <v>151350196</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B71" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="46">
-        <v>10</v>
-      </c>
-      <c r="D70" s="46">
+      <c r="C71" s="46">
+        <v>10</v>
+      </c>
+      <c r="D71" s="46">
         <v>45000</v>
       </c>
-      <c r="E70" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="46">
+      <c r="E71" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="46">
         <v>719031</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G71" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H71" s="47">
         <v>2</v>
       </c>
-      <c r="I70" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="47">
+      <c r="I71" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="47">
         <v>0</v>
       </c>
-      <c r="K70" s="47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-    </row>
-    <row r="72" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A72" s="22">
+      <c r="K71" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A73" s="22">
         <v>151395324</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B73" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C73" s="23">
         <v>20</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D73" s="40">
         <v>11990</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E73" s="41">
         <v>45236</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F73" s="22">
         <v>719381</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G73" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H73" s="23">
         <v>2</v>
       </c>
-      <c r="I72" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="23">
+      <c r="I73" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="23">
         <v>0</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K73" s="41">
         <v>45296</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="8"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="8"/>
-    </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="22">
+      <c r="A74" s="8"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="22">
         <v>151341902</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B75" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="42">
-        <v>10</v>
-      </c>
-      <c r="D74" s="42">
+      <c r="C75" s="42">
+        <v>10</v>
+      </c>
+      <c r="D75" s="42">
         <v>6800</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="E75" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="42">
+        <v>720138</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="42">
+        <v>3</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="42">
+        <v>0</v>
+      </c>
+      <c r="K75" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F74" s="42">
-        <v>720138</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="42">
-        <v>3</v>
-      </c>
-      <c r="I74" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="42">
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="1:11" s="29" customFormat="1">
+      <c r="A77" s="22">
+        <v>151343138</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="23">
+        <v>10</v>
+      </c>
+      <c r="D77" s="23">
+        <v>2490</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="22">
+        <v>724214</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="23">
+        <v>5</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="23">
         <v>0</v>
       </c>
-      <c r="K74" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-    </row>
-    <row r="76" spans="1:11" s="29" customFormat="1">
-      <c r="A76" s="22">
-        <v>151343138</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="23">
-        <v>10</v>
-      </c>
-      <c r="D76" s="23">
-        <v>2490</v>
-      </c>
-      <c r="E76" s="23" t="s">
+      <c r="K77" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="16">
+        <v>10</v>
+      </c>
+      <c r="D79" s="16">
+        <v>2900</v>
+      </c>
+      <c r="E79" s="20">
+        <v>45350</v>
+      </c>
+      <c r="F79" s="16">
+        <v>725828</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="16">
+        <v>10</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="20">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="1:11" s="29" customFormat="1">
+      <c r="A81" s="27">
+        <v>151315311</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4">
+        <v>100</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="4">
+        <v>728488</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="4">
+        <v>10</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F76" s="22">
-        <v>724214</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H76" s="23">
-        <v>5</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="23">
-        <v>0</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="8">
-        <v>151442906</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="16">
-        <v>10</v>
-      </c>
-      <c r="D78" s="16">
-        <v>2900</v>
-      </c>
-      <c r="E78" s="20">
-        <v>45350</v>
-      </c>
-      <c r="F78" s="16">
-        <v>725828</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H78" s="16">
-        <v>10</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J78" s="16">
-        <v>0</v>
-      </c>
-      <c r="K78" s="20">
-        <v>45348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="1:11" s="29" customFormat="1">
-      <c r="A80" s="27">
-        <v>151315311</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="4">
-        <v>10</v>
-      </c>
-      <c r="D80" s="4">
-        <v>100</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F80" s="4">
-        <v>728488</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80" s="4">
-        <v>10</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="4">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4036,10 +4070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -5270,8 +5304,8 @@
       <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="22">
-        <v>151265479</v>
+      <c r="A6" s="64">
+        <v>151451608</v>
       </c>
       <c r="B6" s="23" t="s">
         <v>16</v>
@@ -5282,8 +5316,8 @@
       <c r="D6" s="24">
         <v>16500</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>73</v>
+      <c r="E6" s="25">
+        <v>45369</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>14</v>
@@ -5292,16 +5326,16 @@
         <v>15</v>
       </c>
       <c r="H6" s="26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="26">
-        <v>0</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="K6" s="25">
+        <v>45399</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5331,7 +5365,7 @@
         <v>2400</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="4">
         <v>615181</v>
@@ -5349,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5394,7 +5428,7 @@
         <v>12</v>
       </c>
       <c r="J10" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" s="5">
         <v>45321</v>
@@ -5427,7 +5461,7 @@
         <v>4700</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>21</v>
@@ -5445,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5477,7 +5511,7 @@
         <v>3700</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="15">
         <v>615840</v>
@@ -5495,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5586,7 +5620,7 @@
         <v>12</v>
       </c>
       <c r="J18" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
         <v>45321</v>
@@ -5634,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="J20" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K20" s="5">
         <v>45395</v>
@@ -5733,7 +5767,7 @@
         <v>12</v>
       </c>
       <c r="J24" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K24" s="34">
         <v>45399</v>
@@ -5915,13 +5949,13 @@
         <v>4716</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32" s="22">
         <v>635657</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H32" s="23">
         <v>4</v>
@@ -5979,7 +6013,7 @@
         <v>12</v>
       </c>
       <c r="J34" s="23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K34" s="41">
         <v>45392</v>
@@ -6066,7 +6100,7 @@
         <v>662351</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H38" s="21">
         <v>2</v>
@@ -6225,448 +6259,448 @@
         <v>45390</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
+    <row r="45" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A45" s="65">
+        <v>151451737</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="D45" s="6">
+        <v>6615</v>
+      </c>
+      <c r="E45" s="5">
+        <v>45369</v>
+      </c>
+      <c r="F45" s="4">
+        <v>663093</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="7">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="7">
+        <v>4</v>
+      </c>
+      <c r="K45" s="5">
+        <v>45460</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A46" s="8">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A47" s="8">
         <v>151442906</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="16">
+      <c r="B47" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="16">
         <v>20</v>
       </c>
-      <c r="D46" s="19">
+      <c r="D47" s="19">
         <v>10602</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E47" s="20">
         <v>45350</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F47" s="8">
         <v>663094</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="21">
+        <v>5</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="21">
+        <v>0</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A48" s="64">
+        <v>151450069</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="23">
+        <v>10</v>
+      </c>
+      <c r="D48" s="24">
+        <v>10602</v>
+      </c>
+      <c r="E48" s="25">
+        <v>45365</v>
+      </c>
+      <c r="F48" s="22">
+        <v>663094</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="26">
+        <v>5</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="26">
+        <v>5</v>
+      </c>
+      <c r="K48" s="26">
+        <v>111108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" s="29" customFormat="1">
+      <c r="A50" s="22">
+        <v>151338133</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="23">
+        <v>30</v>
+      </c>
+      <c r="D50" s="24">
+        <v>6000</v>
+      </c>
+      <c r="E50" s="41">
+        <v>45077</v>
+      </c>
+      <c r="F50" s="23">
+        <v>668330</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="26">
+        <v>15</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="26">
+        <v>0</v>
+      </c>
+      <c r="K50" s="25">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="29" customFormat="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A52" s="22">
+        <v>151353543</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="23">
+        <v>10</v>
+      </c>
+      <c r="D52" s="24">
+        <v>9703</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="22">
+        <v>681149</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="26">
+        <v>2</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" s="11" customFormat="1">
+      <c r="A54" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>50</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1908</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45322</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3">
+        <v>30</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="29" customFormat="1">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+    </row>
+    <row r="56" spans="1:11" s="29" customFormat="1">
+      <c r="A56" s="52">
+        <v>151448502</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="49">
+        <v>10</v>
+      </c>
+      <c r="D56" s="50">
+        <v>8463</v>
+      </c>
+      <c r="E56" s="51">
+        <v>45362</v>
+      </c>
+      <c r="F56" s="52">
+        <v>687349</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="53">
+        <v>50</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="53">
+        <v>0</v>
+      </c>
+      <c r="K56" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="H46" s="21">
-        <v>5</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="21">
-        <v>5</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A47" s="64">
-        <v>151450069</v>
-      </c>
-      <c r="B47" s="23" t="s">
+    </row>
+    <row r="57" spans="1:11" s="29" customFormat="1">
+      <c r="A57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+    </row>
+    <row r="58" spans="1:11" s="29" customFormat="1">
+      <c r="A58" s="22">
+        <v>151242082</v>
+      </c>
+      <c r="B58" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="23">
-        <v>10</v>
-      </c>
-      <c r="D47" s="24">
-        <v>10602</v>
-      </c>
-      <c r="E47" s="25">
-        <v>45365</v>
-      </c>
-      <c r="F47" s="22">
-        <v>663094</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="26">
-        <v>5</v>
-      </c>
-      <c r="I47" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J47" s="26">
-        <v>5</v>
-      </c>
-      <c r="K47" s="26">
-        <v>111108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" s="29" customFormat="1">
-      <c r="A49" s="22">
-        <v>151338133</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="C58" s="23">
+        <v>10</v>
+      </c>
+      <c r="D58" s="24">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="22">
+        <v>691660</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="26">
+        <v>1</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="26">
+        <v>0</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" s="29" customFormat="1">
+      <c r="A60" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4">
+        <v>40</v>
+      </c>
+      <c r="D60" s="6">
+        <v>565</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45322</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="7">
+        <v>30</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="9">
+        <v>151264212</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="23">
-        <v>30</v>
-      </c>
-      <c r="D49" s="24">
-        <v>6000</v>
-      </c>
-      <c r="E49" s="41">
-        <v>45077</v>
-      </c>
-      <c r="F49" s="23">
-        <v>668330</v>
-      </c>
-      <c r="G49" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H49" s="26">
-        <v>15</v>
-      </c>
-      <c r="I49" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="26">
-        <v>0</v>
-      </c>
-      <c r="K49" s="25">
-        <v>45077</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="29" customFormat="1">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="33"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A51" s="22">
-        <v>151353543</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="23">
-        <v>10</v>
-      </c>
-      <c r="D51" s="24">
-        <v>9703</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F51" s="22">
-        <v>681149</v>
-      </c>
-      <c r="G51" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="26">
-        <v>2</v>
-      </c>
-      <c r="I51" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="26">
-        <v>0</v>
-      </c>
-      <c r="K51" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-    </row>
-    <row r="53" spans="1:11" s="11" customFormat="1">
-      <c r="A53" s="8">
-        <v>151429605</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="1">
-        <v>50</v>
-      </c>
-      <c r="D53" s="10">
-        <v>1908</v>
-      </c>
-      <c r="E53" s="2">
-        <v>45322</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" s="3">
-        <v>30</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="2">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="29" customFormat="1">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="55"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="57"/>
-      <c r="K54" s="57"/>
-    </row>
-    <row r="55" spans="1:11" s="29" customFormat="1">
-      <c r="A55" s="52">
-        <v>151448502</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="49">
-        <v>10</v>
-      </c>
-      <c r="D55" s="50">
-        <v>8463</v>
-      </c>
-      <c r="E55" s="51">
-        <v>45362</v>
-      </c>
-      <c r="F55" s="52">
-        <v>687349</v>
-      </c>
-      <c r="G55" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="53">
-        <v>50</v>
-      </c>
-      <c r="I55" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="53">
-        <v>10</v>
-      </c>
-      <c r="K55" s="53" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="29" customFormat="1">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="63"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="63"/>
-      <c r="K56" s="63"/>
-    </row>
-    <row r="57" spans="1:11" s="29" customFormat="1">
-      <c r="A57" s="22">
-        <v>151242082</v>
-      </c>
-      <c r="B57" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="23">
-        <v>10</v>
-      </c>
-      <c r="D57" s="24">
-        <v>1600</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" s="22">
-        <v>691660</v>
-      </c>
-      <c r="G57" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="H57" s="26">
-        <v>1</v>
-      </c>
-      <c r="I57" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="26">
-        <v>0</v>
-      </c>
-      <c r="K57" s="26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-    </row>
-    <row r="59" spans="1:11" s="29" customFormat="1">
-      <c r="A59" s="8">
-        <v>151429605</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="4">
-        <v>40</v>
-      </c>
-      <c r="D59" s="6">
-        <v>565</v>
-      </c>
-      <c r="E59" s="5">
-        <v>45322</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H59" s="7">
-        <v>30</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="7">
-        <v>0</v>
-      </c>
-      <c r="K59" s="5">
-        <v>45337</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="9">
-        <v>151264212</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="9">
-        <v>10</v>
-      </c>
-      <c r="D61" s="43">
+      <c r="C62" s="9">
+        <v>10</v>
+      </c>
+      <c r="D62" s="43">
         <v>10710</v>
       </c>
-      <c r="E61" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="9">
-        <v>704681</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H61" s="45">
-        <v>1</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="45">
-        <v>0</v>
-      </c>
-      <c r="K61" s="45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="8">
-        <v>151429605</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="9">
-        <v>30</v>
-      </c>
-      <c r="D62" s="43">
-        <v>15500</v>
-      </c>
-      <c r="E62" s="44">
-        <v>45322</v>
+      <c r="E62" s="44" t="s">
+        <v>73</v>
       </c>
       <c r="F62" s="9">
         <v>704681</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H62" s="45">
         <v>1</v>
@@ -6675,446 +6709,6719 @@
         <v>12</v>
       </c>
       <c r="J62" s="45">
+        <v>0</v>
+      </c>
+      <c r="K62" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="9">
+        <v>30</v>
+      </c>
+      <c r="D63" s="43">
+        <v>15500</v>
+      </c>
+      <c r="E63" s="44">
+        <v>45322</v>
+      </c>
+      <c r="F63" s="9">
+        <v>704681</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="45">
         <v>1</v>
       </c>
-      <c r="K62" s="44">
+      <c r="I63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="45">
+        <v>1</v>
+      </c>
+      <c r="K63" s="44">
         <v>45337</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-    </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="8">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="8">
         <v>151415265</v>
       </c>
-      <c r="B64" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="16">
+      <c r="B65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="16">
         <v>40</v>
       </c>
-      <c r="D64" s="19">
+      <c r="D65" s="19">
         <v>4995</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E65" s="20">
         <v>45286</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F65" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G65" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H64" s="21">
-        <v>10</v>
-      </c>
-      <c r="I64" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="21">
+      <c r="H65" s="21">
+        <v>10</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="21">
         <v>0</v>
       </c>
-      <c r="K64" s="20">
+      <c r="K65" s="20">
         <v>45307</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="20"/>
-    </row>
     <row r="66" spans="1:11">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="16" t="s">
+      <c r="B67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="19">
         <v>4245</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E67" s="20">
         <v>44223</v>
       </c>
-      <c r="F66" s="16" t="s">
+      <c r="F67" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G67" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H67" s="21">
         <v>2</v>
       </c>
-      <c r="I66" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="21">
+      <c r="I67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="21">
         <v>0</v>
       </c>
-      <c r="K66" s="20" t="s">
+      <c r="K67" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="20"/>
-    </row>
-    <row r="68" spans="1:11" s="29" customFormat="1">
-      <c r="A68" s="22">
+    <row r="68" spans="1:11">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" s="29" customFormat="1">
+      <c r="A69" s="22">
         <v>151448381</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B69" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="23">
-        <v>10</v>
-      </c>
-      <c r="D68" s="24">
+      <c r="C69" s="23">
+        <v>10</v>
+      </c>
+      <c r="D69" s="24">
         <v>1896</v>
       </c>
-      <c r="E68" s="25">
+      <c r="E69" s="25">
         <v>45362</v>
       </c>
-      <c r="F68" s="23">
+      <c r="F69" s="23">
         <v>716663</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="G69" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="H68" s="26">
+      <c r="H69" s="26">
         <v>2</v>
       </c>
-      <c r="I68" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J68" s="26">
+      <c r="I69" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="26">
         <v>2</v>
       </c>
-      <c r="K68" s="25">
+      <c r="K69" s="25">
         <v>45383</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" s="29" customFormat="1">
-      <c r="A70" s="46">
+    <row r="70" spans="1:11">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" s="29" customFormat="1">
+      <c r="A71" s="46">
         <v>151350196</v>
       </c>
-      <c r="B70" s="46" t="s">
+      <c r="B71" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="46">
-        <v>10</v>
-      </c>
-      <c r="D70" s="46">
+      <c r="C71" s="46">
+        <v>10</v>
+      </c>
+      <c r="D71" s="46">
         <v>45000</v>
       </c>
-      <c r="E70" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="F70" s="46">
+      <c r="E71" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="46">
         <v>719031</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G71" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H70" s="47">
+      <c r="H71" s="47">
         <v>2</v>
       </c>
-      <c r="I70" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="47">
+      <c r="I71" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="47">
         <v>0</v>
       </c>
-      <c r="K70" s="47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="45"/>
-      <c r="K71" s="45"/>
-    </row>
-    <row r="72" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
-      <c r="A72" s="22">
+      <c r="K71" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A73" s="22">
         <v>151395324</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B73" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C73" s="23">
         <v>20</v>
       </c>
-      <c r="D72" s="40">
+      <c r="D73" s="40">
         <v>11990</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E73" s="41">
         <v>45236</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F73" s="22">
         <v>719381</v>
       </c>
-      <c r="G72" s="22" t="s">
+      <c r="G73" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H72" s="23">
+      <c r="H73" s="23">
         <v>2</v>
       </c>
-      <c r="I72" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="23">
+      <c r="I73" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="23">
         <v>0</v>
       </c>
-      <c r="K72" s="41">
+      <c r="K73" s="41">
         <v>45296</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="8"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="8"/>
-    </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="22">
+      <c r="A74" s="8"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="22">
         <v>151341902</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B75" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C74" s="42">
-        <v>10</v>
-      </c>
-      <c r="D74" s="42">
+      <c r="C75" s="42">
+        <v>10</v>
+      </c>
+      <c r="D75" s="42">
         <v>6800</v>
       </c>
-      <c r="E74" s="42" t="s">
+      <c r="E75" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="42">
+        <v>720138</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="42">
+        <v>3</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="42">
+        <v>0</v>
+      </c>
+      <c r="K75" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="F74" s="42">
-        <v>720138</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H74" s="42">
-        <v>3</v>
-      </c>
-      <c r="I74" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="42">
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="1:11" s="29" customFormat="1">
+      <c r="A77" s="22">
+        <v>151343138</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="23">
+        <v>10</v>
+      </c>
+      <c r="D77" s="23">
+        <v>2490</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="22">
+        <v>724214</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="23">
+        <v>5</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="23">
         <v>0</v>
       </c>
-      <c r="K74" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-    </row>
-    <row r="76" spans="1:11" s="29" customFormat="1">
-      <c r="A76" s="22">
-        <v>151343138</v>
-      </c>
-      <c r="B76" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="23">
-        <v>10</v>
-      </c>
-      <c r="D76" s="23">
-        <v>2490</v>
-      </c>
-      <c r="E76" s="23" t="s">
+      <c r="K77" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="16">
+        <v>10</v>
+      </c>
+      <c r="D79" s="16">
+        <v>2900</v>
+      </c>
+      <c r="E79" s="20">
+        <v>45350</v>
+      </c>
+      <c r="F79" s="16">
+        <v>725828</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="16">
+        <v>10</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="20">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="1:11" s="29" customFormat="1">
+      <c r="A81" s="27">
+        <v>151315311</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4">
+        <v>100</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="4">
+        <v>728488</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="4">
+        <v>10</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="F76" s="22">
-        <v>724214</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="H76" s="23">
-        <v>5</v>
-      </c>
-      <c r="I76" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="23">
-        <v>0</v>
-      </c>
-      <c r="K76" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="8">
-        <v>151442906</v>
-      </c>
-      <c r="B78" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="16">
-        <v>10</v>
-      </c>
-      <c r="D78" s="16">
-        <v>2900</v>
-      </c>
-      <c r="E78" s="20">
-        <v>45350</v>
-      </c>
-      <c r="F78" s="16">
-        <v>725828</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H78" s="16">
-        <v>10</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J78" s="16">
-        <v>0</v>
-      </c>
-      <c r="K78" s="20">
-        <v>45348</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-    </row>
-    <row r="80" spans="1:11" s="29" customFormat="1">
-      <c r="A80" s="27">
-        <v>151315311</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="4">
-        <v>10</v>
-      </c>
-      <c r="D80" s="4">
-        <v>100</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F80" s="4">
-        <v>728488</v>
-      </c>
-      <c r="G80" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="H80" s="4">
-        <v>10</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J80" s="4">
-        <v>0</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="245" width="8.88671875" style="18"/>
+    <col min="246" max="246" width="20.5546875" style="18" customWidth="1"/>
+    <col min="247" max="247" width="13.109375" style="18" customWidth="1"/>
+    <col min="248" max="248" width="8.88671875" style="18"/>
+    <col min="249" max="249" width="14.5546875" style="18" customWidth="1"/>
+    <col min="250" max="250" width="14.44140625" style="18" customWidth="1"/>
+    <col min="251" max="251" width="8.88671875" style="18" customWidth="1"/>
+    <col min="252" max="252" width="19.109375" style="18" customWidth="1"/>
+    <col min="253" max="253" width="12.33203125" style="18" customWidth="1"/>
+    <col min="254" max="254" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="10.33203125" style="18" customWidth="1"/>
+    <col min="257" max="257" width="8" style="18" customWidth="1"/>
+    <col min="258" max="259" width="14.33203125" style="18" customWidth="1"/>
+    <col min="260" max="260" width="6.5546875" style="18" customWidth="1"/>
+    <col min="261" max="261" width="10.109375" style="18" customWidth="1"/>
+    <col min="262" max="262" width="7.5546875" style="18" customWidth="1"/>
+    <col min="263" max="501" width="8.88671875" style="18"/>
+    <col min="502" max="502" width="20.5546875" style="18" customWidth="1"/>
+    <col min="503" max="503" width="13.109375" style="18" customWidth="1"/>
+    <col min="504" max="504" width="8.88671875" style="18"/>
+    <col min="505" max="505" width="14.5546875" style="18" customWidth="1"/>
+    <col min="506" max="506" width="14.44140625" style="18" customWidth="1"/>
+    <col min="507" max="507" width="8.88671875" style="18" customWidth="1"/>
+    <col min="508" max="508" width="19.109375" style="18" customWidth="1"/>
+    <col min="509" max="509" width="12.33203125" style="18" customWidth="1"/>
+    <col min="510" max="510" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="10.33203125" style="18" customWidth="1"/>
+    <col min="513" max="513" width="8" style="18" customWidth="1"/>
+    <col min="514" max="515" width="14.33203125" style="18" customWidth="1"/>
+    <col min="516" max="516" width="6.5546875" style="18" customWidth="1"/>
+    <col min="517" max="517" width="10.109375" style="18" customWidth="1"/>
+    <col min="518" max="518" width="7.5546875" style="18" customWidth="1"/>
+    <col min="519" max="757" width="8.88671875" style="18"/>
+    <col min="758" max="758" width="20.5546875" style="18" customWidth="1"/>
+    <col min="759" max="759" width="13.109375" style="18" customWidth="1"/>
+    <col min="760" max="760" width="8.88671875" style="18"/>
+    <col min="761" max="761" width="14.5546875" style="18" customWidth="1"/>
+    <col min="762" max="762" width="14.44140625" style="18" customWidth="1"/>
+    <col min="763" max="763" width="8.88671875" style="18" customWidth="1"/>
+    <col min="764" max="764" width="19.109375" style="18" customWidth="1"/>
+    <col min="765" max="765" width="12.33203125" style="18" customWidth="1"/>
+    <col min="766" max="766" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="10.33203125" style="18" customWidth="1"/>
+    <col min="769" max="769" width="8" style="18" customWidth="1"/>
+    <col min="770" max="771" width="14.33203125" style="18" customWidth="1"/>
+    <col min="772" max="772" width="6.5546875" style="18" customWidth="1"/>
+    <col min="773" max="773" width="10.109375" style="18" customWidth="1"/>
+    <col min="774" max="774" width="7.5546875" style="18" customWidth="1"/>
+    <col min="775" max="1013" width="8.88671875" style="18"/>
+    <col min="1014" max="1014" width="20.5546875" style="18" customWidth="1"/>
+    <col min="1015" max="1015" width="13.109375" style="18" customWidth="1"/>
+    <col min="1016" max="1016" width="8.88671875" style="18"/>
+    <col min="1017" max="1017" width="14.5546875" style="18" customWidth="1"/>
+    <col min="1018" max="1018" width="14.44140625" style="18" customWidth="1"/>
+    <col min="1019" max="1019" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1020" max="1020" width="19.109375" style="18" customWidth="1"/>
+    <col min="1021" max="1021" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1022" max="1022" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1023" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="10.33203125" style="18" customWidth="1"/>
+    <col min="1025" max="1025" width="8" style="18" customWidth="1"/>
+    <col min="1026" max="1027" width="14.33203125" style="18" customWidth="1"/>
+    <col min="1028" max="1028" width="6.5546875" style="18" customWidth="1"/>
+    <col min="1029" max="1029" width="10.109375" style="18" customWidth="1"/>
+    <col min="1030" max="1030" width="7.5546875" style="18" customWidth="1"/>
+    <col min="1031" max="1269" width="8.88671875" style="18"/>
+    <col min="1270" max="1270" width="20.5546875" style="18" customWidth="1"/>
+    <col min="1271" max="1271" width="13.109375" style="18" customWidth="1"/>
+    <col min="1272" max="1272" width="8.88671875" style="18"/>
+    <col min="1273" max="1273" width="14.5546875" style="18" customWidth="1"/>
+    <col min="1274" max="1274" width="14.44140625" style="18" customWidth="1"/>
+    <col min="1275" max="1275" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1276" max="1276" width="19.109375" style="18" customWidth="1"/>
+    <col min="1277" max="1277" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1278" max="1278" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1279" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="10.33203125" style="18" customWidth="1"/>
+    <col min="1281" max="1281" width="8" style="18" customWidth="1"/>
+    <col min="1282" max="1283" width="14.33203125" style="18" customWidth="1"/>
+    <col min="1284" max="1284" width="6.5546875" style="18" customWidth="1"/>
+    <col min="1285" max="1285" width="10.109375" style="18" customWidth="1"/>
+    <col min="1286" max="1286" width="7.5546875" style="18" customWidth="1"/>
+    <col min="1287" max="1525" width="8.88671875" style="18"/>
+    <col min="1526" max="1526" width="20.5546875" style="18" customWidth="1"/>
+    <col min="1527" max="1527" width="13.109375" style="18" customWidth="1"/>
+    <col min="1528" max="1528" width="8.88671875" style="18"/>
+    <col min="1529" max="1529" width="14.5546875" style="18" customWidth="1"/>
+    <col min="1530" max="1530" width="14.44140625" style="18" customWidth="1"/>
+    <col min="1531" max="1531" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1532" max="1532" width="19.109375" style="18" customWidth="1"/>
+    <col min="1533" max="1533" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1534" max="1534" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1535" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="10.33203125" style="18" customWidth="1"/>
+    <col min="1537" max="1537" width="8" style="18" customWidth="1"/>
+    <col min="1538" max="1539" width="14.33203125" style="18" customWidth="1"/>
+    <col min="1540" max="1540" width="6.5546875" style="18" customWidth="1"/>
+    <col min="1541" max="1541" width="10.109375" style="18" customWidth="1"/>
+    <col min="1542" max="1542" width="7.5546875" style="18" customWidth="1"/>
+    <col min="1543" max="1781" width="8.88671875" style="18"/>
+    <col min="1782" max="1782" width="20.5546875" style="18" customWidth="1"/>
+    <col min="1783" max="1783" width="13.109375" style="18" customWidth="1"/>
+    <col min="1784" max="1784" width="8.88671875" style="18"/>
+    <col min="1785" max="1785" width="14.5546875" style="18" customWidth="1"/>
+    <col min="1786" max="1786" width="14.44140625" style="18" customWidth="1"/>
+    <col min="1787" max="1787" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1788" max="1788" width="19.109375" style="18" customWidth="1"/>
+    <col min="1789" max="1789" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1790" max="1790" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1791" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="10.33203125" style="18" customWidth="1"/>
+    <col min="1793" max="1793" width="8" style="18" customWidth="1"/>
+    <col min="1794" max="1795" width="14.33203125" style="18" customWidth="1"/>
+    <col min="1796" max="1796" width="6.5546875" style="18" customWidth="1"/>
+    <col min="1797" max="1797" width="10.109375" style="18" customWidth="1"/>
+    <col min="1798" max="1798" width="7.5546875" style="18" customWidth="1"/>
+    <col min="1799" max="2037" width="8.88671875" style="18"/>
+    <col min="2038" max="2038" width="20.5546875" style="18" customWidth="1"/>
+    <col min="2039" max="2039" width="13.109375" style="18" customWidth="1"/>
+    <col min="2040" max="2040" width="8.88671875" style="18"/>
+    <col min="2041" max="2041" width="14.5546875" style="18" customWidth="1"/>
+    <col min="2042" max="2042" width="14.44140625" style="18" customWidth="1"/>
+    <col min="2043" max="2043" width="8.88671875" style="18" customWidth="1"/>
+    <col min="2044" max="2044" width="19.109375" style="18" customWidth="1"/>
+    <col min="2045" max="2045" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2046" max="2046" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2047" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="10.33203125" style="18" customWidth="1"/>
+    <col min="2049" max="2049" width="8" style="18" customWidth="1"/>
+    <col min="2050" max="2051" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2052" max="2052" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2053" max="2053" width="10.109375" style="18" customWidth="1"/>
+    <col min="2054" max="2054" width="7.5546875" style="18" customWidth="1"/>
+    <col min="2055" max="2293" width="8.88671875" style="18"/>
+    <col min="2294" max="2294" width="20.5546875" style="18" customWidth="1"/>
+    <col min="2295" max="2295" width="13.109375" style="18" customWidth="1"/>
+    <col min="2296" max="2296" width="8.88671875" style="18"/>
+    <col min="2297" max="2297" width="14.5546875" style="18" customWidth="1"/>
+    <col min="2298" max="2298" width="14.44140625" style="18" customWidth="1"/>
+    <col min="2299" max="2299" width="8.88671875" style="18" customWidth="1"/>
+    <col min="2300" max="2300" width="19.109375" style="18" customWidth="1"/>
+    <col min="2301" max="2301" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2302" max="2302" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2303" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="10.33203125" style="18" customWidth="1"/>
+    <col min="2305" max="2305" width="8" style="18" customWidth="1"/>
+    <col min="2306" max="2307" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2308" max="2308" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2309" max="2309" width="10.109375" style="18" customWidth="1"/>
+    <col min="2310" max="2310" width="7.5546875" style="18" customWidth="1"/>
+    <col min="2311" max="2549" width="8.88671875" style="18"/>
+    <col min="2550" max="2550" width="20.5546875" style="18" customWidth="1"/>
+    <col min="2551" max="2551" width="13.109375" style="18" customWidth="1"/>
+    <col min="2552" max="2552" width="8.88671875" style="18"/>
+    <col min="2553" max="2553" width="14.5546875" style="18" customWidth="1"/>
+    <col min="2554" max="2554" width="14.44140625" style="18" customWidth="1"/>
+    <col min="2555" max="2555" width="8.88671875" style="18" customWidth="1"/>
+    <col min="2556" max="2556" width="19.109375" style="18" customWidth="1"/>
+    <col min="2557" max="2557" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2558" max="2558" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2559" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="10.33203125" style="18" customWidth="1"/>
+    <col min="2561" max="2561" width="8" style="18" customWidth="1"/>
+    <col min="2562" max="2563" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2564" max="2564" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2565" max="2565" width="10.109375" style="18" customWidth="1"/>
+    <col min="2566" max="2566" width="7.5546875" style="18" customWidth="1"/>
+    <col min="2567" max="2805" width="8.88671875" style="18"/>
+    <col min="2806" max="2806" width="20.5546875" style="18" customWidth="1"/>
+    <col min="2807" max="2807" width="13.109375" style="18" customWidth="1"/>
+    <col min="2808" max="2808" width="8.88671875" style="18"/>
+    <col min="2809" max="2809" width="14.5546875" style="18" customWidth="1"/>
+    <col min="2810" max="2810" width="14.44140625" style="18" customWidth="1"/>
+    <col min="2811" max="2811" width="8.88671875" style="18" customWidth="1"/>
+    <col min="2812" max="2812" width="19.109375" style="18" customWidth="1"/>
+    <col min="2813" max="2813" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2814" max="2814" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2815" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="10.33203125" style="18" customWidth="1"/>
+    <col min="2817" max="2817" width="8" style="18" customWidth="1"/>
+    <col min="2818" max="2819" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2820" max="2820" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2821" max="2821" width="10.109375" style="18" customWidth="1"/>
+    <col min="2822" max="2822" width="7.5546875" style="18" customWidth="1"/>
+    <col min="2823" max="3061" width="8.88671875" style="18"/>
+    <col min="3062" max="3062" width="20.5546875" style="18" customWidth="1"/>
+    <col min="3063" max="3063" width="13.109375" style="18" customWidth="1"/>
+    <col min="3064" max="3064" width="8.88671875" style="18"/>
+    <col min="3065" max="3065" width="14.5546875" style="18" customWidth="1"/>
+    <col min="3066" max="3066" width="14.44140625" style="18" customWidth="1"/>
+    <col min="3067" max="3067" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3068" max="3068" width="19.109375" style="18" customWidth="1"/>
+    <col min="3069" max="3069" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3070" max="3070" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3071" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3073" max="3073" width="8" style="18" customWidth="1"/>
+    <col min="3074" max="3075" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3076" max="3076" width="6.5546875" style="18" customWidth="1"/>
+    <col min="3077" max="3077" width="10.109375" style="18" customWidth="1"/>
+    <col min="3078" max="3078" width="7.5546875" style="18" customWidth="1"/>
+    <col min="3079" max="3317" width="8.88671875" style="18"/>
+    <col min="3318" max="3318" width="20.5546875" style="18" customWidth="1"/>
+    <col min="3319" max="3319" width="13.109375" style="18" customWidth="1"/>
+    <col min="3320" max="3320" width="8.88671875" style="18"/>
+    <col min="3321" max="3321" width="14.5546875" style="18" customWidth="1"/>
+    <col min="3322" max="3322" width="14.44140625" style="18" customWidth="1"/>
+    <col min="3323" max="3323" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3324" max="3324" width="19.109375" style="18" customWidth="1"/>
+    <col min="3325" max="3325" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3326" max="3326" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3327" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3329" max="3329" width="8" style="18" customWidth="1"/>
+    <col min="3330" max="3331" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3332" max="3332" width="6.5546875" style="18" customWidth="1"/>
+    <col min="3333" max="3333" width="10.109375" style="18" customWidth="1"/>
+    <col min="3334" max="3334" width="7.5546875" style="18" customWidth="1"/>
+    <col min="3335" max="3573" width="8.88671875" style="18"/>
+    <col min="3574" max="3574" width="20.5546875" style="18" customWidth="1"/>
+    <col min="3575" max="3575" width="13.109375" style="18" customWidth="1"/>
+    <col min="3576" max="3576" width="8.88671875" style="18"/>
+    <col min="3577" max="3577" width="14.5546875" style="18" customWidth="1"/>
+    <col min="3578" max="3578" width="14.44140625" style="18" customWidth="1"/>
+    <col min="3579" max="3579" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3580" max="3580" width="19.109375" style="18" customWidth="1"/>
+    <col min="3581" max="3581" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3582" max="3582" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3583" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3585" max="3585" width="8" style="18" customWidth="1"/>
+    <col min="3586" max="3587" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3588" max="3588" width="6.5546875" style="18" customWidth="1"/>
+    <col min="3589" max="3589" width="10.109375" style="18" customWidth="1"/>
+    <col min="3590" max="3590" width="7.5546875" style="18" customWidth="1"/>
+    <col min="3591" max="3829" width="8.88671875" style="18"/>
+    <col min="3830" max="3830" width="20.5546875" style="18" customWidth="1"/>
+    <col min="3831" max="3831" width="13.109375" style="18" customWidth="1"/>
+    <col min="3832" max="3832" width="8.88671875" style="18"/>
+    <col min="3833" max="3833" width="14.5546875" style="18" customWidth="1"/>
+    <col min="3834" max="3834" width="14.44140625" style="18" customWidth="1"/>
+    <col min="3835" max="3835" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3836" max="3836" width="19.109375" style="18" customWidth="1"/>
+    <col min="3837" max="3837" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3838" max="3838" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3839" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3841" max="3841" width="8" style="18" customWidth="1"/>
+    <col min="3842" max="3843" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3844" max="3844" width="6.5546875" style="18" customWidth="1"/>
+    <col min="3845" max="3845" width="10.109375" style="18" customWidth="1"/>
+    <col min="3846" max="3846" width="7.5546875" style="18" customWidth="1"/>
+    <col min="3847" max="4085" width="8.88671875" style="18"/>
+    <col min="4086" max="4086" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4087" max="4087" width="13.109375" style="18" customWidth="1"/>
+    <col min="4088" max="4088" width="8.88671875" style="18"/>
+    <col min="4089" max="4089" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4090" max="4090" width="14.44140625" style="18" customWidth="1"/>
+    <col min="4091" max="4091" width="8.88671875" style="18" customWidth="1"/>
+    <col min="4092" max="4092" width="19.109375" style="18" customWidth="1"/>
+    <col min="4093" max="4093" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4094" max="4094" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4095" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="10.33203125" style="18" customWidth="1"/>
+    <col min="4097" max="4097" width="8" style="18" customWidth="1"/>
+    <col min="4098" max="4099" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4100" max="4100" width="6.5546875" style="18" customWidth="1"/>
+    <col min="4101" max="4101" width="10.109375" style="18" customWidth="1"/>
+    <col min="4102" max="4102" width="7.5546875" style="18" customWidth="1"/>
+    <col min="4103" max="4341" width="8.88671875" style="18"/>
+    <col min="4342" max="4342" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4343" max="4343" width="13.109375" style="18" customWidth="1"/>
+    <col min="4344" max="4344" width="8.88671875" style="18"/>
+    <col min="4345" max="4345" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4346" max="4346" width="14.44140625" style="18" customWidth="1"/>
+    <col min="4347" max="4347" width="8.88671875" style="18" customWidth="1"/>
+    <col min="4348" max="4348" width="19.109375" style="18" customWidth="1"/>
+    <col min="4349" max="4349" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4350" max="4350" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4351" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="10.33203125" style="18" customWidth="1"/>
+    <col min="4353" max="4353" width="8" style="18" customWidth="1"/>
+    <col min="4354" max="4355" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4356" max="4356" width="6.5546875" style="18" customWidth="1"/>
+    <col min="4357" max="4357" width="10.109375" style="18" customWidth="1"/>
+    <col min="4358" max="4358" width="7.5546875" style="18" customWidth="1"/>
+    <col min="4359" max="4597" width="8.88671875" style="18"/>
+    <col min="4598" max="4598" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4599" max="4599" width="13.109375" style="18" customWidth="1"/>
+    <col min="4600" max="4600" width="8.88671875" style="18"/>
+    <col min="4601" max="4601" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4602" max="4602" width="14.44140625" style="18" customWidth="1"/>
+    <col min="4603" max="4603" width="8.88671875" style="18" customWidth="1"/>
+    <col min="4604" max="4604" width="19.109375" style="18" customWidth="1"/>
+    <col min="4605" max="4605" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4606" max="4606" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4607" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="10.33203125" style="18" customWidth="1"/>
+    <col min="4609" max="4609" width="8" style="18" customWidth="1"/>
+    <col min="4610" max="4611" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4612" max="4612" width="6.5546875" style="18" customWidth="1"/>
+    <col min="4613" max="4613" width="10.109375" style="18" customWidth="1"/>
+    <col min="4614" max="4614" width="7.5546875" style="18" customWidth="1"/>
+    <col min="4615" max="4853" width="8.88671875" style="18"/>
+    <col min="4854" max="4854" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4855" max="4855" width="13.109375" style="18" customWidth="1"/>
+    <col min="4856" max="4856" width="8.88671875" style="18"/>
+    <col min="4857" max="4857" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4858" max="4858" width="14.44140625" style="18" customWidth="1"/>
+    <col min="4859" max="4859" width="8.88671875" style="18" customWidth="1"/>
+    <col min="4860" max="4860" width="19.109375" style="18" customWidth="1"/>
+    <col min="4861" max="4861" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4862" max="4862" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4863" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="10.33203125" style="18" customWidth="1"/>
+    <col min="4865" max="4865" width="8" style="18" customWidth="1"/>
+    <col min="4866" max="4867" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4868" max="4868" width="6.5546875" style="18" customWidth="1"/>
+    <col min="4869" max="4869" width="10.109375" style="18" customWidth="1"/>
+    <col min="4870" max="4870" width="7.5546875" style="18" customWidth="1"/>
+    <col min="4871" max="5109" width="8.88671875" style="18"/>
+    <col min="5110" max="5110" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5111" max="5111" width="13.109375" style="18" customWidth="1"/>
+    <col min="5112" max="5112" width="8.88671875" style="18"/>
+    <col min="5113" max="5113" width="14.5546875" style="18" customWidth="1"/>
+    <col min="5114" max="5114" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5115" max="5115" width="8.88671875" style="18" customWidth="1"/>
+    <col min="5116" max="5116" width="19.109375" style="18" customWidth="1"/>
+    <col min="5117" max="5117" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5118" max="5118" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5119" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="10.33203125" style="18" customWidth="1"/>
+    <col min="5121" max="5121" width="8" style="18" customWidth="1"/>
+    <col min="5122" max="5123" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5124" max="5124" width="6.5546875" style="18" customWidth="1"/>
+    <col min="5125" max="5125" width="10.109375" style="18" customWidth="1"/>
+    <col min="5126" max="5126" width="7.5546875" style="18" customWidth="1"/>
+    <col min="5127" max="5365" width="8.88671875" style="18"/>
+    <col min="5366" max="5366" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5367" max="5367" width="13.109375" style="18" customWidth="1"/>
+    <col min="5368" max="5368" width="8.88671875" style="18"/>
+    <col min="5369" max="5369" width="14.5546875" style="18" customWidth="1"/>
+    <col min="5370" max="5370" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5371" max="5371" width="8.88671875" style="18" customWidth="1"/>
+    <col min="5372" max="5372" width="19.109375" style="18" customWidth="1"/>
+    <col min="5373" max="5373" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5374" max="5374" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5375" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="10.33203125" style="18" customWidth="1"/>
+    <col min="5377" max="5377" width="8" style="18" customWidth="1"/>
+    <col min="5378" max="5379" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5380" max="5380" width="6.5546875" style="18" customWidth="1"/>
+    <col min="5381" max="5381" width="10.109375" style="18" customWidth="1"/>
+    <col min="5382" max="5382" width="7.5546875" style="18" customWidth="1"/>
+    <col min="5383" max="5621" width="8.88671875" style="18"/>
+    <col min="5622" max="5622" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5623" max="5623" width="13.109375" style="18" customWidth="1"/>
+    <col min="5624" max="5624" width="8.88671875" style="18"/>
+    <col min="5625" max="5625" width="14.5546875" style="18" customWidth="1"/>
+    <col min="5626" max="5626" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5627" max="5627" width="8.88671875" style="18" customWidth="1"/>
+    <col min="5628" max="5628" width="19.109375" style="18" customWidth="1"/>
+    <col min="5629" max="5629" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5630" max="5630" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5631" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="10.33203125" style="18" customWidth="1"/>
+    <col min="5633" max="5633" width="8" style="18" customWidth="1"/>
+    <col min="5634" max="5635" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5636" max="5636" width="6.5546875" style="18" customWidth="1"/>
+    <col min="5637" max="5637" width="10.109375" style="18" customWidth="1"/>
+    <col min="5638" max="5638" width="7.5546875" style="18" customWidth="1"/>
+    <col min="5639" max="5877" width="8.88671875" style="18"/>
+    <col min="5878" max="5878" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5879" max="5879" width="13.109375" style="18" customWidth="1"/>
+    <col min="5880" max="5880" width="8.88671875" style="18"/>
+    <col min="5881" max="5881" width="14.5546875" style="18" customWidth="1"/>
+    <col min="5882" max="5882" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5883" max="5883" width="8.88671875" style="18" customWidth="1"/>
+    <col min="5884" max="5884" width="19.109375" style="18" customWidth="1"/>
+    <col min="5885" max="5885" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5886" max="5886" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5887" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="10.33203125" style="18" customWidth="1"/>
+    <col min="5889" max="5889" width="8" style="18" customWidth="1"/>
+    <col min="5890" max="5891" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5892" max="5892" width="6.5546875" style="18" customWidth="1"/>
+    <col min="5893" max="5893" width="10.109375" style="18" customWidth="1"/>
+    <col min="5894" max="5894" width="7.5546875" style="18" customWidth="1"/>
+    <col min="5895" max="6133" width="8.88671875" style="18"/>
+    <col min="6134" max="6134" width="20.5546875" style="18" customWidth="1"/>
+    <col min="6135" max="6135" width="13.109375" style="18" customWidth="1"/>
+    <col min="6136" max="6136" width="8.88671875" style="18"/>
+    <col min="6137" max="6137" width="14.5546875" style="18" customWidth="1"/>
+    <col min="6138" max="6138" width="14.44140625" style="18" customWidth="1"/>
+    <col min="6139" max="6139" width="8.88671875" style="18" customWidth="1"/>
+    <col min="6140" max="6140" width="19.109375" style="18" customWidth="1"/>
+    <col min="6141" max="6141" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6142" max="6142" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6143" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="10.33203125" style="18" customWidth="1"/>
+    <col min="6145" max="6145" width="8" style="18" customWidth="1"/>
+    <col min="6146" max="6147" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6148" max="6148" width="6.5546875" style="18" customWidth="1"/>
+    <col min="6149" max="6149" width="10.109375" style="18" customWidth="1"/>
+    <col min="6150" max="6150" width="7.5546875" style="18" customWidth="1"/>
+    <col min="6151" max="6389" width="8.88671875" style="18"/>
+    <col min="6390" max="6390" width="20.5546875" style="18" customWidth="1"/>
+    <col min="6391" max="6391" width="13.109375" style="18" customWidth="1"/>
+    <col min="6392" max="6392" width="8.88671875" style="18"/>
+    <col min="6393" max="6393" width="14.5546875" style="18" customWidth="1"/>
+    <col min="6394" max="6394" width="14.44140625" style="18" customWidth="1"/>
+    <col min="6395" max="6395" width="8.88671875" style="18" customWidth="1"/>
+    <col min="6396" max="6396" width="19.109375" style="18" customWidth="1"/>
+    <col min="6397" max="6397" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6398" max="6398" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6399" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="10.33203125" style="18" customWidth="1"/>
+    <col min="6401" max="6401" width="8" style="18" customWidth="1"/>
+    <col min="6402" max="6403" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6404" max="6404" width="6.5546875" style="18" customWidth="1"/>
+    <col min="6405" max="6405" width="10.109375" style="18" customWidth="1"/>
+    <col min="6406" max="6406" width="7.5546875" style="18" customWidth="1"/>
+    <col min="6407" max="6645" width="8.88671875" style="18"/>
+    <col min="6646" max="6646" width="20.5546875" style="18" customWidth="1"/>
+    <col min="6647" max="6647" width="13.109375" style="18" customWidth="1"/>
+    <col min="6648" max="6648" width="8.88671875" style="18"/>
+    <col min="6649" max="6649" width="14.5546875" style="18" customWidth="1"/>
+    <col min="6650" max="6650" width="14.44140625" style="18" customWidth="1"/>
+    <col min="6651" max="6651" width="8.88671875" style="18" customWidth="1"/>
+    <col min="6652" max="6652" width="19.109375" style="18" customWidth="1"/>
+    <col min="6653" max="6653" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6654" max="6654" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6655" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="10.33203125" style="18" customWidth="1"/>
+    <col min="6657" max="6657" width="8" style="18" customWidth="1"/>
+    <col min="6658" max="6659" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6660" max="6660" width="6.5546875" style="18" customWidth="1"/>
+    <col min="6661" max="6661" width="10.109375" style="18" customWidth="1"/>
+    <col min="6662" max="6662" width="7.5546875" style="18" customWidth="1"/>
+    <col min="6663" max="6901" width="8.88671875" style="18"/>
+    <col min="6902" max="6902" width="20.5546875" style="18" customWidth="1"/>
+    <col min="6903" max="6903" width="13.109375" style="18" customWidth="1"/>
+    <col min="6904" max="6904" width="8.88671875" style="18"/>
+    <col min="6905" max="6905" width="14.5546875" style="18" customWidth="1"/>
+    <col min="6906" max="6906" width="14.44140625" style="18" customWidth="1"/>
+    <col min="6907" max="6907" width="8.88671875" style="18" customWidth="1"/>
+    <col min="6908" max="6908" width="19.109375" style="18" customWidth="1"/>
+    <col min="6909" max="6909" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6910" max="6910" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6911" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="10.33203125" style="18" customWidth="1"/>
+    <col min="6913" max="6913" width="8" style="18" customWidth="1"/>
+    <col min="6914" max="6915" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6916" max="6916" width="6.5546875" style="18" customWidth="1"/>
+    <col min="6917" max="6917" width="10.109375" style="18" customWidth="1"/>
+    <col min="6918" max="6918" width="7.5546875" style="18" customWidth="1"/>
+    <col min="6919" max="7157" width="8.88671875" style="18"/>
+    <col min="7158" max="7158" width="20.5546875" style="18" customWidth="1"/>
+    <col min="7159" max="7159" width="13.109375" style="18" customWidth="1"/>
+    <col min="7160" max="7160" width="8.88671875" style="18"/>
+    <col min="7161" max="7161" width="14.5546875" style="18" customWidth="1"/>
+    <col min="7162" max="7162" width="14.44140625" style="18" customWidth="1"/>
+    <col min="7163" max="7163" width="8.88671875" style="18" customWidth="1"/>
+    <col min="7164" max="7164" width="19.109375" style="18" customWidth="1"/>
+    <col min="7165" max="7165" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7166" max="7166" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7167" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="10.33203125" style="18" customWidth="1"/>
+    <col min="7169" max="7169" width="8" style="18" customWidth="1"/>
+    <col min="7170" max="7171" width="14.33203125" style="18" customWidth="1"/>
+    <col min="7172" max="7172" width="6.5546875" style="18" customWidth="1"/>
+    <col min="7173" max="7173" width="10.109375" style="18" customWidth="1"/>
+    <col min="7174" max="7174" width="7.5546875" style="18" customWidth="1"/>
+    <col min="7175" max="7413" width="8.88671875" style="18"/>
+    <col min="7414" max="7414" width="20.5546875" style="18" customWidth="1"/>
+    <col min="7415" max="7415" width="13.109375" style="18" customWidth="1"/>
+    <col min="7416" max="7416" width="8.88671875" style="18"/>
+    <col min="7417" max="7417" width="14.5546875" style="18" customWidth="1"/>
+    <col min="7418" max="7418" width="14.44140625" style="18" customWidth="1"/>
+    <col min="7419" max="7419" width="8.88671875" style="18" customWidth="1"/>
+    <col min="7420" max="7420" width="19.109375" style="18" customWidth="1"/>
+    <col min="7421" max="7421" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7422" max="7422" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7423" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="10.33203125" style="18" customWidth="1"/>
+    <col min="7425" max="7425" width="8" style="18" customWidth="1"/>
+    <col min="7426" max="7427" width="14.33203125" style="18" customWidth="1"/>
+    <col min="7428" max="7428" width="6.5546875" style="18" customWidth="1"/>
+    <col min="7429" max="7429" width="10.109375" style="18" customWidth="1"/>
+    <col min="7430" max="7430" width="7.5546875" style="18" customWidth="1"/>
+    <col min="7431" max="7669" width="8.88671875" style="18"/>
+    <col min="7670" max="7670" width="20.5546875" style="18" customWidth="1"/>
+    <col min="7671" max="7671" width="13.109375" style="18" customWidth="1"/>
+    <col min="7672" max="7672" width="8.88671875" style="18"/>
+    <col min="7673" max="7673" width="14.5546875" style="18" customWidth="1"/>
+    <col min="7674" max="7674" width="14.44140625" style="18" customWidth="1"/>
+    <col min="7675" max="7675" width="8.88671875" style="18" customWidth="1"/>
+    <col min="7676" max="7676" width="19.109375" style="18" customWidth="1"/>
+    <col min="7677" max="7677" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7678" max="7678" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7679" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="10.33203125" style="18" customWidth="1"/>
+    <col min="7681" max="7681" width="8" style="18" customWidth="1"/>
+    <col min="7682" max="7683" width="14.33203125" style="18" customWidth="1"/>
+    <col min="7684" max="7684" width="6.5546875" style="18" customWidth="1"/>
+    <col min="7685" max="7685" width="10.109375" style="18" customWidth="1"/>
+    <col min="7686" max="7686" width="7.5546875" style="18" customWidth="1"/>
+    <col min="7687" max="7925" width="8.88671875" style="18"/>
+    <col min="7926" max="7926" width="20.5546875" style="18" customWidth="1"/>
+    <col min="7927" max="7927" width="13.109375" style="18" customWidth="1"/>
+    <col min="7928" max="7928" width="8.88671875" style="18"/>
+    <col min="7929" max="7929" width="14.5546875" style="18" customWidth="1"/>
+    <col min="7930" max="7930" width="14.44140625" style="18" customWidth="1"/>
+    <col min="7931" max="7931" width="8.88671875" style="18" customWidth="1"/>
+    <col min="7932" max="7932" width="19.109375" style="18" customWidth="1"/>
+    <col min="7933" max="7933" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7934" max="7934" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7935" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="10.33203125" style="18" customWidth="1"/>
+    <col min="7937" max="7937" width="8" style="18" customWidth="1"/>
+    <col min="7938" max="7939" width="14.33203125" style="18" customWidth="1"/>
+    <col min="7940" max="7940" width="6.5546875" style="18" customWidth="1"/>
+    <col min="7941" max="7941" width="10.109375" style="18" customWidth="1"/>
+    <col min="7942" max="7942" width="7.5546875" style="18" customWidth="1"/>
+    <col min="7943" max="8181" width="8.88671875" style="18"/>
+    <col min="8182" max="8182" width="20.5546875" style="18" customWidth="1"/>
+    <col min="8183" max="8183" width="13.109375" style="18" customWidth="1"/>
+    <col min="8184" max="8184" width="8.88671875" style="18"/>
+    <col min="8185" max="8185" width="14.5546875" style="18" customWidth="1"/>
+    <col min="8186" max="8186" width="14.44140625" style="18" customWidth="1"/>
+    <col min="8187" max="8187" width="8.88671875" style="18" customWidth="1"/>
+    <col min="8188" max="8188" width="19.109375" style="18" customWidth="1"/>
+    <col min="8189" max="8189" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8190" max="8190" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8191" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="10.33203125" style="18" customWidth="1"/>
+    <col min="8193" max="8193" width="8" style="18" customWidth="1"/>
+    <col min="8194" max="8195" width="14.33203125" style="18" customWidth="1"/>
+    <col min="8196" max="8196" width="6.5546875" style="18" customWidth="1"/>
+    <col min="8197" max="8197" width="10.109375" style="18" customWidth="1"/>
+    <col min="8198" max="8198" width="7.5546875" style="18" customWidth="1"/>
+    <col min="8199" max="8437" width="8.88671875" style="18"/>
+    <col min="8438" max="8438" width="20.5546875" style="18" customWidth="1"/>
+    <col min="8439" max="8439" width="13.109375" style="18" customWidth="1"/>
+    <col min="8440" max="8440" width="8.88671875" style="18"/>
+    <col min="8441" max="8441" width="14.5546875" style="18" customWidth="1"/>
+    <col min="8442" max="8442" width="14.44140625" style="18" customWidth="1"/>
+    <col min="8443" max="8443" width="8.88671875" style="18" customWidth="1"/>
+    <col min="8444" max="8444" width="19.109375" style="18" customWidth="1"/>
+    <col min="8445" max="8445" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8446" max="8446" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8447" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="10.33203125" style="18" customWidth="1"/>
+    <col min="8449" max="8449" width="8" style="18" customWidth="1"/>
+    <col min="8450" max="8451" width="14.33203125" style="18" customWidth="1"/>
+    <col min="8452" max="8452" width="6.5546875" style="18" customWidth="1"/>
+    <col min="8453" max="8453" width="10.109375" style="18" customWidth="1"/>
+    <col min="8454" max="8454" width="7.5546875" style="18" customWidth="1"/>
+    <col min="8455" max="8693" width="8.88671875" style="18"/>
+    <col min="8694" max="8694" width="20.5546875" style="18" customWidth="1"/>
+    <col min="8695" max="8695" width="13.109375" style="18" customWidth="1"/>
+    <col min="8696" max="8696" width="8.88671875" style="18"/>
+    <col min="8697" max="8697" width="14.5546875" style="18" customWidth="1"/>
+    <col min="8698" max="8698" width="14.44140625" style="18" customWidth="1"/>
+    <col min="8699" max="8699" width="8.88671875" style="18" customWidth="1"/>
+    <col min="8700" max="8700" width="19.109375" style="18" customWidth="1"/>
+    <col min="8701" max="8701" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8702" max="8702" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8703" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="10.33203125" style="18" customWidth="1"/>
+    <col min="8705" max="8705" width="8" style="18" customWidth="1"/>
+    <col min="8706" max="8707" width="14.33203125" style="18" customWidth="1"/>
+    <col min="8708" max="8708" width="6.5546875" style="18" customWidth="1"/>
+    <col min="8709" max="8709" width="10.109375" style="18" customWidth="1"/>
+    <col min="8710" max="8710" width="7.5546875" style="18" customWidth="1"/>
+    <col min="8711" max="8949" width="8.88671875" style="18"/>
+    <col min="8950" max="8950" width="20.5546875" style="18" customWidth="1"/>
+    <col min="8951" max="8951" width="13.109375" style="18" customWidth="1"/>
+    <col min="8952" max="8952" width="8.88671875" style="18"/>
+    <col min="8953" max="8953" width="14.5546875" style="18" customWidth="1"/>
+    <col min="8954" max="8954" width="14.44140625" style="18" customWidth="1"/>
+    <col min="8955" max="8955" width="8.88671875" style="18" customWidth="1"/>
+    <col min="8956" max="8956" width="19.109375" style="18" customWidth="1"/>
+    <col min="8957" max="8957" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8958" max="8958" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8959" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="10.33203125" style="18" customWidth="1"/>
+    <col min="8961" max="8961" width="8" style="18" customWidth="1"/>
+    <col min="8962" max="8963" width="14.33203125" style="18" customWidth="1"/>
+    <col min="8964" max="8964" width="6.5546875" style="18" customWidth="1"/>
+    <col min="8965" max="8965" width="10.109375" style="18" customWidth="1"/>
+    <col min="8966" max="8966" width="7.5546875" style="18" customWidth="1"/>
+    <col min="8967" max="9205" width="8.88671875" style="18"/>
+    <col min="9206" max="9206" width="20.5546875" style="18" customWidth="1"/>
+    <col min="9207" max="9207" width="13.109375" style="18" customWidth="1"/>
+    <col min="9208" max="9208" width="8.88671875" style="18"/>
+    <col min="9209" max="9209" width="14.5546875" style="18" customWidth="1"/>
+    <col min="9210" max="9210" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9211" max="9211" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9212" max="9212" width="19.109375" style="18" customWidth="1"/>
+    <col min="9213" max="9213" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9214" max="9214" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9215" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="10.33203125" style="18" customWidth="1"/>
+    <col min="9217" max="9217" width="8" style="18" customWidth="1"/>
+    <col min="9218" max="9219" width="14.33203125" style="18" customWidth="1"/>
+    <col min="9220" max="9220" width="6.5546875" style="18" customWidth="1"/>
+    <col min="9221" max="9221" width="10.109375" style="18" customWidth="1"/>
+    <col min="9222" max="9222" width="7.5546875" style="18" customWidth="1"/>
+    <col min="9223" max="9461" width="8.88671875" style="18"/>
+    <col min="9462" max="9462" width="20.5546875" style="18" customWidth="1"/>
+    <col min="9463" max="9463" width="13.109375" style="18" customWidth="1"/>
+    <col min="9464" max="9464" width="8.88671875" style="18"/>
+    <col min="9465" max="9465" width="14.5546875" style="18" customWidth="1"/>
+    <col min="9466" max="9466" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9467" max="9467" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9468" max="9468" width="19.109375" style="18" customWidth="1"/>
+    <col min="9469" max="9469" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9470" max="9470" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9471" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="10.33203125" style="18" customWidth="1"/>
+    <col min="9473" max="9473" width="8" style="18" customWidth="1"/>
+    <col min="9474" max="9475" width="14.33203125" style="18" customWidth="1"/>
+    <col min="9476" max="9476" width="6.5546875" style="18" customWidth="1"/>
+    <col min="9477" max="9477" width="10.109375" style="18" customWidth="1"/>
+    <col min="9478" max="9478" width="7.5546875" style="18" customWidth="1"/>
+    <col min="9479" max="9717" width="8.88671875" style="18"/>
+    <col min="9718" max="9718" width="20.5546875" style="18" customWidth="1"/>
+    <col min="9719" max="9719" width="13.109375" style="18" customWidth="1"/>
+    <col min="9720" max="9720" width="8.88671875" style="18"/>
+    <col min="9721" max="9721" width="14.5546875" style="18" customWidth="1"/>
+    <col min="9722" max="9722" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9723" max="9723" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9724" max="9724" width="19.109375" style="18" customWidth="1"/>
+    <col min="9725" max="9725" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9726" max="9726" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9727" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="10.33203125" style="18" customWidth="1"/>
+    <col min="9729" max="9729" width="8" style="18" customWidth="1"/>
+    <col min="9730" max="9731" width="14.33203125" style="18" customWidth="1"/>
+    <col min="9732" max="9732" width="6.5546875" style="18" customWidth="1"/>
+    <col min="9733" max="9733" width="10.109375" style="18" customWidth="1"/>
+    <col min="9734" max="9734" width="7.5546875" style="18" customWidth="1"/>
+    <col min="9735" max="9973" width="8.88671875" style="18"/>
+    <col min="9974" max="9974" width="20.5546875" style="18" customWidth="1"/>
+    <col min="9975" max="9975" width="13.109375" style="18" customWidth="1"/>
+    <col min="9976" max="9976" width="8.88671875" style="18"/>
+    <col min="9977" max="9977" width="14.5546875" style="18" customWidth="1"/>
+    <col min="9978" max="9978" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9979" max="9979" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9980" max="9980" width="19.109375" style="18" customWidth="1"/>
+    <col min="9981" max="9981" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9982" max="9982" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9983" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="10.33203125" style="18" customWidth="1"/>
+    <col min="9985" max="9985" width="8" style="18" customWidth="1"/>
+    <col min="9986" max="9987" width="14.33203125" style="18" customWidth="1"/>
+    <col min="9988" max="9988" width="6.5546875" style="18" customWidth="1"/>
+    <col min="9989" max="9989" width="10.109375" style="18" customWidth="1"/>
+    <col min="9990" max="9990" width="7.5546875" style="18" customWidth="1"/>
+    <col min="9991" max="10229" width="8.88671875" style="18"/>
+    <col min="10230" max="10230" width="20.5546875" style="18" customWidth="1"/>
+    <col min="10231" max="10231" width="13.109375" style="18" customWidth="1"/>
+    <col min="10232" max="10232" width="8.88671875" style="18"/>
+    <col min="10233" max="10233" width="14.5546875" style="18" customWidth="1"/>
+    <col min="10234" max="10234" width="14.44140625" style="18" customWidth="1"/>
+    <col min="10235" max="10235" width="8.88671875" style="18" customWidth="1"/>
+    <col min="10236" max="10236" width="19.109375" style="18" customWidth="1"/>
+    <col min="10237" max="10237" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10238" max="10238" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10239" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="10.33203125" style="18" customWidth="1"/>
+    <col min="10241" max="10241" width="8" style="18" customWidth="1"/>
+    <col min="10242" max="10243" width="14.33203125" style="18" customWidth="1"/>
+    <col min="10244" max="10244" width="6.5546875" style="18" customWidth="1"/>
+    <col min="10245" max="10245" width="10.109375" style="18" customWidth="1"/>
+    <col min="10246" max="10246" width="7.5546875" style="18" customWidth="1"/>
+    <col min="10247" max="10485" width="8.88671875" style="18"/>
+    <col min="10486" max="10486" width="20.5546875" style="18" customWidth="1"/>
+    <col min="10487" max="10487" width="13.109375" style="18" customWidth="1"/>
+    <col min="10488" max="10488" width="8.88671875" style="18"/>
+    <col min="10489" max="10489" width="14.5546875" style="18" customWidth="1"/>
+    <col min="10490" max="10490" width="14.44140625" style="18" customWidth="1"/>
+    <col min="10491" max="10491" width="8.88671875" style="18" customWidth="1"/>
+    <col min="10492" max="10492" width="19.109375" style="18" customWidth="1"/>
+    <col min="10493" max="10493" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10494" max="10494" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10495" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="10.33203125" style="18" customWidth="1"/>
+    <col min="10497" max="10497" width="8" style="18" customWidth="1"/>
+    <col min="10498" max="10499" width="14.33203125" style="18" customWidth="1"/>
+    <col min="10500" max="10500" width="6.5546875" style="18" customWidth="1"/>
+    <col min="10501" max="10501" width="10.109375" style="18" customWidth="1"/>
+    <col min="10502" max="10502" width="7.5546875" style="18" customWidth="1"/>
+    <col min="10503" max="10741" width="8.88671875" style="18"/>
+    <col min="10742" max="10742" width="20.5546875" style="18" customWidth="1"/>
+    <col min="10743" max="10743" width="13.109375" style="18" customWidth="1"/>
+    <col min="10744" max="10744" width="8.88671875" style="18"/>
+    <col min="10745" max="10745" width="14.5546875" style="18" customWidth="1"/>
+    <col min="10746" max="10746" width="14.44140625" style="18" customWidth="1"/>
+    <col min="10747" max="10747" width="8.88671875" style="18" customWidth="1"/>
+    <col min="10748" max="10748" width="19.109375" style="18" customWidth="1"/>
+    <col min="10749" max="10749" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10750" max="10750" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10751" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="10.33203125" style="18" customWidth="1"/>
+    <col min="10753" max="10753" width="8" style="18" customWidth="1"/>
+    <col min="10754" max="10755" width="14.33203125" style="18" customWidth="1"/>
+    <col min="10756" max="10756" width="6.5546875" style="18" customWidth="1"/>
+    <col min="10757" max="10757" width="10.109375" style="18" customWidth="1"/>
+    <col min="10758" max="10758" width="7.5546875" style="18" customWidth="1"/>
+    <col min="10759" max="10997" width="8.88671875" style="18"/>
+    <col min="10998" max="10998" width="20.5546875" style="18" customWidth="1"/>
+    <col min="10999" max="10999" width="13.109375" style="18" customWidth="1"/>
+    <col min="11000" max="11000" width="8.88671875" style="18"/>
+    <col min="11001" max="11001" width="14.5546875" style="18" customWidth="1"/>
+    <col min="11002" max="11002" width="14.44140625" style="18" customWidth="1"/>
+    <col min="11003" max="11003" width="8.88671875" style="18" customWidth="1"/>
+    <col min="11004" max="11004" width="19.109375" style="18" customWidth="1"/>
+    <col min="11005" max="11005" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11006" max="11006" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11007" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="10.33203125" style="18" customWidth="1"/>
+    <col min="11009" max="11009" width="8" style="18" customWidth="1"/>
+    <col min="11010" max="11011" width="14.33203125" style="18" customWidth="1"/>
+    <col min="11012" max="11012" width="6.5546875" style="18" customWidth="1"/>
+    <col min="11013" max="11013" width="10.109375" style="18" customWidth="1"/>
+    <col min="11014" max="11014" width="7.5546875" style="18" customWidth="1"/>
+    <col min="11015" max="11253" width="8.88671875" style="18"/>
+    <col min="11254" max="11254" width="20.5546875" style="18" customWidth="1"/>
+    <col min="11255" max="11255" width="13.109375" style="18" customWidth="1"/>
+    <col min="11256" max="11256" width="8.88671875" style="18"/>
+    <col min="11257" max="11257" width="14.5546875" style="18" customWidth="1"/>
+    <col min="11258" max="11258" width="14.44140625" style="18" customWidth="1"/>
+    <col min="11259" max="11259" width="8.88671875" style="18" customWidth="1"/>
+    <col min="11260" max="11260" width="19.109375" style="18" customWidth="1"/>
+    <col min="11261" max="11261" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11262" max="11262" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11263" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="10.33203125" style="18" customWidth="1"/>
+    <col min="11265" max="11265" width="8" style="18" customWidth="1"/>
+    <col min="11266" max="11267" width="14.33203125" style="18" customWidth="1"/>
+    <col min="11268" max="11268" width="6.5546875" style="18" customWidth="1"/>
+    <col min="11269" max="11269" width="10.109375" style="18" customWidth="1"/>
+    <col min="11270" max="11270" width="7.5546875" style="18" customWidth="1"/>
+    <col min="11271" max="11509" width="8.88671875" style="18"/>
+    <col min="11510" max="11510" width="20.5546875" style="18" customWidth="1"/>
+    <col min="11511" max="11511" width="13.109375" style="18" customWidth="1"/>
+    <col min="11512" max="11512" width="8.88671875" style="18"/>
+    <col min="11513" max="11513" width="14.5546875" style="18" customWidth="1"/>
+    <col min="11514" max="11514" width="14.44140625" style="18" customWidth="1"/>
+    <col min="11515" max="11515" width="8.88671875" style="18" customWidth="1"/>
+    <col min="11516" max="11516" width="19.109375" style="18" customWidth="1"/>
+    <col min="11517" max="11517" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11518" max="11518" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11519" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="10.33203125" style="18" customWidth="1"/>
+    <col min="11521" max="11521" width="8" style="18" customWidth="1"/>
+    <col min="11522" max="11523" width="14.33203125" style="18" customWidth="1"/>
+    <col min="11524" max="11524" width="6.5546875" style="18" customWidth="1"/>
+    <col min="11525" max="11525" width="10.109375" style="18" customWidth="1"/>
+    <col min="11526" max="11526" width="7.5546875" style="18" customWidth="1"/>
+    <col min="11527" max="11765" width="8.88671875" style="18"/>
+    <col min="11766" max="11766" width="20.5546875" style="18" customWidth="1"/>
+    <col min="11767" max="11767" width="13.109375" style="18" customWidth="1"/>
+    <col min="11768" max="11768" width="8.88671875" style="18"/>
+    <col min="11769" max="11769" width="14.5546875" style="18" customWidth="1"/>
+    <col min="11770" max="11770" width="14.44140625" style="18" customWidth="1"/>
+    <col min="11771" max="11771" width="8.88671875" style="18" customWidth="1"/>
+    <col min="11772" max="11772" width="19.109375" style="18" customWidth="1"/>
+    <col min="11773" max="11773" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11774" max="11774" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11775" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="10.33203125" style="18" customWidth="1"/>
+    <col min="11777" max="11777" width="8" style="18" customWidth="1"/>
+    <col min="11778" max="11779" width="14.33203125" style="18" customWidth="1"/>
+    <col min="11780" max="11780" width="6.5546875" style="18" customWidth="1"/>
+    <col min="11781" max="11781" width="10.109375" style="18" customWidth="1"/>
+    <col min="11782" max="11782" width="7.5546875" style="18" customWidth="1"/>
+    <col min="11783" max="12021" width="8.88671875" style="18"/>
+    <col min="12022" max="12022" width="20.5546875" style="18" customWidth="1"/>
+    <col min="12023" max="12023" width="13.109375" style="18" customWidth="1"/>
+    <col min="12024" max="12024" width="8.88671875" style="18"/>
+    <col min="12025" max="12025" width="14.5546875" style="18" customWidth="1"/>
+    <col min="12026" max="12026" width="14.44140625" style="18" customWidth="1"/>
+    <col min="12027" max="12027" width="8.88671875" style="18" customWidth="1"/>
+    <col min="12028" max="12028" width="19.109375" style="18" customWidth="1"/>
+    <col min="12029" max="12029" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12030" max="12030" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12031" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="10.33203125" style="18" customWidth="1"/>
+    <col min="12033" max="12033" width="8" style="18" customWidth="1"/>
+    <col min="12034" max="12035" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12036" max="12036" width="6.5546875" style="18" customWidth="1"/>
+    <col min="12037" max="12037" width="10.109375" style="18" customWidth="1"/>
+    <col min="12038" max="12038" width="7.5546875" style="18" customWidth="1"/>
+    <col min="12039" max="12277" width="8.88671875" style="18"/>
+    <col min="12278" max="12278" width="20.5546875" style="18" customWidth="1"/>
+    <col min="12279" max="12279" width="13.109375" style="18" customWidth="1"/>
+    <col min="12280" max="12280" width="8.88671875" style="18"/>
+    <col min="12281" max="12281" width="14.5546875" style="18" customWidth="1"/>
+    <col min="12282" max="12282" width="14.44140625" style="18" customWidth="1"/>
+    <col min="12283" max="12283" width="8.88671875" style="18" customWidth="1"/>
+    <col min="12284" max="12284" width="19.109375" style="18" customWidth="1"/>
+    <col min="12285" max="12285" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12286" max="12286" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12287" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="10.33203125" style="18" customWidth="1"/>
+    <col min="12289" max="12289" width="8" style="18" customWidth="1"/>
+    <col min="12290" max="12291" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12292" max="12292" width="6.5546875" style="18" customWidth="1"/>
+    <col min="12293" max="12293" width="10.109375" style="18" customWidth="1"/>
+    <col min="12294" max="12294" width="7.5546875" style="18" customWidth="1"/>
+    <col min="12295" max="12533" width="8.88671875" style="18"/>
+    <col min="12534" max="12534" width="20.5546875" style="18" customWidth="1"/>
+    <col min="12535" max="12535" width="13.109375" style="18" customWidth="1"/>
+    <col min="12536" max="12536" width="8.88671875" style="18"/>
+    <col min="12537" max="12537" width="14.5546875" style="18" customWidth="1"/>
+    <col min="12538" max="12538" width="14.44140625" style="18" customWidth="1"/>
+    <col min="12539" max="12539" width="8.88671875" style="18" customWidth="1"/>
+    <col min="12540" max="12540" width="19.109375" style="18" customWidth="1"/>
+    <col min="12541" max="12541" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12542" max="12542" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12543" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="10.33203125" style="18" customWidth="1"/>
+    <col min="12545" max="12545" width="8" style="18" customWidth="1"/>
+    <col min="12546" max="12547" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12548" max="12548" width="6.5546875" style="18" customWidth="1"/>
+    <col min="12549" max="12549" width="10.109375" style="18" customWidth="1"/>
+    <col min="12550" max="12550" width="7.5546875" style="18" customWidth="1"/>
+    <col min="12551" max="12789" width="8.88671875" style="18"/>
+    <col min="12790" max="12790" width="20.5546875" style="18" customWidth="1"/>
+    <col min="12791" max="12791" width="13.109375" style="18" customWidth="1"/>
+    <col min="12792" max="12792" width="8.88671875" style="18"/>
+    <col min="12793" max="12793" width="14.5546875" style="18" customWidth="1"/>
+    <col min="12794" max="12794" width="14.44140625" style="18" customWidth="1"/>
+    <col min="12795" max="12795" width="8.88671875" style="18" customWidth="1"/>
+    <col min="12796" max="12796" width="19.109375" style="18" customWidth="1"/>
+    <col min="12797" max="12797" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12798" max="12798" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12799" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="10.33203125" style="18" customWidth="1"/>
+    <col min="12801" max="12801" width="8" style="18" customWidth="1"/>
+    <col min="12802" max="12803" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12804" max="12804" width="6.5546875" style="18" customWidth="1"/>
+    <col min="12805" max="12805" width="10.109375" style="18" customWidth="1"/>
+    <col min="12806" max="12806" width="7.5546875" style="18" customWidth="1"/>
+    <col min="12807" max="13045" width="8.88671875" style="18"/>
+    <col min="13046" max="13046" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13047" max="13047" width="13.109375" style="18" customWidth="1"/>
+    <col min="13048" max="13048" width="8.88671875" style="18"/>
+    <col min="13049" max="13049" width="14.5546875" style="18" customWidth="1"/>
+    <col min="13050" max="13050" width="14.44140625" style="18" customWidth="1"/>
+    <col min="13051" max="13051" width="8.88671875" style="18" customWidth="1"/>
+    <col min="13052" max="13052" width="19.109375" style="18" customWidth="1"/>
+    <col min="13053" max="13053" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13054" max="13054" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13055" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="10.33203125" style="18" customWidth="1"/>
+    <col min="13057" max="13057" width="8" style="18" customWidth="1"/>
+    <col min="13058" max="13059" width="14.33203125" style="18" customWidth="1"/>
+    <col min="13060" max="13060" width="6.5546875" style="18" customWidth="1"/>
+    <col min="13061" max="13061" width="10.109375" style="18" customWidth="1"/>
+    <col min="13062" max="13062" width="7.5546875" style="18" customWidth="1"/>
+    <col min="13063" max="13301" width="8.88671875" style="18"/>
+    <col min="13302" max="13302" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13303" max="13303" width="13.109375" style="18" customWidth="1"/>
+    <col min="13304" max="13304" width="8.88671875" style="18"/>
+    <col min="13305" max="13305" width="14.5546875" style="18" customWidth="1"/>
+    <col min="13306" max="13306" width="14.44140625" style="18" customWidth="1"/>
+    <col min="13307" max="13307" width="8.88671875" style="18" customWidth="1"/>
+    <col min="13308" max="13308" width="19.109375" style="18" customWidth="1"/>
+    <col min="13309" max="13309" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13310" max="13310" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13311" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="10.33203125" style="18" customWidth="1"/>
+    <col min="13313" max="13313" width="8" style="18" customWidth="1"/>
+    <col min="13314" max="13315" width="14.33203125" style="18" customWidth="1"/>
+    <col min="13316" max="13316" width="6.5546875" style="18" customWidth="1"/>
+    <col min="13317" max="13317" width="10.109375" style="18" customWidth="1"/>
+    <col min="13318" max="13318" width="7.5546875" style="18" customWidth="1"/>
+    <col min="13319" max="13557" width="8.88671875" style="18"/>
+    <col min="13558" max="13558" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13559" max="13559" width="13.109375" style="18" customWidth="1"/>
+    <col min="13560" max="13560" width="8.88671875" style="18"/>
+    <col min="13561" max="13561" width="14.5546875" style="18" customWidth="1"/>
+    <col min="13562" max="13562" width="14.44140625" style="18" customWidth="1"/>
+    <col min="13563" max="13563" width="8.88671875" style="18" customWidth="1"/>
+    <col min="13564" max="13564" width="19.109375" style="18" customWidth="1"/>
+    <col min="13565" max="13565" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13566" max="13566" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13567" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="10.33203125" style="18" customWidth="1"/>
+    <col min="13569" max="13569" width="8" style="18" customWidth="1"/>
+    <col min="13570" max="13571" width="14.33203125" style="18" customWidth="1"/>
+    <col min="13572" max="13572" width="6.5546875" style="18" customWidth="1"/>
+    <col min="13573" max="13573" width="10.109375" style="18" customWidth="1"/>
+    <col min="13574" max="13574" width="7.5546875" style="18" customWidth="1"/>
+    <col min="13575" max="13813" width="8.88671875" style="18"/>
+    <col min="13814" max="13814" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13815" max="13815" width="13.109375" style="18" customWidth="1"/>
+    <col min="13816" max="13816" width="8.88671875" style="18"/>
+    <col min="13817" max="13817" width="14.5546875" style="18" customWidth="1"/>
+    <col min="13818" max="13818" width="14.44140625" style="18" customWidth="1"/>
+    <col min="13819" max="13819" width="8.88671875" style="18" customWidth="1"/>
+    <col min="13820" max="13820" width="19.109375" style="18" customWidth="1"/>
+    <col min="13821" max="13821" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13822" max="13822" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13823" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="10.33203125" style="18" customWidth="1"/>
+    <col min="13825" max="13825" width="8" style="18" customWidth="1"/>
+    <col min="13826" max="13827" width="14.33203125" style="18" customWidth="1"/>
+    <col min="13828" max="13828" width="6.5546875" style="18" customWidth="1"/>
+    <col min="13829" max="13829" width="10.109375" style="18" customWidth="1"/>
+    <col min="13830" max="13830" width="7.5546875" style="18" customWidth="1"/>
+    <col min="13831" max="14069" width="8.88671875" style="18"/>
+    <col min="14070" max="14070" width="20.5546875" style="18" customWidth="1"/>
+    <col min="14071" max="14071" width="13.109375" style="18" customWidth="1"/>
+    <col min="14072" max="14072" width="8.88671875" style="18"/>
+    <col min="14073" max="14073" width="14.5546875" style="18" customWidth="1"/>
+    <col min="14074" max="14074" width="14.44140625" style="18" customWidth="1"/>
+    <col min="14075" max="14075" width="8.88671875" style="18" customWidth="1"/>
+    <col min="14076" max="14076" width="19.109375" style="18" customWidth="1"/>
+    <col min="14077" max="14077" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14078" max="14078" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14079" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="10.33203125" style="18" customWidth="1"/>
+    <col min="14081" max="14081" width="8" style="18" customWidth="1"/>
+    <col min="14082" max="14083" width="14.33203125" style="18" customWidth="1"/>
+    <col min="14084" max="14084" width="6.5546875" style="18" customWidth="1"/>
+    <col min="14085" max="14085" width="10.109375" style="18" customWidth="1"/>
+    <col min="14086" max="14086" width="7.5546875" style="18" customWidth="1"/>
+    <col min="14087" max="14325" width="8.88671875" style="18"/>
+    <col min="14326" max="14326" width="20.5546875" style="18" customWidth="1"/>
+    <col min="14327" max="14327" width="13.109375" style="18" customWidth="1"/>
+    <col min="14328" max="14328" width="8.88671875" style="18"/>
+    <col min="14329" max="14329" width="14.5546875" style="18" customWidth="1"/>
+    <col min="14330" max="14330" width="14.44140625" style="18" customWidth="1"/>
+    <col min="14331" max="14331" width="8.88671875" style="18" customWidth="1"/>
+    <col min="14332" max="14332" width="19.109375" style="18" customWidth="1"/>
+    <col min="14333" max="14333" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14334" max="14334" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14335" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="10.33203125" style="18" customWidth="1"/>
+    <col min="14337" max="14337" width="8" style="18" customWidth="1"/>
+    <col min="14338" max="14339" width="14.33203125" style="18" customWidth="1"/>
+    <col min="14340" max="14340" width="6.5546875" style="18" customWidth="1"/>
+    <col min="14341" max="14341" width="10.109375" style="18" customWidth="1"/>
+    <col min="14342" max="14342" width="7.5546875" style="18" customWidth="1"/>
+    <col min="14343" max="14581" width="8.88671875" style="18"/>
+    <col min="14582" max="14582" width="20.5546875" style="18" customWidth="1"/>
+    <col min="14583" max="14583" width="13.109375" style="18" customWidth="1"/>
+    <col min="14584" max="14584" width="8.88671875" style="18"/>
+    <col min="14585" max="14585" width="14.5546875" style="18" customWidth="1"/>
+    <col min="14586" max="14586" width="14.44140625" style="18" customWidth="1"/>
+    <col min="14587" max="14587" width="8.88671875" style="18" customWidth="1"/>
+    <col min="14588" max="14588" width="19.109375" style="18" customWidth="1"/>
+    <col min="14589" max="14589" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14590" max="14590" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14591" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="10.33203125" style="18" customWidth="1"/>
+    <col min="14593" max="14593" width="8" style="18" customWidth="1"/>
+    <col min="14594" max="14595" width="14.33203125" style="18" customWidth="1"/>
+    <col min="14596" max="14596" width="6.5546875" style="18" customWidth="1"/>
+    <col min="14597" max="14597" width="10.109375" style="18" customWidth="1"/>
+    <col min="14598" max="14598" width="7.5546875" style="18" customWidth="1"/>
+    <col min="14599" max="14837" width="8.88671875" style="18"/>
+    <col min="14838" max="14838" width="20.5546875" style="18" customWidth="1"/>
+    <col min="14839" max="14839" width="13.109375" style="18" customWidth="1"/>
+    <col min="14840" max="14840" width="8.88671875" style="18"/>
+    <col min="14841" max="14841" width="14.5546875" style="18" customWidth="1"/>
+    <col min="14842" max="14842" width="14.44140625" style="18" customWidth="1"/>
+    <col min="14843" max="14843" width="8.88671875" style="18" customWidth="1"/>
+    <col min="14844" max="14844" width="19.109375" style="18" customWidth="1"/>
+    <col min="14845" max="14845" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14846" max="14846" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14847" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="10.33203125" style="18" customWidth="1"/>
+    <col min="14849" max="14849" width="8" style="18" customWidth="1"/>
+    <col min="14850" max="14851" width="14.33203125" style="18" customWidth="1"/>
+    <col min="14852" max="14852" width="6.5546875" style="18" customWidth="1"/>
+    <col min="14853" max="14853" width="10.109375" style="18" customWidth="1"/>
+    <col min="14854" max="14854" width="7.5546875" style="18" customWidth="1"/>
+    <col min="14855" max="15093" width="8.88671875" style="18"/>
+    <col min="15094" max="15094" width="20.5546875" style="18" customWidth="1"/>
+    <col min="15095" max="15095" width="13.109375" style="18" customWidth="1"/>
+    <col min="15096" max="15096" width="8.88671875" style="18"/>
+    <col min="15097" max="15097" width="14.5546875" style="18" customWidth="1"/>
+    <col min="15098" max="15098" width="14.44140625" style="18" customWidth="1"/>
+    <col min="15099" max="15099" width="8.88671875" style="18" customWidth="1"/>
+    <col min="15100" max="15100" width="19.109375" style="18" customWidth="1"/>
+    <col min="15101" max="15101" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15102" max="15102" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15103" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="10.33203125" style="18" customWidth="1"/>
+    <col min="15105" max="15105" width="8" style="18" customWidth="1"/>
+    <col min="15106" max="15107" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15108" max="15108" width="6.5546875" style="18" customWidth="1"/>
+    <col min="15109" max="15109" width="10.109375" style="18" customWidth="1"/>
+    <col min="15110" max="15110" width="7.5546875" style="18" customWidth="1"/>
+    <col min="15111" max="15349" width="8.88671875" style="18"/>
+    <col min="15350" max="15350" width="20.5546875" style="18" customWidth="1"/>
+    <col min="15351" max="15351" width="13.109375" style="18" customWidth="1"/>
+    <col min="15352" max="15352" width="8.88671875" style="18"/>
+    <col min="15353" max="15353" width="14.5546875" style="18" customWidth="1"/>
+    <col min="15354" max="15354" width="14.44140625" style="18" customWidth="1"/>
+    <col min="15355" max="15355" width="8.88671875" style="18" customWidth="1"/>
+    <col min="15356" max="15356" width="19.109375" style="18" customWidth="1"/>
+    <col min="15357" max="15357" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15358" max="15358" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15359" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="10.33203125" style="18" customWidth="1"/>
+    <col min="15361" max="15361" width="8" style="18" customWidth="1"/>
+    <col min="15362" max="15363" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15364" max="15364" width="6.5546875" style="18" customWidth="1"/>
+    <col min="15365" max="15365" width="10.109375" style="18" customWidth="1"/>
+    <col min="15366" max="15366" width="7.5546875" style="18" customWidth="1"/>
+    <col min="15367" max="15605" width="8.88671875" style="18"/>
+    <col min="15606" max="15606" width="20.5546875" style="18" customWidth="1"/>
+    <col min="15607" max="15607" width="13.109375" style="18" customWidth="1"/>
+    <col min="15608" max="15608" width="8.88671875" style="18"/>
+    <col min="15609" max="15609" width="14.5546875" style="18" customWidth="1"/>
+    <col min="15610" max="15610" width="14.44140625" style="18" customWidth="1"/>
+    <col min="15611" max="15611" width="8.88671875" style="18" customWidth="1"/>
+    <col min="15612" max="15612" width="19.109375" style="18" customWidth="1"/>
+    <col min="15613" max="15613" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15614" max="15614" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15615" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="10.33203125" style="18" customWidth="1"/>
+    <col min="15617" max="15617" width="8" style="18" customWidth="1"/>
+    <col min="15618" max="15619" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15620" max="15620" width="6.5546875" style="18" customWidth="1"/>
+    <col min="15621" max="15621" width="10.109375" style="18" customWidth="1"/>
+    <col min="15622" max="15622" width="7.5546875" style="18" customWidth="1"/>
+    <col min="15623" max="15861" width="8.88671875" style="18"/>
+    <col min="15862" max="15862" width="20.5546875" style="18" customWidth="1"/>
+    <col min="15863" max="15863" width="13.109375" style="18" customWidth="1"/>
+    <col min="15864" max="15864" width="8.88671875" style="18"/>
+    <col min="15865" max="15865" width="14.5546875" style="18" customWidth="1"/>
+    <col min="15866" max="15866" width="14.44140625" style="18" customWidth="1"/>
+    <col min="15867" max="15867" width="8.88671875" style="18" customWidth="1"/>
+    <col min="15868" max="15868" width="19.109375" style="18" customWidth="1"/>
+    <col min="15869" max="15869" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15870" max="15870" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15871" max="15871" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="10.33203125" style="18" customWidth="1"/>
+    <col min="15873" max="15873" width="8" style="18" customWidth="1"/>
+    <col min="15874" max="15875" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15876" max="15876" width="6.5546875" style="18" customWidth="1"/>
+    <col min="15877" max="15877" width="10.109375" style="18" customWidth="1"/>
+    <col min="15878" max="15878" width="7.5546875" style="18" customWidth="1"/>
+    <col min="15879" max="16117" width="8.88671875" style="18"/>
+    <col min="16118" max="16118" width="20.5546875" style="18" customWidth="1"/>
+    <col min="16119" max="16119" width="13.109375" style="18" customWidth="1"/>
+    <col min="16120" max="16120" width="8.88671875" style="18"/>
+    <col min="16121" max="16121" width="14.5546875" style="18" customWidth="1"/>
+    <col min="16122" max="16122" width="14.44140625" style="18" customWidth="1"/>
+    <col min="16123" max="16123" width="8.88671875" style="18" customWidth="1"/>
+    <col min="16124" max="16124" width="19.109375" style="18" customWidth="1"/>
+    <col min="16125" max="16125" width="12.33203125" style="18" customWidth="1"/>
+    <col min="16126" max="16126" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16127" max="16127" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="10.33203125" style="18" customWidth="1"/>
+    <col min="16129" max="16129" width="8" style="18" customWidth="1"/>
+    <col min="16130" max="16131" width="14.33203125" style="18" customWidth="1"/>
+    <col min="16132" max="16132" width="6.5546875" style="18" customWidth="1"/>
+    <col min="16133" max="16133" width="10.109375" style="18" customWidth="1"/>
+    <col min="16134" max="16134" width="7.5546875" style="18" customWidth="1"/>
+    <col min="16135" max="16384" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.4">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="15">
+        <v>151007890</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15">
+        <v>36394</v>
+      </c>
+      <c r="E2" s="17">
+        <v>44232</v>
+      </c>
+      <c r="F2" s="15">
+        <v>614961</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="15">
+        <v>20</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15">
+        <v>20</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="15">
+        <v>151040504</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15">
+        <v>36394</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="15">
+        <v>614961</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="15">
+        <v>10</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="15">
+        <v>10</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="16">
+        <v>151058491</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16">
+        <v>36394</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="16">
+        <v>614961</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="64">
+        <v>151451608</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="23">
+        <v>10</v>
+      </c>
+      <c r="D6" s="24">
+        <v>16500</v>
+      </c>
+      <c r="E6" s="25">
+        <v>45369</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="26">
+        <v>2</v>
+      </c>
+      <c r="K6" s="25">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" s="29" customFormat="1">
+      <c r="A8" s="27">
+        <v>151357107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>90</v>
+      </c>
+      <c r="D8" s="28">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="4">
+        <v>615181</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" s="29" customFormat="1">
+      <c r="A10" s="8">
+        <v>151423149</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4831</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45308</v>
+      </c>
+      <c r="F10" s="4">
+        <v>615698</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8">
+        <v>151296157</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8">
+        <v>151296157</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="15">
+        <v>615840</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="31"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="27">
+        <v>151335926</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="6">
+        <v>600</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45070</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7">
+        <v>50</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" s="29" customFormat="1">
+      <c r="A18" s="8">
+        <v>151423149</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5614</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45308</v>
+      </c>
+      <c r="F18" s="1">
+        <v>616026</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="29" customFormat="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="29" customFormat="1">
+      <c r="A20" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6521</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45350</v>
+      </c>
+      <c r="F20" s="4">
+        <v>616039</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="7">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" s="29" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A22" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>80</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4048</v>
+      </c>
+      <c r="E22" s="34">
+        <v>45322</v>
+      </c>
+      <c r="F22" s="4">
+        <v>630059</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45337</v>
+      </c>
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" s="29" customFormat="1">
+      <c r="A24" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4">
+        <v>50</v>
+      </c>
+      <c r="D24" s="35">
+        <v>5738</v>
+      </c>
+      <c r="E24" s="34">
+        <v>45350</v>
+      </c>
+      <c r="F24" s="27">
+        <v>632215</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="34">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.4" customHeight="1">
+      <c r="A26" s="8">
+        <v>151110116</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
+        <v>60</v>
+      </c>
+      <c r="D26" s="15">
+        <v>3450</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="15">
+        <v>634355</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="15">
+        <v>10</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="15">
+        <v>10</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="23">
+        <v>151008992</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="23">
+        <v>20</v>
+      </c>
+      <c r="D28" s="39">
+        <v>4726</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="23">
+        <v>635655</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="23">
+        <v>10</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="23">
+        <v>0</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" s="29" customFormat="1">
+      <c r="A30" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4">
+        <v>40</v>
+      </c>
+      <c r="D30" s="28">
+        <v>2818</v>
+      </c>
+      <c r="E30" s="5">
+        <v>45350</v>
+      </c>
+      <c r="F30" s="27">
+        <v>635656</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="4">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="29" customFormat="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="29" customFormat="1">
+      <c r="A32" s="22">
+        <v>151397344</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="23">
+        <v>10</v>
+      </c>
+      <c r="D32" s="39">
+        <v>4716</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="22">
+        <v>635657</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="23">
+        <v>4</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" s="29" customFormat="1">
+      <c r="A34" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="23">
+        <v>40</v>
+      </c>
+      <c r="D34" s="40">
+        <v>3555</v>
+      </c>
+      <c r="E34" s="41">
+        <v>45362</v>
+      </c>
+      <c r="F34" s="22">
+        <v>646872</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="23">
+        <v>10</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="23">
+        <v>5</v>
+      </c>
+      <c r="K34" s="41">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8">
+        <v>151110116</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="16">
+        <v>40</v>
+      </c>
+      <c r="D36" s="19">
+        <v>112</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="21">
+        <v>50</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="21">
+        <v>0</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="16">
+        <v>70</v>
+      </c>
+      <c r="D38" s="19">
+        <v>24050</v>
+      </c>
+      <c r="E38" s="20">
+        <v>45322</v>
+      </c>
+      <c r="F38" s="8">
+        <v>662351</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="21">
+        <v>2</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="21">
+        <v>0</v>
+      </c>
+      <c r="K38" s="20">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="23">
+        <v>50</v>
+      </c>
+      <c r="D40" s="24">
+        <v>3510</v>
+      </c>
+      <c r="E40" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F40" s="23">
+        <v>663091</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="26">
+        <v>5</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="26">
+        <v>5</v>
+      </c>
+      <c r="K40" s="26">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:13" s="29" customFormat="1">
+      <c r="A42" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="23">
+        <v>20</v>
+      </c>
+      <c r="D42" s="24">
+        <v>5130</v>
+      </c>
+      <c r="E42" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F42" s="23">
+        <v>663092</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="26">
+        <v>10</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="26">
+        <v>10</v>
+      </c>
+      <c r="K42" s="25">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A44" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="23">
+        <v>30</v>
+      </c>
+      <c r="D44" s="24">
+        <v>6615</v>
+      </c>
+      <c r="E44" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F44" s="23">
+        <v>663093</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="26">
+        <v>10</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="26">
+        <v>10</v>
+      </c>
+      <c r="K44" s="25">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A45" s="65">
+        <v>151451737</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="D45" s="6">
+        <v>6615</v>
+      </c>
+      <c r="E45" s="5">
+        <v>45369</v>
+      </c>
+      <c r="F45" s="4">
+        <v>663093</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="7">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="7">
+        <v>4</v>
+      </c>
+      <c r="K45" s="5">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A47" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="16">
+        <v>20</v>
+      </c>
+      <c r="D47" s="19">
+        <v>10602</v>
+      </c>
+      <c r="E47" s="20">
+        <v>45350</v>
+      </c>
+      <c r="F47" s="8">
+        <v>663094</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="21">
+        <v>5</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="21">
+        <v>0</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A48" s="64">
+        <v>151450069</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="23">
+        <v>10</v>
+      </c>
+      <c r="D48" s="24">
+        <v>10602</v>
+      </c>
+      <c r="E48" s="25">
+        <v>45365</v>
+      </c>
+      <c r="F48" s="22">
+        <v>663094</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="26">
+        <v>5</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="26">
+        <v>5</v>
+      </c>
+      <c r="K48" s="26">
+        <v>111108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" s="29" customFormat="1">
+      <c r="A50" s="22">
+        <v>151338133</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="23">
+        <v>30</v>
+      </c>
+      <c r="D50" s="24">
+        <v>6000</v>
+      </c>
+      <c r="E50" s="41">
+        <v>45077</v>
+      </c>
+      <c r="F50" s="23">
+        <v>668330</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="26">
+        <v>15</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="26">
+        <v>0</v>
+      </c>
+      <c r="K50" s="25">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="29" customFormat="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A52" s="22">
+        <v>151353543</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="23">
+        <v>10</v>
+      </c>
+      <c r="D52" s="24">
+        <v>9703</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="22">
+        <v>681149</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="26">
+        <v>2</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" s="11" customFormat="1">
+      <c r="A54" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>50</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1908</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45322</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3">
+        <v>30</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="29" customFormat="1">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+    </row>
+    <row r="56" spans="1:11" s="29" customFormat="1">
+      <c r="A56" s="52">
+        <v>151448502</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="49">
+        <v>10</v>
+      </c>
+      <c r="D56" s="50">
+        <v>8463</v>
+      </c>
+      <c r="E56" s="51">
+        <v>45362</v>
+      </c>
+      <c r="F56" s="52">
+        <v>687349</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="53">
+        <v>50</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="53">
+        <v>0</v>
+      </c>
+      <c r="K56" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="29" customFormat="1">
+      <c r="A57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+    </row>
+    <row r="58" spans="1:11" s="29" customFormat="1">
+      <c r="A58" s="22">
+        <v>151242082</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="23">
+        <v>10</v>
+      </c>
+      <c r="D58" s="24">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="22">
+        <v>691660</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="26">
+        <v>1</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="26">
+        <v>0</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" s="29" customFormat="1">
+      <c r="A60" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4">
+        <v>40</v>
+      </c>
+      <c r="D60" s="6">
+        <v>565</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45322</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="7">
+        <v>30</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="9">
+        <v>151264212</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="9">
+        <v>10</v>
+      </c>
+      <c r="D62" s="43">
+        <v>10710</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="9">
+        <v>704681</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="45">
+        <v>1</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="45">
+        <v>0</v>
+      </c>
+      <c r="K62" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="9">
+        <v>30</v>
+      </c>
+      <c r="D63" s="43">
+        <v>15500</v>
+      </c>
+      <c r="E63" s="44">
+        <v>45322</v>
+      </c>
+      <c r="F63" s="9">
+        <v>704681</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="45">
+        <v>1</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="45">
+        <v>1</v>
+      </c>
+      <c r="K63" s="44">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="8">
+        <v>151415265</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="16">
+        <v>40</v>
+      </c>
+      <c r="D65" s="19">
+        <v>4995</v>
+      </c>
+      <c r="E65" s="20">
+        <v>45286</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="21">
+        <v>10</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="21">
+        <v>0</v>
+      </c>
+      <c r="K65" s="20">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="19">
+        <v>4245</v>
+      </c>
+      <c r="E67" s="20">
+        <v>44223</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="21">
+        <v>2</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="21">
+        <v>0</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" s="29" customFormat="1">
+      <c r="A69" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="23">
+        <v>10</v>
+      </c>
+      <c r="D69" s="24">
+        <v>1896</v>
+      </c>
+      <c r="E69" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F69" s="23">
+        <v>716663</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="26">
+        <v>2</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="26">
+        <v>2</v>
+      </c>
+      <c r="K69" s="25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" s="29" customFormat="1">
+      <c r="A71" s="46">
+        <v>151350196</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="46">
+        <v>10</v>
+      </c>
+      <c r="D71" s="46">
+        <v>45000</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="46">
+        <v>719031</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="47">
+        <v>2</v>
+      </c>
+      <c r="I71" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="47">
+        <v>0</v>
+      </c>
+      <c r="K71" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A73" s="22">
+        <v>151395324</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="23">
+        <v>20</v>
+      </c>
+      <c r="D73" s="40">
+        <v>11990</v>
+      </c>
+      <c r="E73" s="41">
+        <v>45236</v>
+      </c>
+      <c r="F73" s="22">
+        <v>719381</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="23">
+        <v>2</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="23">
+        <v>0</v>
+      </c>
+      <c r="K73" s="41">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="8"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="22">
+        <v>151341902</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="42">
+        <v>10</v>
+      </c>
+      <c r="D75" s="42">
+        <v>6800</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="42">
+        <v>720138</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="42">
+        <v>3</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="42">
+        <v>0</v>
+      </c>
+      <c r="K75" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="1:11" s="29" customFormat="1">
+      <c r="A77" s="22">
+        <v>151343138</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="23">
+        <v>10</v>
+      </c>
+      <c r="D77" s="23">
+        <v>2490</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="22">
+        <v>724214</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="23">
+        <v>5</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="23">
+        <v>0</v>
+      </c>
+      <c r="K77" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="16">
+        <v>10</v>
+      </c>
+      <c r="D79" s="16">
+        <v>2900</v>
+      </c>
+      <c r="E79" s="20">
+        <v>45350</v>
+      </c>
+      <c r="F79" s="16">
+        <v>725828</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="16">
+        <v>10</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="20">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="1:11" s="29" customFormat="1">
+      <c r="A81" s="27">
+        <v>151315311</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4">
+        <v>100</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="4">
+        <v>728488</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="4">
+        <v>10</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" style="18" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10" style="18" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="45.5546875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" style="18" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="245" width="8.88671875" style="18"/>
+    <col min="246" max="246" width="20.5546875" style="18" customWidth="1"/>
+    <col min="247" max="247" width="13.109375" style="18" customWidth="1"/>
+    <col min="248" max="248" width="8.88671875" style="18"/>
+    <col min="249" max="249" width="14.5546875" style="18" customWidth="1"/>
+    <col min="250" max="250" width="14.44140625" style="18" customWidth="1"/>
+    <col min="251" max="251" width="8.88671875" style="18" customWidth="1"/>
+    <col min="252" max="252" width="19.109375" style="18" customWidth="1"/>
+    <col min="253" max="253" width="12.33203125" style="18" customWidth="1"/>
+    <col min="254" max="254" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="255" max="255" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="256" max="256" width="10.33203125" style="18" customWidth="1"/>
+    <col min="257" max="257" width="8" style="18" customWidth="1"/>
+    <col min="258" max="259" width="14.33203125" style="18" customWidth="1"/>
+    <col min="260" max="260" width="6.5546875" style="18" customWidth="1"/>
+    <col min="261" max="261" width="10.109375" style="18" customWidth="1"/>
+    <col min="262" max="262" width="7.5546875" style="18" customWidth="1"/>
+    <col min="263" max="501" width="8.88671875" style="18"/>
+    <col min="502" max="502" width="20.5546875" style="18" customWidth="1"/>
+    <col min="503" max="503" width="13.109375" style="18" customWidth="1"/>
+    <col min="504" max="504" width="8.88671875" style="18"/>
+    <col min="505" max="505" width="14.5546875" style="18" customWidth="1"/>
+    <col min="506" max="506" width="14.44140625" style="18" customWidth="1"/>
+    <col min="507" max="507" width="8.88671875" style="18" customWidth="1"/>
+    <col min="508" max="508" width="19.109375" style="18" customWidth="1"/>
+    <col min="509" max="509" width="12.33203125" style="18" customWidth="1"/>
+    <col min="510" max="510" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="512" max="512" width="10.33203125" style="18" customWidth="1"/>
+    <col min="513" max="513" width="8" style="18" customWidth="1"/>
+    <col min="514" max="515" width="14.33203125" style="18" customWidth="1"/>
+    <col min="516" max="516" width="6.5546875" style="18" customWidth="1"/>
+    <col min="517" max="517" width="10.109375" style="18" customWidth="1"/>
+    <col min="518" max="518" width="7.5546875" style="18" customWidth="1"/>
+    <col min="519" max="757" width="8.88671875" style="18"/>
+    <col min="758" max="758" width="20.5546875" style="18" customWidth="1"/>
+    <col min="759" max="759" width="13.109375" style="18" customWidth="1"/>
+    <col min="760" max="760" width="8.88671875" style="18"/>
+    <col min="761" max="761" width="14.5546875" style="18" customWidth="1"/>
+    <col min="762" max="762" width="14.44140625" style="18" customWidth="1"/>
+    <col min="763" max="763" width="8.88671875" style="18" customWidth="1"/>
+    <col min="764" max="764" width="19.109375" style="18" customWidth="1"/>
+    <col min="765" max="765" width="12.33203125" style="18" customWidth="1"/>
+    <col min="766" max="766" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="767" max="767" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="768" max="768" width="10.33203125" style="18" customWidth="1"/>
+    <col min="769" max="769" width="8" style="18" customWidth="1"/>
+    <col min="770" max="771" width="14.33203125" style="18" customWidth="1"/>
+    <col min="772" max="772" width="6.5546875" style="18" customWidth="1"/>
+    <col min="773" max="773" width="10.109375" style="18" customWidth="1"/>
+    <col min="774" max="774" width="7.5546875" style="18" customWidth="1"/>
+    <col min="775" max="1013" width="8.88671875" style="18"/>
+    <col min="1014" max="1014" width="20.5546875" style="18" customWidth="1"/>
+    <col min="1015" max="1015" width="13.109375" style="18" customWidth="1"/>
+    <col min="1016" max="1016" width="8.88671875" style="18"/>
+    <col min="1017" max="1017" width="14.5546875" style="18" customWidth="1"/>
+    <col min="1018" max="1018" width="14.44140625" style="18" customWidth="1"/>
+    <col min="1019" max="1019" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1020" max="1020" width="19.109375" style="18" customWidth="1"/>
+    <col min="1021" max="1021" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1022" max="1022" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1023" max="1023" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1024" max="1024" width="10.33203125" style="18" customWidth="1"/>
+    <col min="1025" max="1025" width="8" style="18" customWidth="1"/>
+    <col min="1026" max="1027" width="14.33203125" style="18" customWidth="1"/>
+    <col min="1028" max="1028" width="6.5546875" style="18" customWidth="1"/>
+    <col min="1029" max="1029" width="10.109375" style="18" customWidth="1"/>
+    <col min="1030" max="1030" width="7.5546875" style="18" customWidth="1"/>
+    <col min="1031" max="1269" width="8.88671875" style="18"/>
+    <col min="1270" max="1270" width="20.5546875" style="18" customWidth="1"/>
+    <col min="1271" max="1271" width="13.109375" style="18" customWidth="1"/>
+    <col min="1272" max="1272" width="8.88671875" style="18"/>
+    <col min="1273" max="1273" width="14.5546875" style="18" customWidth="1"/>
+    <col min="1274" max="1274" width="14.44140625" style="18" customWidth="1"/>
+    <col min="1275" max="1275" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1276" max="1276" width="19.109375" style="18" customWidth="1"/>
+    <col min="1277" max="1277" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1278" max="1278" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1279" max="1279" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1280" max="1280" width="10.33203125" style="18" customWidth="1"/>
+    <col min="1281" max="1281" width="8" style="18" customWidth="1"/>
+    <col min="1282" max="1283" width="14.33203125" style="18" customWidth="1"/>
+    <col min="1284" max="1284" width="6.5546875" style="18" customWidth="1"/>
+    <col min="1285" max="1285" width="10.109375" style="18" customWidth="1"/>
+    <col min="1286" max="1286" width="7.5546875" style="18" customWidth="1"/>
+    <col min="1287" max="1525" width="8.88671875" style="18"/>
+    <col min="1526" max="1526" width="20.5546875" style="18" customWidth="1"/>
+    <col min="1527" max="1527" width="13.109375" style="18" customWidth="1"/>
+    <col min="1528" max="1528" width="8.88671875" style="18"/>
+    <col min="1529" max="1529" width="14.5546875" style="18" customWidth="1"/>
+    <col min="1530" max="1530" width="14.44140625" style="18" customWidth="1"/>
+    <col min="1531" max="1531" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1532" max="1532" width="19.109375" style="18" customWidth="1"/>
+    <col min="1533" max="1533" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1534" max="1534" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1535" max="1535" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1536" max="1536" width="10.33203125" style="18" customWidth="1"/>
+    <col min="1537" max="1537" width="8" style="18" customWidth="1"/>
+    <col min="1538" max="1539" width="14.33203125" style="18" customWidth="1"/>
+    <col min="1540" max="1540" width="6.5546875" style="18" customWidth="1"/>
+    <col min="1541" max="1541" width="10.109375" style="18" customWidth="1"/>
+    <col min="1542" max="1542" width="7.5546875" style="18" customWidth="1"/>
+    <col min="1543" max="1781" width="8.88671875" style="18"/>
+    <col min="1782" max="1782" width="20.5546875" style="18" customWidth="1"/>
+    <col min="1783" max="1783" width="13.109375" style="18" customWidth="1"/>
+    <col min="1784" max="1784" width="8.88671875" style="18"/>
+    <col min="1785" max="1785" width="14.5546875" style="18" customWidth="1"/>
+    <col min="1786" max="1786" width="14.44140625" style="18" customWidth="1"/>
+    <col min="1787" max="1787" width="8.88671875" style="18" customWidth="1"/>
+    <col min="1788" max="1788" width="19.109375" style="18" customWidth="1"/>
+    <col min="1789" max="1789" width="12.33203125" style="18" customWidth="1"/>
+    <col min="1790" max="1790" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1791" max="1791" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1792" max="1792" width="10.33203125" style="18" customWidth="1"/>
+    <col min="1793" max="1793" width="8" style="18" customWidth="1"/>
+    <col min="1794" max="1795" width="14.33203125" style="18" customWidth="1"/>
+    <col min="1796" max="1796" width="6.5546875" style="18" customWidth="1"/>
+    <col min="1797" max="1797" width="10.109375" style="18" customWidth="1"/>
+    <col min="1798" max="1798" width="7.5546875" style="18" customWidth="1"/>
+    <col min="1799" max="2037" width="8.88671875" style="18"/>
+    <col min="2038" max="2038" width="20.5546875" style="18" customWidth="1"/>
+    <col min="2039" max="2039" width="13.109375" style="18" customWidth="1"/>
+    <col min="2040" max="2040" width="8.88671875" style="18"/>
+    <col min="2041" max="2041" width="14.5546875" style="18" customWidth="1"/>
+    <col min="2042" max="2042" width="14.44140625" style="18" customWidth="1"/>
+    <col min="2043" max="2043" width="8.88671875" style="18" customWidth="1"/>
+    <col min="2044" max="2044" width="19.109375" style="18" customWidth="1"/>
+    <col min="2045" max="2045" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2046" max="2046" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2047" max="2047" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2048" max="2048" width="10.33203125" style="18" customWidth="1"/>
+    <col min="2049" max="2049" width="8" style="18" customWidth="1"/>
+    <col min="2050" max="2051" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2052" max="2052" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2053" max="2053" width="10.109375" style="18" customWidth="1"/>
+    <col min="2054" max="2054" width="7.5546875" style="18" customWidth="1"/>
+    <col min="2055" max="2293" width="8.88671875" style="18"/>
+    <col min="2294" max="2294" width="20.5546875" style="18" customWidth="1"/>
+    <col min="2295" max="2295" width="13.109375" style="18" customWidth="1"/>
+    <col min="2296" max="2296" width="8.88671875" style="18"/>
+    <col min="2297" max="2297" width="14.5546875" style="18" customWidth="1"/>
+    <col min="2298" max="2298" width="14.44140625" style="18" customWidth="1"/>
+    <col min="2299" max="2299" width="8.88671875" style="18" customWidth="1"/>
+    <col min="2300" max="2300" width="19.109375" style="18" customWidth="1"/>
+    <col min="2301" max="2301" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2302" max="2302" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2303" max="2303" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2304" max="2304" width="10.33203125" style="18" customWidth="1"/>
+    <col min="2305" max="2305" width="8" style="18" customWidth="1"/>
+    <col min="2306" max="2307" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2308" max="2308" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2309" max="2309" width="10.109375" style="18" customWidth="1"/>
+    <col min="2310" max="2310" width="7.5546875" style="18" customWidth="1"/>
+    <col min="2311" max="2549" width="8.88671875" style="18"/>
+    <col min="2550" max="2550" width="20.5546875" style="18" customWidth="1"/>
+    <col min="2551" max="2551" width="13.109375" style="18" customWidth="1"/>
+    <col min="2552" max="2552" width="8.88671875" style="18"/>
+    <col min="2553" max="2553" width="14.5546875" style="18" customWidth="1"/>
+    <col min="2554" max="2554" width="14.44140625" style="18" customWidth="1"/>
+    <col min="2555" max="2555" width="8.88671875" style="18" customWidth="1"/>
+    <col min="2556" max="2556" width="19.109375" style="18" customWidth="1"/>
+    <col min="2557" max="2557" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2558" max="2558" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2559" max="2559" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2560" max="2560" width="10.33203125" style="18" customWidth="1"/>
+    <col min="2561" max="2561" width="8" style="18" customWidth="1"/>
+    <col min="2562" max="2563" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2564" max="2564" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2565" max="2565" width="10.109375" style="18" customWidth="1"/>
+    <col min="2566" max="2566" width="7.5546875" style="18" customWidth="1"/>
+    <col min="2567" max="2805" width="8.88671875" style="18"/>
+    <col min="2806" max="2806" width="20.5546875" style="18" customWidth="1"/>
+    <col min="2807" max="2807" width="13.109375" style="18" customWidth="1"/>
+    <col min="2808" max="2808" width="8.88671875" style="18"/>
+    <col min="2809" max="2809" width="14.5546875" style="18" customWidth="1"/>
+    <col min="2810" max="2810" width="14.44140625" style="18" customWidth="1"/>
+    <col min="2811" max="2811" width="8.88671875" style="18" customWidth="1"/>
+    <col min="2812" max="2812" width="19.109375" style="18" customWidth="1"/>
+    <col min="2813" max="2813" width="12.33203125" style="18" customWidth="1"/>
+    <col min="2814" max="2814" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2815" max="2815" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2816" max="2816" width="10.33203125" style="18" customWidth="1"/>
+    <col min="2817" max="2817" width="8" style="18" customWidth="1"/>
+    <col min="2818" max="2819" width="14.33203125" style="18" customWidth="1"/>
+    <col min="2820" max="2820" width="6.5546875" style="18" customWidth="1"/>
+    <col min="2821" max="2821" width="10.109375" style="18" customWidth="1"/>
+    <col min="2822" max="2822" width="7.5546875" style="18" customWidth="1"/>
+    <col min="2823" max="3061" width="8.88671875" style="18"/>
+    <col min="3062" max="3062" width="20.5546875" style="18" customWidth="1"/>
+    <col min="3063" max="3063" width="13.109375" style="18" customWidth="1"/>
+    <col min="3064" max="3064" width="8.88671875" style="18"/>
+    <col min="3065" max="3065" width="14.5546875" style="18" customWidth="1"/>
+    <col min="3066" max="3066" width="14.44140625" style="18" customWidth="1"/>
+    <col min="3067" max="3067" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3068" max="3068" width="19.109375" style="18" customWidth="1"/>
+    <col min="3069" max="3069" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3070" max="3070" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3071" max="3071" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3072" max="3072" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3073" max="3073" width="8" style="18" customWidth="1"/>
+    <col min="3074" max="3075" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3076" max="3076" width="6.5546875" style="18" customWidth="1"/>
+    <col min="3077" max="3077" width="10.109375" style="18" customWidth="1"/>
+    <col min="3078" max="3078" width="7.5546875" style="18" customWidth="1"/>
+    <col min="3079" max="3317" width="8.88671875" style="18"/>
+    <col min="3318" max="3318" width="20.5546875" style="18" customWidth="1"/>
+    <col min="3319" max="3319" width="13.109375" style="18" customWidth="1"/>
+    <col min="3320" max="3320" width="8.88671875" style="18"/>
+    <col min="3321" max="3321" width="14.5546875" style="18" customWidth="1"/>
+    <col min="3322" max="3322" width="14.44140625" style="18" customWidth="1"/>
+    <col min="3323" max="3323" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3324" max="3324" width="19.109375" style="18" customWidth="1"/>
+    <col min="3325" max="3325" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3326" max="3326" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3327" max="3327" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3328" max="3328" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3329" max="3329" width="8" style="18" customWidth="1"/>
+    <col min="3330" max="3331" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3332" max="3332" width="6.5546875" style="18" customWidth="1"/>
+    <col min="3333" max="3333" width="10.109375" style="18" customWidth="1"/>
+    <col min="3334" max="3334" width="7.5546875" style="18" customWidth="1"/>
+    <col min="3335" max="3573" width="8.88671875" style="18"/>
+    <col min="3574" max="3574" width="20.5546875" style="18" customWidth="1"/>
+    <col min="3575" max="3575" width="13.109375" style="18" customWidth="1"/>
+    <col min="3576" max="3576" width="8.88671875" style="18"/>
+    <col min="3577" max="3577" width="14.5546875" style="18" customWidth="1"/>
+    <col min="3578" max="3578" width="14.44140625" style="18" customWidth="1"/>
+    <col min="3579" max="3579" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3580" max="3580" width="19.109375" style="18" customWidth="1"/>
+    <col min="3581" max="3581" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3582" max="3582" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3583" max="3583" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3584" max="3584" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3585" max="3585" width="8" style="18" customWidth="1"/>
+    <col min="3586" max="3587" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3588" max="3588" width="6.5546875" style="18" customWidth="1"/>
+    <col min="3589" max="3589" width="10.109375" style="18" customWidth="1"/>
+    <col min="3590" max="3590" width="7.5546875" style="18" customWidth="1"/>
+    <col min="3591" max="3829" width="8.88671875" style="18"/>
+    <col min="3830" max="3830" width="20.5546875" style="18" customWidth="1"/>
+    <col min="3831" max="3831" width="13.109375" style="18" customWidth="1"/>
+    <col min="3832" max="3832" width="8.88671875" style="18"/>
+    <col min="3833" max="3833" width="14.5546875" style="18" customWidth="1"/>
+    <col min="3834" max="3834" width="14.44140625" style="18" customWidth="1"/>
+    <col min="3835" max="3835" width="8.88671875" style="18" customWidth="1"/>
+    <col min="3836" max="3836" width="19.109375" style="18" customWidth="1"/>
+    <col min="3837" max="3837" width="12.33203125" style="18" customWidth="1"/>
+    <col min="3838" max="3838" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3839" max="3839" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3840" max="3840" width="10.33203125" style="18" customWidth="1"/>
+    <col min="3841" max="3841" width="8" style="18" customWidth="1"/>
+    <col min="3842" max="3843" width="14.33203125" style="18" customWidth="1"/>
+    <col min="3844" max="3844" width="6.5546875" style="18" customWidth="1"/>
+    <col min="3845" max="3845" width="10.109375" style="18" customWidth="1"/>
+    <col min="3846" max="3846" width="7.5546875" style="18" customWidth="1"/>
+    <col min="3847" max="4085" width="8.88671875" style="18"/>
+    <col min="4086" max="4086" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4087" max="4087" width="13.109375" style="18" customWidth="1"/>
+    <col min="4088" max="4088" width="8.88671875" style="18"/>
+    <col min="4089" max="4089" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4090" max="4090" width="14.44140625" style="18" customWidth="1"/>
+    <col min="4091" max="4091" width="8.88671875" style="18" customWidth="1"/>
+    <col min="4092" max="4092" width="19.109375" style="18" customWidth="1"/>
+    <col min="4093" max="4093" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4094" max="4094" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4095" max="4095" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4096" max="4096" width="10.33203125" style="18" customWidth="1"/>
+    <col min="4097" max="4097" width="8" style="18" customWidth="1"/>
+    <col min="4098" max="4099" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4100" max="4100" width="6.5546875" style="18" customWidth="1"/>
+    <col min="4101" max="4101" width="10.109375" style="18" customWidth="1"/>
+    <col min="4102" max="4102" width="7.5546875" style="18" customWidth="1"/>
+    <col min="4103" max="4341" width="8.88671875" style="18"/>
+    <col min="4342" max="4342" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4343" max="4343" width="13.109375" style="18" customWidth="1"/>
+    <col min="4344" max="4344" width="8.88671875" style="18"/>
+    <col min="4345" max="4345" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4346" max="4346" width="14.44140625" style="18" customWidth="1"/>
+    <col min="4347" max="4347" width="8.88671875" style="18" customWidth="1"/>
+    <col min="4348" max="4348" width="19.109375" style="18" customWidth="1"/>
+    <col min="4349" max="4349" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4350" max="4350" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4351" max="4351" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4352" max="4352" width="10.33203125" style="18" customWidth="1"/>
+    <col min="4353" max="4353" width="8" style="18" customWidth="1"/>
+    <col min="4354" max="4355" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4356" max="4356" width="6.5546875" style="18" customWidth="1"/>
+    <col min="4357" max="4357" width="10.109375" style="18" customWidth="1"/>
+    <col min="4358" max="4358" width="7.5546875" style="18" customWidth="1"/>
+    <col min="4359" max="4597" width="8.88671875" style="18"/>
+    <col min="4598" max="4598" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4599" max="4599" width="13.109375" style="18" customWidth="1"/>
+    <col min="4600" max="4600" width="8.88671875" style="18"/>
+    <col min="4601" max="4601" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4602" max="4602" width="14.44140625" style="18" customWidth="1"/>
+    <col min="4603" max="4603" width="8.88671875" style="18" customWidth="1"/>
+    <col min="4604" max="4604" width="19.109375" style="18" customWidth="1"/>
+    <col min="4605" max="4605" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4606" max="4606" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4607" max="4607" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4608" max="4608" width="10.33203125" style="18" customWidth="1"/>
+    <col min="4609" max="4609" width="8" style="18" customWidth="1"/>
+    <col min="4610" max="4611" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4612" max="4612" width="6.5546875" style="18" customWidth="1"/>
+    <col min="4613" max="4613" width="10.109375" style="18" customWidth="1"/>
+    <col min="4614" max="4614" width="7.5546875" style="18" customWidth="1"/>
+    <col min="4615" max="4853" width="8.88671875" style="18"/>
+    <col min="4854" max="4854" width="20.5546875" style="18" customWidth="1"/>
+    <col min="4855" max="4855" width="13.109375" style="18" customWidth="1"/>
+    <col min="4856" max="4856" width="8.88671875" style="18"/>
+    <col min="4857" max="4857" width="14.5546875" style="18" customWidth="1"/>
+    <col min="4858" max="4858" width="14.44140625" style="18" customWidth="1"/>
+    <col min="4859" max="4859" width="8.88671875" style="18" customWidth="1"/>
+    <col min="4860" max="4860" width="19.109375" style="18" customWidth="1"/>
+    <col min="4861" max="4861" width="12.33203125" style="18" customWidth="1"/>
+    <col min="4862" max="4862" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="4863" max="4863" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4864" max="4864" width="10.33203125" style="18" customWidth="1"/>
+    <col min="4865" max="4865" width="8" style="18" customWidth="1"/>
+    <col min="4866" max="4867" width="14.33203125" style="18" customWidth="1"/>
+    <col min="4868" max="4868" width="6.5546875" style="18" customWidth="1"/>
+    <col min="4869" max="4869" width="10.109375" style="18" customWidth="1"/>
+    <col min="4870" max="4870" width="7.5546875" style="18" customWidth="1"/>
+    <col min="4871" max="5109" width="8.88671875" style="18"/>
+    <col min="5110" max="5110" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5111" max="5111" width="13.109375" style="18" customWidth="1"/>
+    <col min="5112" max="5112" width="8.88671875" style="18"/>
+    <col min="5113" max="5113" width="14.5546875" style="18" customWidth="1"/>
+    <col min="5114" max="5114" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5115" max="5115" width="8.88671875" style="18" customWidth="1"/>
+    <col min="5116" max="5116" width="19.109375" style="18" customWidth="1"/>
+    <col min="5117" max="5117" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5118" max="5118" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5119" max="5119" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5120" max="5120" width="10.33203125" style="18" customWidth="1"/>
+    <col min="5121" max="5121" width="8" style="18" customWidth="1"/>
+    <col min="5122" max="5123" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5124" max="5124" width="6.5546875" style="18" customWidth="1"/>
+    <col min="5125" max="5125" width="10.109375" style="18" customWidth="1"/>
+    <col min="5126" max="5126" width="7.5546875" style="18" customWidth="1"/>
+    <col min="5127" max="5365" width="8.88671875" style="18"/>
+    <col min="5366" max="5366" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5367" max="5367" width="13.109375" style="18" customWidth="1"/>
+    <col min="5368" max="5368" width="8.88671875" style="18"/>
+    <col min="5369" max="5369" width="14.5546875" style="18" customWidth="1"/>
+    <col min="5370" max="5370" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5371" max="5371" width="8.88671875" style="18" customWidth="1"/>
+    <col min="5372" max="5372" width="19.109375" style="18" customWidth="1"/>
+    <col min="5373" max="5373" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5374" max="5374" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5375" max="5375" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5376" max="5376" width="10.33203125" style="18" customWidth="1"/>
+    <col min="5377" max="5377" width="8" style="18" customWidth="1"/>
+    <col min="5378" max="5379" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5380" max="5380" width="6.5546875" style="18" customWidth="1"/>
+    <col min="5381" max="5381" width="10.109375" style="18" customWidth="1"/>
+    <col min="5382" max="5382" width="7.5546875" style="18" customWidth="1"/>
+    <col min="5383" max="5621" width="8.88671875" style="18"/>
+    <col min="5622" max="5622" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5623" max="5623" width="13.109375" style="18" customWidth="1"/>
+    <col min="5624" max="5624" width="8.88671875" style="18"/>
+    <col min="5625" max="5625" width="14.5546875" style="18" customWidth="1"/>
+    <col min="5626" max="5626" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5627" max="5627" width="8.88671875" style="18" customWidth="1"/>
+    <col min="5628" max="5628" width="19.109375" style="18" customWidth="1"/>
+    <col min="5629" max="5629" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5630" max="5630" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5631" max="5631" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5632" max="5632" width="10.33203125" style="18" customWidth="1"/>
+    <col min="5633" max="5633" width="8" style="18" customWidth="1"/>
+    <col min="5634" max="5635" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5636" max="5636" width="6.5546875" style="18" customWidth="1"/>
+    <col min="5637" max="5637" width="10.109375" style="18" customWidth="1"/>
+    <col min="5638" max="5638" width="7.5546875" style="18" customWidth="1"/>
+    <col min="5639" max="5877" width="8.88671875" style="18"/>
+    <col min="5878" max="5878" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5879" max="5879" width="13.109375" style="18" customWidth="1"/>
+    <col min="5880" max="5880" width="8.88671875" style="18"/>
+    <col min="5881" max="5881" width="14.5546875" style="18" customWidth="1"/>
+    <col min="5882" max="5882" width="14.44140625" style="18" customWidth="1"/>
+    <col min="5883" max="5883" width="8.88671875" style="18" customWidth="1"/>
+    <col min="5884" max="5884" width="19.109375" style="18" customWidth="1"/>
+    <col min="5885" max="5885" width="12.33203125" style="18" customWidth="1"/>
+    <col min="5886" max="5886" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5887" max="5887" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5888" max="5888" width="10.33203125" style="18" customWidth="1"/>
+    <col min="5889" max="5889" width="8" style="18" customWidth="1"/>
+    <col min="5890" max="5891" width="14.33203125" style="18" customWidth="1"/>
+    <col min="5892" max="5892" width="6.5546875" style="18" customWidth="1"/>
+    <col min="5893" max="5893" width="10.109375" style="18" customWidth="1"/>
+    <col min="5894" max="5894" width="7.5546875" style="18" customWidth="1"/>
+    <col min="5895" max="6133" width="8.88671875" style="18"/>
+    <col min="6134" max="6134" width="20.5546875" style="18" customWidth="1"/>
+    <col min="6135" max="6135" width="13.109375" style="18" customWidth="1"/>
+    <col min="6136" max="6136" width="8.88671875" style="18"/>
+    <col min="6137" max="6137" width="14.5546875" style="18" customWidth="1"/>
+    <col min="6138" max="6138" width="14.44140625" style="18" customWidth="1"/>
+    <col min="6139" max="6139" width="8.88671875" style="18" customWidth="1"/>
+    <col min="6140" max="6140" width="19.109375" style="18" customWidth="1"/>
+    <col min="6141" max="6141" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6142" max="6142" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6143" max="6143" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6144" max="6144" width="10.33203125" style="18" customWidth="1"/>
+    <col min="6145" max="6145" width="8" style="18" customWidth="1"/>
+    <col min="6146" max="6147" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6148" max="6148" width="6.5546875" style="18" customWidth="1"/>
+    <col min="6149" max="6149" width="10.109375" style="18" customWidth="1"/>
+    <col min="6150" max="6150" width="7.5546875" style="18" customWidth="1"/>
+    <col min="6151" max="6389" width="8.88671875" style="18"/>
+    <col min="6390" max="6390" width="20.5546875" style="18" customWidth="1"/>
+    <col min="6391" max="6391" width="13.109375" style="18" customWidth="1"/>
+    <col min="6392" max="6392" width="8.88671875" style="18"/>
+    <col min="6393" max="6393" width="14.5546875" style="18" customWidth="1"/>
+    <col min="6394" max="6394" width="14.44140625" style="18" customWidth="1"/>
+    <col min="6395" max="6395" width="8.88671875" style="18" customWidth="1"/>
+    <col min="6396" max="6396" width="19.109375" style="18" customWidth="1"/>
+    <col min="6397" max="6397" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6398" max="6398" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6399" max="6399" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6400" max="6400" width="10.33203125" style="18" customWidth="1"/>
+    <col min="6401" max="6401" width="8" style="18" customWidth="1"/>
+    <col min="6402" max="6403" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6404" max="6404" width="6.5546875" style="18" customWidth="1"/>
+    <col min="6405" max="6405" width="10.109375" style="18" customWidth="1"/>
+    <col min="6406" max="6406" width="7.5546875" style="18" customWidth="1"/>
+    <col min="6407" max="6645" width="8.88671875" style="18"/>
+    <col min="6646" max="6646" width="20.5546875" style="18" customWidth="1"/>
+    <col min="6647" max="6647" width="13.109375" style="18" customWidth="1"/>
+    <col min="6648" max="6648" width="8.88671875" style="18"/>
+    <col min="6649" max="6649" width="14.5546875" style="18" customWidth="1"/>
+    <col min="6650" max="6650" width="14.44140625" style="18" customWidth="1"/>
+    <col min="6651" max="6651" width="8.88671875" style="18" customWidth="1"/>
+    <col min="6652" max="6652" width="19.109375" style="18" customWidth="1"/>
+    <col min="6653" max="6653" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6654" max="6654" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6655" max="6655" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6656" max="6656" width="10.33203125" style="18" customWidth="1"/>
+    <col min="6657" max="6657" width="8" style="18" customWidth="1"/>
+    <col min="6658" max="6659" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6660" max="6660" width="6.5546875" style="18" customWidth="1"/>
+    <col min="6661" max="6661" width="10.109375" style="18" customWidth="1"/>
+    <col min="6662" max="6662" width="7.5546875" style="18" customWidth="1"/>
+    <col min="6663" max="6901" width="8.88671875" style="18"/>
+    <col min="6902" max="6902" width="20.5546875" style="18" customWidth="1"/>
+    <col min="6903" max="6903" width="13.109375" style="18" customWidth="1"/>
+    <col min="6904" max="6904" width="8.88671875" style="18"/>
+    <col min="6905" max="6905" width="14.5546875" style="18" customWidth="1"/>
+    <col min="6906" max="6906" width="14.44140625" style="18" customWidth="1"/>
+    <col min="6907" max="6907" width="8.88671875" style="18" customWidth="1"/>
+    <col min="6908" max="6908" width="19.109375" style="18" customWidth="1"/>
+    <col min="6909" max="6909" width="12.33203125" style="18" customWidth="1"/>
+    <col min="6910" max="6910" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6911" max="6911" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6912" max="6912" width="10.33203125" style="18" customWidth="1"/>
+    <col min="6913" max="6913" width="8" style="18" customWidth="1"/>
+    <col min="6914" max="6915" width="14.33203125" style="18" customWidth="1"/>
+    <col min="6916" max="6916" width="6.5546875" style="18" customWidth="1"/>
+    <col min="6917" max="6917" width="10.109375" style="18" customWidth="1"/>
+    <col min="6918" max="6918" width="7.5546875" style="18" customWidth="1"/>
+    <col min="6919" max="7157" width="8.88671875" style="18"/>
+    <col min="7158" max="7158" width="20.5546875" style="18" customWidth="1"/>
+    <col min="7159" max="7159" width="13.109375" style="18" customWidth="1"/>
+    <col min="7160" max="7160" width="8.88671875" style="18"/>
+    <col min="7161" max="7161" width="14.5546875" style="18" customWidth="1"/>
+    <col min="7162" max="7162" width="14.44140625" style="18" customWidth="1"/>
+    <col min="7163" max="7163" width="8.88671875" style="18" customWidth="1"/>
+    <col min="7164" max="7164" width="19.109375" style="18" customWidth="1"/>
+    <col min="7165" max="7165" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7166" max="7166" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7167" max="7167" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7168" max="7168" width="10.33203125" style="18" customWidth="1"/>
+    <col min="7169" max="7169" width="8" style="18" customWidth="1"/>
+    <col min="7170" max="7171" width="14.33203125" style="18" customWidth="1"/>
+    <col min="7172" max="7172" width="6.5546875" style="18" customWidth="1"/>
+    <col min="7173" max="7173" width="10.109375" style="18" customWidth="1"/>
+    <col min="7174" max="7174" width="7.5546875" style="18" customWidth="1"/>
+    <col min="7175" max="7413" width="8.88671875" style="18"/>
+    <col min="7414" max="7414" width="20.5546875" style="18" customWidth="1"/>
+    <col min="7415" max="7415" width="13.109375" style="18" customWidth="1"/>
+    <col min="7416" max="7416" width="8.88671875" style="18"/>
+    <col min="7417" max="7417" width="14.5546875" style="18" customWidth="1"/>
+    <col min="7418" max="7418" width="14.44140625" style="18" customWidth="1"/>
+    <col min="7419" max="7419" width="8.88671875" style="18" customWidth="1"/>
+    <col min="7420" max="7420" width="19.109375" style="18" customWidth="1"/>
+    <col min="7421" max="7421" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7422" max="7422" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7423" max="7423" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7424" max="7424" width="10.33203125" style="18" customWidth="1"/>
+    <col min="7425" max="7425" width="8" style="18" customWidth="1"/>
+    <col min="7426" max="7427" width="14.33203125" style="18" customWidth="1"/>
+    <col min="7428" max="7428" width="6.5546875" style="18" customWidth="1"/>
+    <col min="7429" max="7429" width="10.109375" style="18" customWidth="1"/>
+    <col min="7430" max="7430" width="7.5546875" style="18" customWidth="1"/>
+    <col min="7431" max="7669" width="8.88671875" style="18"/>
+    <col min="7670" max="7670" width="20.5546875" style="18" customWidth="1"/>
+    <col min="7671" max="7671" width="13.109375" style="18" customWidth="1"/>
+    <col min="7672" max="7672" width="8.88671875" style="18"/>
+    <col min="7673" max="7673" width="14.5546875" style="18" customWidth="1"/>
+    <col min="7674" max="7674" width="14.44140625" style="18" customWidth="1"/>
+    <col min="7675" max="7675" width="8.88671875" style="18" customWidth="1"/>
+    <col min="7676" max="7676" width="19.109375" style="18" customWidth="1"/>
+    <col min="7677" max="7677" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7678" max="7678" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7679" max="7679" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7680" max="7680" width="10.33203125" style="18" customWidth="1"/>
+    <col min="7681" max="7681" width="8" style="18" customWidth="1"/>
+    <col min="7682" max="7683" width="14.33203125" style="18" customWidth="1"/>
+    <col min="7684" max="7684" width="6.5546875" style="18" customWidth="1"/>
+    <col min="7685" max="7685" width="10.109375" style="18" customWidth="1"/>
+    <col min="7686" max="7686" width="7.5546875" style="18" customWidth="1"/>
+    <col min="7687" max="7925" width="8.88671875" style="18"/>
+    <col min="7926" max="7926" width="20.5546875" style="18" customWidth="1"/>
+    <col min="7927" max="7927" width="13.109375" style="18" customWidth="1"/>
+    <col min="7928" max="7928" width="8.88671875" style="18"/>
+    <col min="7929" max="7929" width="14.5546875" style="18" customWidth="1"/>
+    <col min="7930" max="7930" width="14.44140625" style="18" customWidth="1"/>
+    <col min="7931" max="7931" width="8.88671875" style="18" customWidth="1"/>
+    <col min="7932" max="7932" width="19.109375" style="18" customWidth="1"/>
+    <col min="7933" max="7933" width="12.33203125" style="18" customWidth="1"/>
+    <col min="7934" max="7934" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="7935" max="7935" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7936" max="7936" width="10.33203125" style="18" customWidth="1"/>
+    <col min="7937" max="7937" width="8" style="18" customWidth="1"/>
+    <col min="7938" max="7939" width="14.33203125" style="18" customWidth="1"/>
+    <col min="7940" max="7940" width="6.5546875" style="18" customWidth="1"/>
+    <col min="7941" max="7941" width="10.109375" style="18" customWidth="1"/>
+    <col min="7942" max="7942" width="7.5546875" style="18" customWidth="1"/>
+    <col min="7943" max="8181" width="8.88671875" style="18"/>
+    <col min="8182" max="8182" width="20.5546875" style="18" customWidth="1"/>
+    <col min="8183" max="8183" width="13.109375" style="18" customWidth="1"/>
+    <col min="8184" max="8184" width="8.88671875" style="18"/>
+    <col min="8185" max="8185" width="14.5546875" style="18" customWidth="1"/>
+    <col min="8186" max="8186" width="14.44140625" style="18" customWidth="1"/>
+    <col min="8187" max="8187" width="8.88671875" style="18" customWidth="1"/>
+    <col min="8188" max="8188" width="19.109375" style="18" customWidth="1"/>
+    <col min="8189" max="8189" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8190" max="8190" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8191" max="8191" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8192" max="8192" width="10.33203125" style="18" customWidth="1"/>
+    <col min="8193" max="8193" width="8" style="18" customWidth="1"/>
+    <col min="8194" max="8195" width="14.33203125" style="18" customWidth="1"/>
+    <col min="8196" max="8196" width="6.5546875" style="18" customWidth="1"/>
+    <col min="8197" max="8197" width="10.109375" style="18" customWidth="1"/>
+    <col min="8198" max="8198" width="7.5546875" style="18" customWidth="1"/>
+    <col min="8199" max="8437" width="8.88671875" style="18"/>
+    <col min="8438" max="8438" width="20.5546875" style="18" customWidth="1"/>
+    <col min="8439" max="8439" width="13.109375" style="18" customWidth="1"/>
+    <col min="8440" max="8440" width="8.88671875" style="18"/>
+    <col min="8441" max="8441" width="14.5546875" style="18" customWidth="1"/>
+    <col min="8442" max="8442" width="14.44140625" style="18" customWidth="1"/>
+    <col min="8443" max="8443" width="8.88671875" style="18" customWidth="1"/>
+    <col min="8444" max="8444" width="19.109375" style="18" customWidth="1"/>
+    <col min="8445" max="8445" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8446" max="8446" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8447" max="8447" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8448" max="8448" width="10.33203125" style="18" customWidth="1"/>
+    <col min="8449" max="8449" width="8" style="18" customWidth="1"/>
+    <col min="8450" max="8451" width="14.33203125" style="18" customWidth="1"/>
+    <col min="8452" max="8452" width="6.5546875" style="18" customWidth="1"/>
+    <col min="8453" max="8453" width="10.109375" style="18" customWidth="1"/>
+    <col min="8454" max="8454" width="7.5546875" style="18" customWidth="1"/>
+    <col min="8455" max="8693" width="8.88671875" style="18"/>
+    <col min="8694" max="8694" width="20.5546875" style="18" customWidth="1"/>
+    <col min="8695" max="8695" width="13.109375" style="18" customWidth="1"/>
+    <col min="8696" max="8696" width="8.88671875" style="18"/>
+    <col min="8697" max="8697" width="14.5546875" style="18" customWidth="1"/>
+    <col min="8698" max="8698" width="14.44140625" style="18" customWidth="1"/>
+    <col min="8699" max="8699" width="8.88671875" style="18" customWidth="1"/>
+    <col min="8700" max="8700" width="19.109375" style="18" customWidth="1"/>
+    <col min="8701" max="8701" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8702" max="8702" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8703" max="8703" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8704" max="8704" width="10.33203125" style="18" customWidth="1"/>
+    <col min="8705" max="8705" width="8" style="18" customWidth="1"/>
+    <col min="8706" max="8707" width="14.33203125" style="18" customWidth="1"/>
+    <col min="8708" max="8708" width="6.5546875" style="18" customWidth="1"/>
+    <col min="8709" max="8709" width="10.109375" style="18" customWidth="1"/>
+    <col min="8710" max="8710" width="7.5546875" style="18" customWidth="1"/>
+    <col min="8711" max="8949" width="8.88671875" style="18"/>
+    <col min="8950" max="8950" width="20.5546875" style="18" customWidth="1"/>
+    <col min="8951" max="8951" width="13.109375" style="18" customWidth="1"/>
+    <col min="8952" max="8952" width="8.88671875" style="18"/>
+    <col min="8953" max="8953" width="14.5546875" style="18" customWidth="1"/>
+    <col min="8954" max="8954" width="14.44140625" style="18" customWidth="1"/>
+    <col min="8955" max="8955" width="8.88671875" style="18" customWidth="1"/>
+    <col min="8956" max="8956" width="19.109375" style="18" customWidth="1"/>
+    <col min="8957" max="8957" width="12.33203125" style="18" customWidth="1"/>
+    <col min="8958" max="8958" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="8959" max="8959" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8960" max="8960" width="10.33203125" style="18" customWidth="1"/>
+    <col min="8961" max="8961" width="8" style="18" customWidth="1"/>
+    <col min="8962" max="8963" width="14.33203125" style="18" customWidth="1"/>
+    <col min="8964" max="8964" width="6.5546875" style="18" customWidth="1"/>
+    <col min="8965" max="8965" width="10.109375" style="18" customWidth="1"/>
+    <col min="8966" max="8966" width="7.5546875" style="18" customWidth="1"/>
+    <col min="8967" max="9205" width="8.88671875" style="18"/>
+    <col min="9206" max="9206" width="20.5546875" style="18" customWidth="1"/>
+    <col min="9207" max="9207" width="13.109375" style="18" customWidth="1"/>
+    <col min="9208" max="9208" width="8.88671875" style="18"/>
+    <col min="9209" max="9209" width="14.5546875" style="18" customWidth="1"/>
+    <col min="9210" max="9210" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9211" max="9211" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9212" max="9212" width="19.109375" style="18" customWidth="1"/>
+    <col min="9213" max="9213" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9214" max="9214" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9215" max="9215" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9216" max="9216" width="10.33203125" style="18" customWidth="1"/>
+    <col min="9217" max="9217" width="8" style="18" customWidth="1"/>
+    <col min="9218" max="9219" width="14.33203125" style="18" customWidth="1"/>
+    <col min="9220" max="9220" width="6.5546875" style="18" customWidth="1"/>
+    <col min="9221" max="9221" width="10.109375" style="18" customWidth="1"/>
+    <col min="9222" max="9222" width="7.5546875" style="18" customWidth="1"/>
+    <col min="9223" max="9461" width="8.88671875" style="18"/>
+    <col min="9462" max="9462" width="20.5546875" style="18" customWidth="1"/>
+    <col min="9463" max="9463" width="13.109375" style="18" customWidth="1"/>
+    <col min="9464" max="9464" width="8.88671875" style="18"/>
+    <col min="9465" max="9465" width="14.5546875" style="18" customWidth="1"/>
+    <col min="9466" max="9466" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9467" max="9467" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9468" max="9468" width="19.109375" style="18" customWidth="1"/>
+    <col min="9469" max="9469" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9470" max="9470" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9471" max="9471" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9472" max="9472" width="10.33203125" style="18" customWidth="1"/>
+    <col min="9473" max="9473" width="8" style="18" customWidth="1"/>
+    <col min="9474" max="9475" width="14.33203125" style="18" customWidth="1"/>
+    <col min="9476" max="9476" width="6.5546875" style="18" customWidth="1"/>
+    <col min="9477" max="9477" width="10.109375" style="18" customWidth="1"/>
+    <col min="9478" max="9478" width="7.5546875" style="18" customWidth="1"/>
+    <col min="9479" max="9717" width="8.88671875" style="18"/>
+    <col min="9718" max="9718" width="20.5546875" style="18" customWidth="1"/>
+    <col min="9719" max="9719" width="13.109375" style="18" customWidth="1"/>
+    <col min="9720" max="9720" width="8.88671875" style="18"/>
+    <col min="9721" max="9721" width="14.5546875" style="18" customWidth="1"/>
+    <col min="9722" max="9722" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9723" max="9723" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9724" max="9724" width="19.109375" style="18" customWidth="1"/>
+    <col min="9725" max="9725" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9726" max="9726" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9727" max="9727" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9728" max="9728" width="10.33203125" style="18" customWidth="1"/>
+    <col min="9729" max="9729" width="8" style="18" customWidth="1"/>
+    <col min="9730" max="9731" width="14.33203125" style="18" customWidth="1"/>
+    <col min="9732" max="9732" width="6.5546875" style="18" customWidth="1"/>
+    <col min="9733" max="9733" width="10.109375" style="18" customWidth="1"/>
+    <col min="9734" max="9734" width="7.5546875" style="18" customWidth="1"/>
+    <col min="9735" max="9973" width="8.88671875" style="18"/>
+    <col min="9974" max="9974" width="20.5546875" style="18" customWidth="1"/>
+    <col min="9975" max="9975" width="13.109375" style="18" customWidth="1"/>
+    <col min="9976" max="9976" width="8.88671875" style="18"/>
+    <col min="9977" max="9977" width="14.5546875" style="18" customWidth="1"/>
+    <col min="9978" max="9978" width="14.44140625" style="18" customWidth="1"/>
+    <col min="9979" max="9979" width="8.88671875" style="18" customWidth="1"/>
+    <col min="9980" max="9980" width="19.109375" style="18" customWidth="1"/>
+    <col min="9981" max="9981" width="12.33203125" style="18" customWidth="1"/>
+    <col min="9982" max="9982" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="9983" max="9983" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9984" max="9984" width="10.33203125" style="18" customWidth="1"/>
+    <col min="9985" max="9985" width="8" style="18" customWidth="1"/>
+    <col min="9986" max="9987" width="14.33203125" style="18" customWidth="1"/>
+    <col min="9988" max="9988" width="6.5546875" style="18" customWidth="1"/>
+    <col min="9989" max="9989" width="10.109375" style="18" customWidth="1"/>
+    <col min="9990" max="9990" width="7.5546875" style="18" customWidth="1"/>
+    <col min="9991" max="10229" width="8.88671875" style="18"/>
+    <col min="10230" max="10230" width="20.5546875" style="18" customWidth="1"/>
+    <col min="10231" max="10231" width="13.109375" style="18" customWidth="1"/>
+    <col min="10232" max="10232" width="8.88671875" style="18"/>
+    <col min="10233" max="10233" width="14.5546875" style="18" customWidth="1"/>
+    <col min="10234" max="10234" width="14.44140625" style="18" customWidth="1"/>
+    <col min="10235" max="10235" width="8.88671875" style="18" customWidth="1"/>
+    <col min="10236" max="10236" width="19.109375" style="18" customWidth="1"/>
+    <col min="10237" max="10237" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10238" max="10238" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10239" max="10239" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10240" max="10240" width="10.33203125" style="18" customWidth="1"/>
+    <col min="10241" max="10241" width="8" style="18" customWidth="1"/>
+    <col min="10242" max="10243" width="14.33203125" style="18" customWidth="1"/>
+    <col min="10244" max="10244" width="6.5546875" style="18" customWidth="1"/>
+    <col min="10245" max="10245" width="10.109375" style="18" customWidth="1"/>
+    <col min="10246" max="10246" width="7.5546875" style="18" customWidth="1"/>
+    <col min="10247" max="10485" width="8.88671875" style="18"/>
+    <col min="10486" max="10486" width="20.5546875" style="18" customWidth="1"/>
+    <col min="10487" max="10487" width="13.109375" style="18" customWidth="1"/>
+    <col min="10488" max="10488" width="8.88671875" style="18"/>
+    <col min="10489" max="10489" width="14.5546875" style="18" customWidth="1"/>
+    <col min="10490" max="10490" width="14.44140625" style="18" customWidth="1"/>
+    <col min="10491" max="10491" width="8.88671875" style="18" customWidth="1"/>
+    <col min="10492" max="10492" width="19.109375" style="18" customWidth="1"/>
+    <col min="10493" max="10493" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10494" max="10494" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10495" max="10495" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10496" max="10496" width="10.33203125" style="18" customWidth="1"/>
+    <col min="10497" max="10497" width="8" style="18" customWidth="1"/>
+    <col min="10498" max="10499" width="14.33203125" style="18" customWidth="1"/>
+    <col min="10500" max="10500" width="6.5546875" style="18" customWidth="1"/>
+    <col min="10501" max="10501" width="10.109375" style="18" customWidth="1"/>
+    <col min="10502" max="10502" width="7.5546875" style="18" customWidth="1"/>
+    <col min="10503" max="10741" width="8.88671875" style="18"/>
+    <col min="10742" max="10742" width="20.5546875" style="18" customWidth="1"/>
+    <col min="10743" max="10743" width="13.109375" style="18" customWidth="1"/>
+    <col min="10744" max="10744" width="8.88671875" style="18"/>
+    <col min="10745" max="10745" width="14.5546875" style="18" customWidth="1"/>
+    <col min="10746" max="10746" width="14.44140625" style="18" customWidth="1"/>
+    <col min="10747" max="10747" width="8.88671875" style="18" customWidth="1"/>
+    <col min="10748" max="10748" width="19.109375" style="18" customWidth="1"/>
+    <col min="10749" max="10749" width="12.33203125" style="18" customWidth="1"/>
+    <col min="10750" max="10750" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="10751" max="10751" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10752" max="10752" width="10.33203125" style="18" customWidth="1"/>
+    <col min="10753" max="10753" width="8" style="18" customWidth="1"/>
+    <col min="10754" max="10755" width="14.33203125" style="18" customWidth="1"/>
+    <col min="10756" max="10756" width="6.5546875" style="18" customWidth="1"/>
+    <col min="10757" max="10757" width="10.109375" style="18" customWidth="1"/>
+    <col min="10758" max="10758" width="7.5546875" style="18" customWidth="1"/>
+    <col min="10759" max="10997" width="8.88671875" style="18"/>
+    <col min="10998" max="10998" width="20.5546875" style="18" customWidth="1"/>
+    <col min="10999" max="10999" width="13.109375" style="18" customWidth="1"/>
+    <col min="11000" max="11000" width="8.88671875" style="18"/>
+    <col min="11001" max="11001" width="14.5546875" style="18" customWidth="1"/>
+    <col min="11002" max="11002" width="14.44140625" style="18" customWidth="1"/>
+    <col min="11003" max="11003" width="8.88671875" style="18" customWidth="1"/>
+    <col min="11004" max="11004" width="19.109375" style="18" customWidth="1"/>
+    <col min="11005" max="11005" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11006" max="11006" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11007" max="11007" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11008" max="11008" width="10.33203125" style="18" customWidth="1"/>
+    <col min="11009" max="11009" width="8" style="18" customWidth="1"/>
+    <col min="11010" max="11011" width="14.33203125" style="18" customWidth="1"/>
+    <col min="11012" max="11012" width="6.5546875" style="18" customWidth="1"/>
+    <col min="11013" max="11013" width="10.109375" style="18" customWidth="1"/>
+    <col min="11014" max="11014" width="7.5546875" style="18" customWidth="1"/>
+    <col min="11015" max="11253" width="8.88671875" style="18"/>
+    <col min="11254" max="11254" width="20.5546875" style="18" customWidth="1"/>
+    <col min="11255" max="11255" width="13.109375" style="18" customWidth="1"/>
+    <col min="11256" max="11256" width="8.88671875" style="18"/>
+    <col min="11257" max="11257" width="14.5546875" style="18" customWidth="1"/>
+    <col min="11258" max="11258" width="14.44140625" style="18" customWidth="1"/>
+    <col min="11259" max="11259" width="8.88671875" style="18" customWidth="1"/>
+    <col min="11260" max="11260" width="19.109375" style="18" customWidth="1"/>
+    <col min="11261" max="11261" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11262" max="11262" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11263" max="11263" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11264" max="11264" width="10.33203125" style="18" customWidth="1"/>
+    <col min="11265" max="11265" width="8" style="18" customWidth="1"/>
+    <col min="11266" max="11267" width="14.33203125" style="18" customWidth="1"/>
+    <col min="11268" max="11268" width="6.5546875" style="18" customWidth="1"/>
+    <col min="11269" max="11269" width="10.109375" style="18" customWidth="1"/>
+    <col min="11270" max="11270" width="7.5546875" style="18" customWidth="1"/>
+    <col min="11271" max="11509" width="8.88671875" style="18"/>
+    <col min="11510" max="11510" width="20.5546875" style="18" customWidth="1"/>
+    <col min="11511" max="11511" width="13.109375" style="18" customWidth="1"/>
+    <col min="11512" max="11512" width="8.88671875" style="18"/>
+    <col min="11513" max="11513" width="14.5546875" style="18" customWidth="1"/>
+    <col min="11514" max="11514" width="14.44140625" style="18" customWidth="1"/>
+    <col min="11515" max="11515" width="8.88671875" style="18" customWidth="1"/>
+    <col min="11516" max="11516" width="19.109375" style="18" customWidth="1"/>
+    <col min="11517" max="11517" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11518" max="11518" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11519" max="11519" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11520" max="11520" width="10.33203125" style="18" customWidth="1"/>
+    <col min="11521" max="11521" width="8" style="18" customWidth="1"/>
+    <col min="11522" max="11523" width="14.33203125" style="18" customWidth="1"/>
+    <col min="11524" max="11524" width="6.5546875" style="18" customWidth="1"/>
+    <col min="11525" max="11525" width="10.109375" style="18" customWidth="1"/>
+    <col min="11526" max="11526" width="7.5546875" style="18" customWidth="1"/>
+    <col min="11527" max="11765" width="8.88671875" style="18"/>
+    <col min="11766" max="11766" width="20.5546875" style="18" customWidth="1"/>
+    <col min="11767" max="11767" width="13.109375" style="18" customWidth="1"/>
+    <col min="11768" max="11768" width="8.88671875" style="18"/>
+    <col min="11769" max="11769" width="14.5546875" style="18" customWidth="1"/>
+    <col min="11770" max="11770" width="14.44140625" style="18" customWidth="1"/>
+    <col min="11771" max="11771" width="8.88671875" style="18" customWidth="1"/>
+    <col min="11772" max="11772" width="19.109375" style="18" customWidth="1"/>
+    <col min="11773" max="11773" width="12.33203125" style="18" customWidth="1"/>
+    <col min="11774" max="11774" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11775" max="11775" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="11776" max="11776" width="10.33203125" style="18" customWidth="1"/>
+    <col min="11777" max="11777" width="8" style="18" customWidth="1"/>
+    <col min="11778" max="11779" width="14.33203125" style="18" customWidth="1"/>
+    <col min="11780" max="11780" width="6.5546875" style="18" customWidth="1"/>
+    <col min="11781" max="11781" width="10.109375" style="18" customWidth="1"/>
+    <col min="11782" max="11782" width="7.5546875" style="18" customWidth="1"/>
+    <col min="11783" max="12021" width="8.88671875" style="18"/>
+    <col min="12022" max="12022" width="20.5546875" style="18" customWidth="1"/>
+    <col min="12023" max="12023" width="13.109375" style="18" customWidth="1"/>
+    <col min="12024" max="12024" width="8.88671875" style="18"/>
+    <col min="12025" max="12025" width="14.5546875" style="18" customWidth="1"/>
+    <col min="12026" max="12026" width="14.44140625" style="18" customWidth="1"/>
+    <col min="12027" max="12027" width="8.88671875" style="18" customWidth="1"/>
+    <col min="12028" max="12028" width="19.109375" style="18" customWidth="1"/>
+    <col min="12029" max="12029" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12030" max="12030" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12031" max="12031" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12032" max="12032" width="10.33203125" style="18" customWidth="1"/>
+    <col min="12033" max="12033" width="8" style="18" customWidth="1"/>
+    <col min="12034" max="12035" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12036" max="12036" width="6.5546875" style="18" customWidth="1"/>
+    <col min="12037" max="12037" width="10.109375" style="18" customWidth="1"/>
+    <col min="12038" max="12038" width="7.5546875" style="18" customWidth="1"/>
+    <col min="12039" max="12277" width="8.88671875" style="18"/>
+    <col min="12278" max="12278" width="20.5546875" style="18" customWidth="1"/>
+    <col min="12279" max="12279" width="13.109375" style="18" customWidth="1"/>
+    <col min="12280" max="12280" width="8.88671875" style="18"/>
+    <col min="12281" max="12281" width="14.5546875" style="18" customWidth="1"/>
+    <col min="12282" max="12282" width="14.44140625" style="18" customWidth="1"/>
+    <col min="12283" max="12283" width="8.88671875" style="18" customWidth="1"/>
+    <col min="12284" max="12284" width="19.109375" style="18" customWidth="1"/>
+    <col min="12285" max="12285" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12286" max="12286" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12287" max="12287" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12288" max="12288" width="10.33203125" style="18" customWidth="1"/>
+    <col min="12289" max="12289" width="8" style="18" customWidth="1"/>
+    <col min="12290" max="12291" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12292" max="12292" width="6.5546875" style="18" customWidth="1"/>
+    <col min="12293" max="12293" width="10.109375" style="18" customWidth="1"/>
+    <col min="12294" max="12294" width="7.5546875" style="18" customWidth="1"/>
+    <col min="12295" max="12533" width="8.88671875" style="18"/>
+    <col min="12534" max="12534" width="20.5546875" style="18" customWidth="1"/>
+    <col min="12535" max="12535" width="13.109375" style="18" customWidth="1"/>
+    <col min="12536" max="12536" width="8.88671875" style="18"/>
+    <col min="12537" max="12537" width="14.5546875" style="18" customWidth="1"/>
+    <col min="12538" max="12538" width="14.44140625" style="18" customWidth="1"/>
+    <col min="12539" max="12539" width="8.88671875" style="18" customWidth="1"/>
+    <col min="12540" max="12540" width="19.109375" style="18" customWidth="1"/>
+    <col min="12541" max="12541" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12542" max="12542" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12543" max="12543" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12544" max="12544" width="10.33203125" style="18" customWidth="1"/>
+    <col min="12545" max="12545" width="8" style="18" customWidth="1"/>
+    <col min="12546" max="12547" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12548" max="12548" width="6.5546875" style="18" customWidth="1"/>
+    <col min="12549" max="12549" width="10.109375" style="18" customWidth="1"/>
+    <col min="12550" max="12550" width="7.5546875" style="18" customWidth="1"/>
+    <col min="12551" max="12789" width="8.88671875" style="18"/>
+    <col min="12790" max="12790" width="20.5546875" style="18" customWidth="1"/>
+    <col min="12791" max="12791" width="13.109375" style="18" customWidth="1"/>
+    <col min="12792" max="12792" width="8.88671875" style="18"/>
+    <col min="12793" max="12793" width="14.5546875" style="18" customWidth="1"/>
+    <col min="12794" max="12794" width="14.44140625" style="18" customWidth="1"/>
+    <col min="12795" max="12795" width="8.88671875" style="18" customWidth="1"/>
+    <col min="12796" max="12796" width="19.109375" style="18" customWidth="1"/>
+    <col min="12797" max="12797" width="12.33203125" style="18" customWidth="1"/>
+    <col min="12798" max="12798" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12799" max="12799" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12800" max="12800" width="10.33203125" style="18" customWidth="1"/>
+    <col min="12801" max="12801" width="8" style="18" customWidth="1"/>
+    <col min="12802" max="12803" width="14.33203125" style="18" customWidth="1"/>
+    <col min="12804" max="12804" width="6.5546875" style="18" customWidth="1"/>
+    <col min="12805" max="12805" width="10.109375" style="18" customWidth="1"/>
+    <col min="12806" max="12806" width="7.5546875" style="18" customWidth="1"/>
+    <col min="12807" max="13045" width="8.88671875" style="18"/>
+    <col min="13046" max="13046" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13047" max="13047" width="13.109375" style="18" customWidth="1"/>
+    <col min="13048" max="13048" width="8.88671875" style="18"/>
+    <col min="13049" max="13049" width="14.5546875" style="18" customWidth="1"/>
+    <col min="13050" max="13050" width="14.44140625" style="18" customWidth="1"/>
+    <col min="13051" max="13051" width="8.88671875" style="18" customWidth="1"/>
+    <col min="13052" max="13052" width="19.109375" style="18" customWidth="1"/>
+    <col min="13053" max="13053" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13054" max="13054" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13055" max="13055" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13056" max="13056" width="10.33203125" style="18" customWidth="1"/>
+    <col min="13057" max="13057" width="8" style="18" customWidth="1"/>
+    <col min="13058" max="13059" width="14.33203125" style="18" customWidth="1"/>
+    <col min="13060" max="13060" width="6.5546875" style="18" customWidth="1"/>
+    <col min="13061" max="13061" width="10.109375" style="18" customWidth="1"/>
+    <col min="13062" max="13062" width="7.5546875" style="18" customWidth="1"/>
+    <col min="13063" max="13301" width="8.88671875" style="18"/>
+    <col min="13302" max="13302" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13303" max="13303" width="13.109375" style="18" customWidth="1"/>
+    <col min="13304" max="13304" width="8.88671875" style="18"/>
+    <col min="13305" max="13305" width="14.5546875" style="18" customWidth="1"/>
+    <col min="13306" max="13306" width="14.44140625" style="18" customWidth="1"/>
+    <col min="13307" max="13307" width="8.88671875" style="18" customWidth="1"/>
+    <col min="13308" max="13308" width="19.109375" style="18" customWidth="1"/>
+    <col min="13309" max="13309" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13310" max="13310" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13311" max="13311" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13312" max="13312" width="10.33203125" style="18" customWidth="1"/>
+    <col min="13313" max="13313" width="8" style="18" customWidth="1"/>
+    <col min="13314" max="13315" width="14.33203125" style="18" customWidth="1"/>
+    <col min="13316" max="13316" width="6.5546875" style="18" customWidth="1"/>
+    <col min="13317" max="13317" width="10.109375" style="18" customWidth="1"/>
+    <col min="13318" max="13318" width="7.5546875" style="18" customWidth="1"/>
+    <col min="13319" max="13557" width="8.88671875" style="18"/>
+    <col min="13558" max="13558" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13559" max="13559" width="13.109375" style="18" customWidth="1"/>
+    <col min="13560" max="13560" width="8.88671875" style="18"/>
+    <col min="13561" max="13561" width="14.5546875" style="18" customWidth="1"/>
+    <col min="13562" max="13562" width="14.44140625" style="18" customWidth="1"/>
+    <col min="13563" max="13563" width="8.88671875" style="18" customWidth="1"/>
+    <col min="13564" max="13564" width="19.109375" style="18" customWidth="1"/>
+    <col min="13565" max="13565" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13566" max="13566" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13567" max="13567" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13568" max="13568" width="10.33203125" style="18" customWidth="1"/>
+    <col min="13569" max="13569" width="8" style="18" customWidth="1"/>
+    <col min="13570" max="13571" width="14.33203125" style="18" customWidth="1"/>
+    <col min="13572" max="13572" width="6.5546875" style="18" customWidth="1"/>
+    <col min="13573" max="13573" width="10.109375" style="18" customWidth="1"/>
+    <col min="13574" max="13574" width="7.5546875" style="18" customWidth="1"/>
+    <col min="13575" max="13813" width="8.88671875" style="18"/>
+    <col min="13814" max="13814" width="20.5546875" style="18" customWidth="1"/>
+    <col min="13815" max="13815" width="13.109375" style="18" customWidth="1"/>
+    <col min="13816" max="13816" width="8.88671875" style="18"/>
+    <col min="13817" max="13817" width="14.5546875" style="18" customWidth="1"/>
+    <col min="13818" max="13818" width="14.44140625" style="18" customWidth="1"/>
+    <col min="13819" max="13819" width="8.88671875" style="18" customWidth="1"/>
+    <col min="13820" max="13820" width="19.109375" style="18" customWidth="1"/>
+    <col min="13821" max="13821" width="12.33203125" style="18" customWidth="1"/>
+    <col min="13822" max="13822" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13823" max="13823" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="13824" max="13824" width="10.33203125" style="18" customWidth="1"/>
+    <col min="13825" max="13825" width="8" style="18" customWidth="1"/>
+    <col min="13826" max="13827" width="14.33203125" style="18" customWidth="1"/>
+    <col min="13828" max="13828" width="6.5546875" style="18" customWidth="1"/>
+    <col min="13829" max="13829" width="10.109375" style="18" customWidth="1"/>
+    <col min="13830" max="13830" width="7.5546875" style="18" customWidth="1"/>
+    <col min="13831" max="14069" width="8.88671875" style="18"/>
+    <col min="14070" max="14070" width="20.5546875" style="18" customWidth="1"/>
+    <col min="14071" max="14071" width="13.109375" style="18" customWidth="1"/>
+    <col min="14072" max="14072" width="8.88671875" style="18"/>
+    <col min="14073" max="14073" width="14.5546875" style="18" customWidth="1"/>
+    <col min="14074" max="14074" width="14.44140625" style="18" customWidth="1"/>
+    <col min="14075" max="14075" width="8.88671875" style="18" customWidth="1"/>
+    <col min="14076" max="14076" width="19.109375" style="18" customWidth="1"/>
+    <col min="14077" max="14077" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14078" max="14078" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14079" max="14079" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14080" max="14080" width="10.33203125" style="18" customWidth="1"/>
+    <col min="14081" max="14081" width="8" style="18" customWidth="1"/>
+    <col min="14082" max="14083" width="14.33203125" style="18" customWidth="1"/>
+    <col min="14084" max="14084" width="6.5546875" style="18" customWidth="1"/>
+    <col min="14085" max="14085" width="10.109375" style="18" customWidth="1"/>
+    <col min="14086" max="14086" width="7.5546875" style="18" customWidth="1"/>
+    <col min="14087" max="14325" width="8.88671875" style="18"/>
+    <col min="14326" max="14326" width="20.5546875" style="18" customWidth="1"/>
+    <col min="14327" max="14327" width="13.109375" style="18" customWidth="1"/>
+    <col min="14328" max="14328" width="8.88671875" style="18"/>
+    <col min="14329" max="14329" width="14.5546875" style="18" customWidth="1"/>
+    <col min="14330" max="14330" width="14.44140625" style="18" customWidth="1"/>
+    <col min="14331" max="14331" width="8.88671875" style="18" customWidth="1"/>
+    <col min="14332" max="14332" width="19.109375" style="18" customWidth="1"/>
+    <col min="14333" max="14333" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14334" max="14334" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14335" max="14335" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14336" max="14336" width="10.33203125" style="18" customWidth="1"/>
+    <col min="14337" max="14337" width="8" style="18" customWidth="1"/>
+    <col min="14338" max="14339" width="14.33203125" style="18" customWidth="1"/>
+    <col min="14340" max="14340" width="6.5546875" style="18" customWidth="1"/>
+    <col min="14341" max="14341" width="10.109375" style="18" customWidth="1"/>
+    <col min="14342" max="14342" width="7.5546875" style="18" customWidth="1"/>
+    <col min="14343" max="14581" width="8.88671875" style="18"/>
+    <col min="14582" max="14582" width="20.5546875" style="18" customWidth="1"/>
+    <col min="14583" max="14583" width="13.109375" style="18" customWidth="1"/>
+    <col min="14584" max="14584" width="8.88671875" style="18"/>
+    <col min="14585" max="14585" width="14.5546875" style="18" customWidth="1"/>
+    <col min="14586" max="14586" width="14.44140625" style="18" customWidth="1"/>
+    <col min="14587" max="14587" width="8.88671875" style="18" customWidth="1"/>
+    <col min="14588" max="14588" width="19.109375" style="18" customWidth="1"/>
+    <col min="14589" max="14589" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14590" max="14590" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14591" max="14591" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14592" max="14592" width="10.33203125" style="18" customWidth="1"/>
+    <col min="14593" max="14593" width="8" style="18" customWidth="1"/>
+    <col min="14594" max="14595" width="14.33203125" style="18" customWidth="1"/>
+    <col min="14596" max="14596" width="6.5546875" style="18" customWidth="1"/>
+    <col min="14597" max="14597" width="10.109375" style="18" customWidth="1"/>
+    <col min="14598" max="14598" width="7.5546875" style="18" customWidth="1"/>
+    <col min="14599" max="14837" width="8.88671875" style="18"/>
+    <col min="14838" max="14838" width="20.5546875" style="18" customWidth="1"/>
+    <col min="14839" max="14839" width="13.109375" style="18" customWidth="1"/>
+    <col min="14840" max="14840" width="8.88671875" style="18"/>
+    <col min="14841" max="14841" width="14.5546875" style="18" customWidth="1"/>
+    <col min="14842" max="14842" width="14.44140625" style="18" customWidth="1"/>
+    <col min="14843" max="14843" width="8.88671875" style="18" customWidth="1"/>
+    <col min="14844" max="14844" width="19.109375" style="18" customWidth="1"/>
+    <col min="14845" max="14845" width="12.33203125" style="18" customWidth="1"/>
+    <col min="14846" max="14846" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14847" max="14847" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="14848" max="14848" width="10.33203125" style="18" customWidth="1"/>
+    <col min="14849" max="14849" width="8" style="18" customWidth="1"/>
+    <col min="14850" max="14851" width="14.33203125" style="18" customWidth="1"/>
+    <col min="14852" max="14852" width="6.5546875" style="18" customWidth="1"/>
+    <col min="14853" max="14853" width="10.109375" style="18" customWidth="1"/>
+    <col min="14854" max="14854" width="7.5546875" style="18" customWidth="1"/>
+    <col min="14855" max="15093" width="8.88671875" style="18"/>
+    <col min="15094" max="15094" width="20.5546875" style="18" customWidth="1"/>
+    <col min="15095" max="15095" width="13.109375" style="18" customWidth="1"/>
+    <col min="15096" max="15096" width="8.88671875" style="18"/>
+    <col min="15097" max="15097" width="14.5546875" style="18" customWidth="1"/>
+    <col min="15098" max="15098" width="14.44140625" style="18" customWidth="1"/>
+    <col min="15099" max="15099" width="8.88671875" style="18" customWidth="1"/>
+    <col min="15100" max="15100" width="19.109375" style="18" customWidth="1"/>
+    <col min="15101" max="15101" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15102" max="15102" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15103" max="15103" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15104" max="15104" width="10.33203125" style="18" customWidth="1"/>
+    <col min="15105" max="15105" width="8" style="18" customWidth="1"/>
+    <col min="15106" max="15107" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15108" max="15108" width="6.5546875" style="18" customWidth="1"/>
+    <col min="15109" max="15109" width="10.109375" style="18" customWidth="1"/>
+    <col min="15110" max="15110" width="7.5546875" style="18" customWidth="1"/>
+    <col min="15111" max="15349" width="8.88671875" style="18"/>
+    <col min="15350" max="15350" width="20.5546875" style="18" customWidth="1"/>
+    <col min="15351" max="15351" width="13.109375" style="18" customWidth="1"/>
+    <col min="15352" max="15352" width="8.88671875" style="18"/>
+    <col min="15353" max="15353" width="14.5546875" style="18" customWidth="1"/>
+    <col min="15354" max="15354" width="14.44140625" style="18" customWidth="1"/>
+    <col min="15355" max="15355" width="8.88671875" style="18" customWidth="1"/>
+    <col min="15356" max="15356" width="19.109375" style="18" customWidth="1"/>
+    <col min="15357" max="15357" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15358" max="15358" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15359" max="15359" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15360" max="15360" width="10.33203125" style="18" customWidth="1"/>
+    <col min="15361" max="15361" width="8" style="18" customWidth="1"/>
+    <col min="15362" max="15363" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15364" max="15364" width="6.5546875" style="18" customWidth="1"/>
+    <col min="15365" max="15365" width="10.109375" style="18" customWidth="1"/>
+    <col min="15366" max="15366" width="7.5546875" style="18" customWidth="1"/>
+    <col min="15367" max="15605" width="8.88671875" style="18"/>
+    <col min="15606" max="15606" width="20.5546875" style="18" customWidth="1"/>
+    <col min="15607" max="15607" width="13.109375" style="18" customWidth="1"/>
+    <col min="15608" max="15608" width="8.88671875" style="18"/>
+    <col min="15609" max="15609" width="14.5546875" style="18" customWidth="1"/>
+    <col min="15610" max="15610" width="14.44140625" style="18" customWidth="1"/>
+    <col min="15611" max="15611" width="8.88671875" style="18" customWidth="1"/>
+    <col min="15612" max="15612" width="19.109375" style="18" customWidth="1"/>
+    <col min="15613" max="15613" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15614" max="15614" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15615" max="15615" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15616" max="15616" width="10.33203125" style="18" customWidth="1"/>
+    <col min="15617" max="15617" width="8" style="18" customWidth="1"/>
+    <col min="15618" max="15619" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15620" max="15620" width="6.5546875" style="18" customWidth="1"/>
+    <col min="15621" max="15621" width="10.109375" style="18" customWidth="1"/>
+    <col min="15622" max="15622" width="7.5546875" style="18" customWidth="1"/>
+    <col min="15623" max="15861" width="8.88671875" style="18"/>
+    <col min="15862" max="15862" width="20.5546875" style="18" customWidth="1"/>
+    <col min="15863" max="15863" width="13.109375" style="18" customWidth="1"/>
+    <col min="15864" max="15864" width="8.88671875" style="18"/>
+    <col min="15865" max="15865" width="14.5546875" style="18" customWidth="1"/>
+    <col min="15866" max="15866" width="14.44140625" style="18" customWidth="1"/>
+    <col min="15867" max="15867" width="8.88671875" style="18" customWidth="1"/>
+    <col min="15868" max="15868" width="19.109375" style="18" customWidth="1"/>
+    <col min="15869" max="15869" width="12.33203125" style="18" customWidth="1"/>
+    <col min="15870" max="15870" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="15871" max="15871" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="15872" max="15872" width="10.33203125" style="18" customWidth="1"/>
+    <col min="15873" max="15873" width="8" style="18" customWidth="1"/>
+    <col min="15874" max="15875" width="14.33203125" style="18" customWidth="1"/>
+    <col min="15876" max="15876" width="6.5546875" style="18" customWidth="1"/>
+    <col min="15877" max="15877" width="10.109375" style="18" customWidth="1"/>
+    <col min="15878" max="15878" width="7.5546875" style="18" customWidth="1"/>
+    <col min="15879" max="16117" width="8.88671875" style="18"/>
+    <col min="16118" max="16118" width="20.5546875" style="18" customWidth="1"/>
+    <col min="16119" max="16119" width="13.109375" style="18" customWidth="1"/>
+    <col min="16120" max="16120" width="8.88671875" style="18"/>
+    <col min="16121" max="16121" width="14.5546875" style="18" customWidth="1"/>
+    <col min="16122" max="16122" width="14.44140625" style="18" customWidth="1"/>
+    <col min="16123" max="16123" width="8.88671875" style="18" customWidth="1"/>
+    <col min="16124" max="16124" width="19.109375" style="18" customWidth="1"/>
+    <col min="16125" max="16125" width="12.33203125" style="18" customWidth="1"/>
+    <col min="16126" max="16126" width="7.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="16127" max="16127" width="42.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16128" max="16128" width="10.33203125" style="18" customWidth="1"/>
+    <col min="16129" max="16129" width="8" style="18" customWidth="1"/>
+    <col min="16130" max="16131" width="14.33203125" style="18" customWidth="1"/>
+    <col min="16132" max="16132" width="6.5546875" style="18" customWidth="1"/>
+    <col min="16133" max="16133" width="10.109375" style="18" customWidth="1"/>
+    <col min="16134" max="16134" width="7.5546875" style="18" customWidth="1"/>
+    <col min="16135" max="16384" width="8.88671875" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="14" customFormat="1" ht="26.4">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="15">
+        <v>151007890</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15">
+        <v>36394</v>
+      </c>
+      <c r="E2" s="17">
+        <v>44232</v>
+      </c>
+      <c r="F2" s="15">
+        <v>614961</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="15">
+        <v>20</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15">
+        <v>20</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="15">
+        <v>151040504</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15">
+        <v>36394</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="15">
+        <v>614961</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="15">
+        <v>10</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="15">
+        <v>10</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="16">
+        <v>151058491</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16">
+        <v>36394</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="16">
+        <v>614961</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="16">
+        <v>1</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="64">
+        <v>151451608</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="23">
+        <v>10</v>
+      </c>
+      <c r="D6" s="24">
+        <v>16500</v>
+      </c>
+      <c r="E6" s="25">
+        <v>45369</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="26">
+        <v>2</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="26">
+        <v>2</v>
+      </c>
+      <c r="K6" s="25">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="8"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" s="29" customFormat="1">
+      <c r="A8" s="27">
+        <v>151357107</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>90</v>
+      </c>
+      <c r="D8" s="28">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="4">
+        <v>615181</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4">
+        <v>30</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:11" s="29" customFormat="1">
+      <c r="A10" s="8">
+        <v>151423149</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4831</v>
+      </c>
+      <c r="E10" s="5">
+        <v>45308</v>
+      </c>
+      <c r="F10" s="4">
+        <v>615698</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="4">
+        <v>5</v>
+      </c>
+      <c r="K10" s="5">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8">
+        <v>151296157</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="16">
+        <v>20</v>
+      </c>
+      <c r="D12" s="19">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="21">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8">
+        <v>151296157</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="16">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="15">
+        <v>615840</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="15">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="31"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="27">
+        <v>151335926</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="4">
+        <v>100</v>
+      </c>
+      <c r="D16" s="6">
+        <v>600</v>
+      </c>
+      <c r="E16" s="5">
+        <v>45070</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="7">
+        <v>50</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:13" s="29" customFormat="1">
+      <c r="A18" s="8">
+        <v>151423149</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5614</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45308</v>
+      </c>
+      <c r="F18" s="1">
+        <v>616026</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="29" customFormat="1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" s="29" customFormat="1">
+      <c r="A20" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7">
+        <v>6521</v>
+      </c>
+      <c r="E20" s="5">
+        <v>45350</v>
+      </c>
+      <c r="F20" s="4">
+        <v>616039</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="7">
+        <v>20</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" s="29" customFormat="1" ht="13.8" customHeight="1">
+      <c r="A22" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <v>80</v>
+      </c>
+      <c r="D22" s="4">
+        <v>4048</v>
+      </c>
+      <c r="E22" s="34">
+        <v>45322</v>
+      </c>
+      <c r="F22" s="4">
+        <v>630059</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>45337</v>
+      </c>
+      <c r="L22" s="48"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="1:13" s="29" customFormat="1">
+      <c r="A24" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4">
+        <v>50</v>
+      </c>
+      <c r="D24" s="35">
+        <v>5738</v>
+      </c>
+      <c r="E24" s="34">
+        <v>45350</v>
+      </c>
+      <c r="F24" s="27">
+        <v>632215</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="34">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="1:13" ht="11.4" customHeight="1">
+      <c r="A26" s="8">
+        <v>151110116</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="16">
+        <v>60</v>
+      </c>
+      <c r="D26" s="15">
+        <v>3450</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="15">
+        <v>634355</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="15">
+        <v>10</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="15">
+        <v>10</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="23">
+        <v>151008992</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="23">
+        <v>20</v>
+      </c>
+      <c r="D28" s="39">
+        <v>4726</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="23">
+        <v>635655</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="23">
+        <v>10</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="23">
+        <v>0</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="29"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="M29" s="29"/>
+    </row>
+    <row r="30" spans="1:13" s="29" customFormat="1">
+      <c r="A30" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4">
+        <v>40</v>
+      </c>
+      <c r="D30" s="28">
+        <v>2818</v>
+      </c>
+      <c r="E30" s="5">
+        <v>45350</v>
+      </c>
+      <c r="F30" s="27">
+        <v>635656</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="4">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="29" customFormat="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" s="29" customFormat="1">
+      <c r="A32" s="22">
+        <v>151397344</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="23">
+        <v>10</v>
+      </c>
+      <c r="D32" s="39">
+        <v>4716</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="22">
+        <v>635657</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="23">
+        <v>4</v>
+      </c>
+      <c r="I32" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0</v>
+      </c>
+      <c r="K32" s="25">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" spans="1:13" s="29" customFormat="1">
+      <c r="A34" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="23">
+        <v>40</v>
+      </c>
+      <c r="D34" s="40">
+        <v>3555</v>
+      </c>
+      <c r="E34" s="41">
+        <v>45362</v>
+      </c>
+      <c r="F34" s="22">
+        <v>646872</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="23">
+        <v>10</v>
+      </c>
+      <c r="I34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="23">
+        <v>5</v>
+      </c>
+      <c r="K34" s="41">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="8">
+        <v>151110116</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="16">
+        <v>40</v>
+      </c>
+      <c r="D36" s="19">
+        <v>112</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" s="21">
+        <v>50</v>
+      </c>
+      <c r="I36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="21">
+        <v>0</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="16">
+        <v>70</v>
+      </c>
+      <c r="D38" s="19">
+        <v>24050</v>
+      </c>
+      <c r="E38" s="20">
+        <v>45322</v>
+      </c>
+      <c r="F38" s="8">
+        <v>662351</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H38" s="21">
+        <v>2</v>
+      </c>
+      <c r="I38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="21">
+        <v>0</v>
+      </c>
+      <c r="K38" s="20">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="23">
+        <v>50</v>
+      </c>
+      <c r="D40" s="24">
+        <v>3510</v>
+      </c>
+      <c r="E40" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F40" s="23">
+        <v>663091</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="H40" s="26">
+        <v>5</v>
+      </c>
+      <c r="I40" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="26">
+        <v>5</v>
+      </c>
+      <c r="K40" s="26">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:13" s="29" customFormat="1">
+      <c r="A42" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="23">
+        <v>20</v>
+      </c>
+      <c r="D42" s="24">
+        <v>5130</v>
+      </c>
+      <c r="E42" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F42" s="23">
+        <v>663092</v>
+      </c>
+      <c r="G42" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="26">
+        <v>10</v>
+      </c>
+      <c r="I42" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="26">
+        <v>10</v>
+      </c>
+      <c r="K42" s="25">
+        <v>45392</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A44" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="23">
+        <v>30</v>
+      </c>
+      <c r="D44" s="24">
+        <v>6615</v>
+      </c>
+      <c r="E44" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F44" s="23">
+        <v>663093</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" s="26">
+        <v>10</v>
+      </c>
+      <c r="I44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="26">
+        <v>10</v>
+      </c>
+      <c r="K44" s="25">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="29" customFormat="1" ht="13.2" customHeight="1">
+      <c r="A45" s="65">
+        <v>151451737</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="4">
+        <v>10</v>
+      </c>
+      <c r="D45" s="6">
+        <v>6615</v>
+      </c>
+      <c r="E45" s="5">
+        <v>45369</v>
+      </c>
+      <c r="F45" s="4">
+        <v>663093</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" s="7">
+        <v>4</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="7">
+        <v>4</v>
+      </c>
+      <c r="K45" s="5">
+        <v>45460</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A47" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="16">
+        <v>20</v>
+      </c>
+      <c r="D47" s="19">
+        <v>10602</v>
+      </c>
+      <c r="E47" s="20">
+        <v>45350</v>
+      </c>
+      <c r="F47" s="8">
+        <v>663094</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="21">
+        <v>5</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="21">
+        <v>0</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A48" s="64">
+        <v>151450069</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="23">
+        <v>10</v>
+      </c>
+      <c r="D48" s="24">
+        <v>10602</v>
+      </c>
+      <c r="E48" s="25">
+        <v>45365</v>
+      </c>
+      <c r="F48" s="22">
+        <v>663094</v>
+      </c>
+      <c r="G48" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="26">
+        <v>5</v>
+      </c>
+      <c r="I48" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="26">
+        <v>5</v>
+      </c>
+      <c r="K48" s="26">
+        <v>111108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="13.5" customHeight="1">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" s="29" customFormat="1">
+      <c r="A50" s="22">
+        <v>151338133</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="23">
+        <v>30</v>
+      </c>
+      <c r="D50" s="24">
+        <v>6000</v>
+      </c>
+      <c r="E50" s="41">
+        <v>45077</v>
+      </c>
+      <c r="F50" s="23">
+        <v>668330</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" s="26">
+        <v>15</v>
+      </c>
+      <c r="I50" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="26">
+        <v>0</v>
+      </c>
+      <c r="K50" s="25">
+        <v>45077</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="29" customFormat="1">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A52" s="22">
+        <v>151353543</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="23">
+        <v>10</v>
+      </c>
+      <c r="D52" s="24">
+        <v>9703</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="22">
+        <v>681149</v>
+      </c>
+      <c r="G52" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="26">
+        <v>2</v>
+      </c>
+      <c r="I52" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="26">
+        <v>0</v>
+      </c>
+      <c r="K52" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" s="11" customFormat="1">
+      <c r="A54" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" s="1">
+        <v>50</v>
+      </c>
+      <c r="D54" s="10">
+        <v>1908</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45322</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" s="3">
+        <v>30</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="29" customFormat="1">
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="55"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="56"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+    </row>
+    <row r="56" spans="1:11" s="29" customFormat="1">
+      <c r="A56" s="52">
+        <v>151448502</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="49">
+        <v>10</v>
+      </c>
+      <c r="D56" s="50">
+        <v>8463</v>
+      </c>
+      <c r="E56" s="51">
+        <v>45362</v>
+      </c>
+      <c r="F56" s="52">
+        <v>687349</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="H56" s="53">
+        <v>50</v>
+      </c>
+      <c r="I56" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="53">
+        <v>0</v>
+      </c>
+      <c r="K56" s="53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="29" customFormat="1">
+      <c r="A57" s="58"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="62"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="63"/>
+    </row>
+    <row r="58" spans="1:11" s="29" customFormat="1">
+      <c r="A58" s="22">
+        <v>151242082</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="23">
+        <v>10</v>
+      </c>
+      <c r="D58" s="24">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="22">
+        <v>691660</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="26">
+        <v>1</v>
+      </c>
+      <c r="I58" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="26">
+        <v>0</v>
+      </c>
+      <c r="K58" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" s="29" customFormat="1">
+      <c r="A60" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="4">
+        <v>40</v>
+      </c>
+      <c r="D60" s="6">
+        <v>565</v>
+      </c>
+      <c r="E60" s="5">
+        <v>45322</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60" s="7">
+        <v>30</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="5">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="9">
+        <v>151264212</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="9">
+        <v>10</v>
+      </c>
+      <c r="D62" s="43">
+        <v>10710</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="9">
+        <v>704681</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="45">
+        <v>1</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="45">
+        <v>0</v>
+      </c>
+      <c r="K62" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="8">
+        <v>151429605</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="9">
+        <v>30</v>
+      </c>
+      <c r="D63" s="43">
+        <v>15500</v>
+      </c>
+      <c r="E63" s="44">
+        <v>45322</v>
+      </c>
+      <c r="F63" s="9">
+        <v>704681</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H63" s="45">
+        <v>1</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="45">
+        <v>1</v>
+      </c>
+      <c r="K63" s="44">
+        <v>45337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="8">
+        <v>151415265</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="16">
+        <v>40</v>
+      </c>
+      <c r="D65" s="19">
+        <v>4995</v>
+      </c>
+      <c r="E65" s="20">
+        <v>45286</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="21">
+        <v>10</v>
+      </c>
+      <c r="I65" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="21">
+        <v>0</v>
+      </c>
+      <c r="K65" s="20">
+        <v>45307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="20"/>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="19">
+        <v>4245</v>
+      </c>
+      <c r="E67" s="20">
+        <v>44223</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H67" s="21">
+        <v>2</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="21">
+        <v>0</v>
+      </c>
+      <c r="K67" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="20"/>
+    </row>
+    <row r="69" spans="1:11" s="29" customFormat="1">
+      <c r="A69" s="22">
+        <v>151448381</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="23">
+        <v>10</v>
+      </c>
+      <c r="D69" s="24">
+        <v>1896</v>
+      </c>
+      <c r="E69" s="25">
+        <v>45362</v>
+      </c>
+      <c r="F69" s="23">
+        <v>716663</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H69" s="26">
+        <v>2</v>
+      </c>
+      <c r="I69" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="26">
+        <v>2</v>
+      </c>
+      <c r="K69" s="25">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" s="29" customFormat="1">
+      <c r="A71" s="46">
+        <v>151350196</v>
+      </c>
+      <c r="B71" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="46">
+        <v>10</v>
+      </c>
+      <c r="D71" s="46">
+        <v>45000</v>
+      </c>
+      <c r="E71" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F71" s="46">
+        <v>719031</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" s="47">
+        <v>2</v>
+      </c>
+      <c r="I71" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="47">
+        <v>0</v>
+      </c>
+      <c r="K71" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="8"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="45"/>
+      <c r="K72" s="45"/>
+    </row>
+    <row r="73" spans="1:11" s="29" customFormat="1" ht="12.6" customHeight="1">
+      <c r="A73" s="22">
+        <v>151395324</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="23">
+        <v>20</v>
+      </c>
+      <c r="D73" s="40">
+        <v>11990</v>
+      </c>
+      <c r="E73" s="41">
+        <v>45236</v>
+      </c>
+      <c r="F73" s="22">
+        <v>719381</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="23">
+        <v>2</v>
+      </c>
+      <c r="I73" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="23">
+        <v>0</v>
+      </c>
+      <c r="K73" s="41">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="8"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="8"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="22">
+        <v>151341902</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="42">
+        <v>10</v>
+      </c>
+      <c r="D75" s="42">
+        <v>6800</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="42">
+        <v>720138</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" s="42">
+        <v>3</v>
+      </c>
+      <c r="I75" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="42">
+        <v>0</v>
+      </c>
+      <c r="K75" s="42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="1:11" s="29" customFormat="1">
+      <c r="A77" s="22">
+        <v>151343138</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="23">
+        <v>10</v>
+      </c>
+      <c r="D77" s="23">
+        <v>2490</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="22">
+        <v>724214</v>
+      </c>
+      <c r="G77" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="23">
+        <v>5</v>
+      </c>
+      <c r="I77" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="23">
+        <v>0</v>
+      </c>
+      <c r="K77" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="8">
+        <v>151442906</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" s="16">
+        <v>10</v>
+      </c>
+      <c r="D79" s="16">
+        <v>2900</v>
+      </c>
+      <c r="E79" s="20">
+        <v>45350</v>
+      </c>
+      <c r="F79" s="16">
+        <v>725828</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H79" s="16">
+        <v>10</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="16">
+        <v>0</v>
+      </c>
+      <c r="K79" s="20">
+        <v>45348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="1:11" s="29" customFormat="1">
+      <c r="A81" s="27">
+        <v>151315311</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4">
+        <v>10</v>
+      </c>
+      <c r="D81" s="4">
+        <v>100</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="4">
+        <v>728488</v>
+      </c>
+      <c r="G81" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H81" s="4">
+        <v>10</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>